--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Status</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>?</t>
+    <t>??y</t>
   </si>
   <si>
     <t>1480. Running Sum of 1d Array</t>
@@ -71,16 +71,40 @@
     <t>Array</t>
   </si>
   <si>
-    <t>from end to start</t>
-  </si>
-  <si>
-    <t>+</t>
+    <t>from end to start, 注意i的自增，总是忘掉</t>
+  </si>
+  <si>
+    <t>+y</t>
   </si>
   <si>
     <t>1470. Shuffle the Array</t>
   </si>
   <si>
     <t>vector.push_back()</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>1351. Count Negative Numbers in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>没有使用二分法，明早起来使用二分法做一下</t>
+  </si>
+  <si>
+    <t>1313. Decompress Run-Length Encoded List</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>1389. Create Target Array in the Given Order</t>
+  </si>
+  <si>
+    <t>细心，容易将数组中的值弄混, 注意vector.insert(it, value)用法</t>
   </si>
 </sst>
 </file>
@@ -89,9 +113,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -110,6 +134,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -117,15 +148,68 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,30 +225,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,60 +256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,19 +296,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,157 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,41 +484,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,15 +534,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -557,158 +542,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,20 +1057,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="47.875" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1057,7 +1086,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1071,7 +1100,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -1082,6 +1111,48 @@
       </c>
       <c r="D3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -19,7 +19,7 @@
     <author>third</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
   <si>
     <t>Status</t>
   </si>
@@ -98,13 +104,43 @@
     <t>1313. Decompress Run-Length Encoded List</t>
   </si>
   <si>
-    <t>？</t>
+    <t>?y</t>
   </si>
   <si>
     <t>1389. Create Target Array in the Given Order</t>
   </si>
   <si>
     <t>细心，容易将数组中的值弄混, 注意vector.insert(it, value)用法</t>
+  </si>
+  <si>
+    <t>1295. Find Numbers with Even Number of Digits</t>
+  </si>
+  <si>
+    <t>1450. Number of Students Doing Homework at a Given Time</t>
+  </si>
+  <si>
+    <t>very easy</t>
+  </si>
+  <si>
+    <t>1464. Maximum Product of Two Elements in an Array</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>1502. Can Make Arithmetic Progression From Sequence</t>
+  </si>
+  <si>
+    <t>注意相邻两个元素是如何在数组中进行循环的，不需要两层循环</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>1299. Replace Elements with Greatest Element on Right Side</t>
+  </si>
+  <si>
+    <t>c++ max()函数应用，从右向左的思想</t>
   </si>
 </sst>
 </file>
@@ -127,6 +163,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -134,6 +177,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -141,7 +255,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,116 +277,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,61 +332,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,115 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,17 +529,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,41 +543,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +562,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -581,153 +602,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,102 +1093,217 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="47.875" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="F3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="23550" windowHeight="12705"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Array" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -19,7 +19,7 @@
     <author>third</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+  <si>
+    <t>No.</t>
+  </si>
   <si>
     <t>Month</t>
   </si>
@@ -125,22 +128,61 @@
     <t>1464. Maximum Product of Two Elements in an Array</t>
   </si>
   <si>
+    <t>1502. Can Make Arithmetic Progression From Sequence</t>
+  </si>
+  <si>
+    <t>注意相邻两个元素是如何在数组中进行循环的，不需要两层循环,注意i和i-1的关系</t>
+  </si>
+  <si>
+    <t>1299. Replace Elements with Greatest Element on Right Side</t>
+  </si>
+  <si>
+    <t>c++ max()函数应用，从右向左的思想</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>1304. Find N Unique Integers Sum up to Zero</t>
+  </si>
+  <si>
+    <t>不用在意数组顺序，最终数组中元素相加为0就行</t>
+  </si>
+  <si>
+    <t>832. Flipping an Image</t>
+  </si>
+  <si>
+    <t>c++ #include &lt;algorithm&gt; reverse(arr.begin(), arr.end()); 异或运算^，效率更高</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
-    <t>1502. Can Make Arithmetic Progression From Sequence</t>
-  </si>
-  <si>
-    <t>注意相邻两个元素是如何在数组中进行循环的，不需要两层循环</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>1299. Replace Elements with Greatest Element on Right Side</t>
-  </si>
-  <si>
-    <t>c++ max()函数应用，从右向左的思想</t>
+    <t>1475. Final Prices With a Special Discount in a Shop</t>
+  </si>
+  <si>
+    <t>粗心，没有考虑prices[i]可以等于prices[j]的情况</t>
+  </si>
+  <si>
+    <t>977. Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t>讨论区有更好的解，但是我没有看懂</t>
+  </si>
+  <si>
+    <t>561. Array Partition I</t>
+  </si>
+  <si>
+    <t>1380. Lucky Numbers in a Matrix</t>
+  </si>
+  <si>
+    <t>c++ unordered_set定义, 常量INT_MAX和INT_MIN; unordered_set::find()</t>
+  </si>
+  <si>
+    <t>1491. Average Salary Excluding the Minimum and Maximum Salary</t>
+  </si>
+  <si>
+    <t>注意数组的索引情况，本题并不难，但是确实花了较长时间</t>
   </si>
 </sst>
 </file>
@@ -148,12 +190,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,40 +204,117 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,99 +327,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,7 +367,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,12 +376,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -344,13 +406,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,151 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,11 +576,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +620,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,207 +673,171 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1093,48 +1158,54 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="47.875" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="26.375" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -1143,32 +1214,40 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
@@ -1177,133 +1256,322 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23550" windowHeight="12705"/>
+    <workbookView windowWidth="27975" windowHeight="12705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
+    <sheet name="Tree" sheetId="2" r:id="rId2"/>
+    <sheet name="规则" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -47,8 +49,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>third</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+y: 一次过
+?: 有疑问
++: 看答案，需要复习</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>No.</t>
   </si>
@@ -140,49 +176,103 @@
     <t>c++ max()函数应用，从右向左的思想</t>
   </si>
   <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>1304. Find N Unique Integers Sum up to Zero</t>
+  </si>
+  <si>
+    <t>不用在意数组顺序，最终数组中元素相加为0就行; vector.push_back(); 针对奇数多个情况，其他一样</t>
+  </si>
+  <si>
+    <t>832. Flipping an Image</t>
+  </si>
+  <si>
+    <t>c++ #include &lt;algorithm&gt; reverse(arr.begin(), arr.end()); 异或运算^，效率更高</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>1475. Final Prices With a Special Discount in a Shop</t>
+  </si>
+  <si>
+    <t>粗心，没有考虑prices[i]可以等于prices[j]的情况; 还是那句话，把题读好，题目中有条件, 注意等号的成立</t>
+  </si>
+  <si>
+    <t>977. Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t>讨论区有更好的解，但是我没有看懂</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
-    <t>1304. Find N Unique Integers Sum up to Zero</t>
-  </si>
-  <si>
-    <t>不用在意数组顺序，最终数组中元素相加为0就行</t>
-  </si>
-  <si>
-    <t>832. Flipping an Image</t>
-  </si>
-  <si>
-    <t>c++ #include &lt;algorithm&gt; reverse(arr.begin(), arr.end()); 异或运算^，效率更高</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>1475. Final Prices With a Special Discount in a Shop</t>
-  </si>
-  <si>
-    <t>粗心，没有考虑prices[i]可以等于prices[j]的情况</t>
-  </si>
-  <si>
-    <t>977. Squares of a Sorted Array</t>
-  </si>
-  <si>
-    <t>讨论区有更好的解，但是我没有看懂</t>
-  </si>
-  <si>
     <t>561. Array Partition I</t>
   </si>
   <si>
     <t>1380. Lucky Numbers in a Matrix</t>
   </si>
   <si>
-    <t>c++ unordered_set定义, 常量INT_MAX和INT_MIN; unordered_set::find()</t>
+    <t>c++ unordered_set定义, 常量INT_MAX和INT_MIN; unordered_set::find(); unorder_set::insert(element)</t>
   </si>
   <si>
     <t>1491. Average Salary Excluding the Minimum and Maximum Salary</t>
   </si>
   <si>
-    <t>注意数组的索引情况，本题并不难，但是确实花了较长时间</t>
+    <t>注意数组的索引情况，本题并不难，但是确实花了较长时间; 注意在优先级不确定情况下添加括号，防止意外情况;注意结果的类型，别总是取int类型，看看题</t>
+  </si>
+  <si>
+    <t>1051. Height Checker</t>
+  </si>
+  <si>
+    <t>讨论中说这道题有问题，真正想问的应该是这个数组中有多少人不是遵守排序的。</t>
+  </si>
+  <si>
+    <t>undo</t>
+  </si>
+  <si>
+    <t>1337. The K Weakest Rows in a Matrix</t>
+  </si>
+  <si>
+    <t>给数组中的值排序，但是返回的是前几名原本的下标; pair&lt;T, T&gt;; begin(), end(); set()</t>
+  </si>
+  <si>
+    <t>1002. Find Common Characters</t>
+  </si>
+  <si>
+    <t>+?</t>
+  </si>
+  <si>
+    <t>938. Range Sum of BST</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>解决方法: inorder;第二遍写了出来是把这种写法给记着了</t>
+  </si>
+  <si>
+    <t>617. Merge Two Binary Trees</t>
+  </si>
+  <si>
+    <t>使用递归; 函数是否有返回值</t>
+  </si>
+  <si>
+    <t>700. Search in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>589. N-ary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>递归和迭代都要会</t>
+  </si>
+  <si>
+    <t>1.先刷英文题目，再中文题目</t>
+  </si>
+  <si>
+    <t>2.先树部分</t>
   </si>
 </sst>
 </file>
@@ -190,9 +280,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -213,16 +303,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,15 +347,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -257,25 +371,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,8 +394,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,60 +439,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -388,13 +478,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,13 +538,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,13 +586,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,127 +628,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,32 +666,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,6 +680,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,11 +719,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,13 +749,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,148 +768,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1158,12 +1248,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1519,10 +1609,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1542,13 +1632,13 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1562,16 +1652,82 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1579,4 +1735,394 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A42" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
     <sheet name="Tree" sheetId="2" r:id="rId2"/>
-    <sheet name="规则" sheetId="3" r:id="rId3"/>
+    <sheet name="Linked List" sheetId="4" r:id="rId3"/>
+    <sheet name="规则" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -79,12 +80,90 @@
         </r>
       </text>
     </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+easy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+这个题的做法需要记一下，以前没有遇见过</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>third</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+y: 一次过
+?: 有疑问
++: 看答案，需要复习</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
   <si>
     <t>No.</t>
   </si>
@@ -242,7 +321,7 @@
     <t>1002. Find Common Characters</t>
   </si>
   <si>
-    <t>+?</t>
+    <t>+?+y</t>
   </si>
   <si>
     <t>938. Range Sum of BST</t>
@@ -251,22 +330,85 @@
     <t>Tree</t>
   </si>
   <si>
-    <t>解决方法: inorder;第二遍写了出来是把这种写法给记着了</t>
+    <t>解决方法: inorder;第二遍写了出来是把这种写法给记着了; 另写一个中序遍历函数，左右就是递归作用，中就是得到我们最后想要的结果的过程</t>
+  </si>
+  <si>
+    <t>+++</t>
   </si>
   <si>
     <t>617. Merge Two Binary Trees</t>
   </si>
   <si>
-    <t>使用递归; 函数是否有返回值</t>
+    <t>使用递归; 函数是否有返回值;判空之后在进行递归的书写; 递归边界、递归式</t>
   </si>
   <si>
     <t>700. Search in a Binary Search Tree</t>
   </si>
   <si>
+    <t>++y</t>
+  </si>
+  <si>
     <t>589. N-ary Tree Preorder Traversal</t>
   </si>
   <si>
-    <t>递归和迭代都要会</t>
+    <t>递归和迭代都要会; 这一遍我觉得是依靠记忆的，我还记得该怎么写</t>
+  </si>
+  <si>
+    <t>y?y</t>
+  </si>
+  <si>
+    <t>590. N-ary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>因为会做上一题，知道的怎么写，这一题写着很快; children first, and then push back the root-&gt;val</t>
+  </si>
+  <si>
+    <t>897. Increasing Order Search Tree</t>
+  </si>
+  <si>
+    <t>可以打印出类似的结果，但是不知道如何以树的形式返回。</t>
+  </si>
+  <si>
+    <t>559. Maximum Depth of N-ary Tree</t>
+  </si>
+  <si>
+    <t>递归：靠着一个个的1积累;总是感觉使用迭代做树很难。递归写起来非常简洁</t>
+  </si>
+  <si>
+    <t>965. Univalued Binary Tree</t>
+  </si>
+  <si>
+    <t>pre-order</t>
+  </si>
+  <si>
+    <t>1022. Sum of Root To Leaf Binary Numbers</t>
+  </si>
+  <si>
+    <t>helper()函数里边逻辑，这里不好描述</t>
+  </si>
+  <si>
+    <t>1290. Convert Binary Number in a Linked List to Integer</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>两步：遍历+转换数字</t>
+  </si>
+  <si>
+    <t>237. Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>取而代之，重新赋值，delete</t>
+  </si>
+  <si>
+    <t>206. Reverse Linked List</t>
+  </si>
+  <si>
+    <t>链表头删，链表头插</t>
+  </si>
+  <si>
+    <t>21. Merge Two Sorted Lists</t>
   </si>
   <si>
     <t>1.先刷英文题目，再中文题目</t>
@@ -280,10 +422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -302,27 +444,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -331,23 +452,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -365,7 +469,37 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,16 +513,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,16 +545,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,15 +561,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,7 +599,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,31 +614,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,151 +788,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,15 +811,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -686,35 +825,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,6 +843,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,16 +878,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,166 +916,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1258,44 +1409,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="4" max="4" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="26.375" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -1309,14 +1460,14 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -1330,14 +1481,14 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
@@ -1351,14 +1502,14 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
@@ -1372,14 +1523,14 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
@@ -1393,7 +1544,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1403,7 +1554,7 @@
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
@@ -1414,7 +1565,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1424,7 +1575,7 @@
       <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
@@ -1438,7 +1589,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1448,7 +1599,7 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
@@ -1459,7 +1610,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1469,7 +1620,7 @@
       <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
@@ -1483,7 +1634,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1493,7 +1644,7 @@
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
@@ -1507,7 +1658,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1516,7 +1667,7 @@
       <c r="C12">
         <v>12</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="s">
@@ -1530,7 +1681,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1539,7 +1690,7 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
@@ -1553,7 +1704,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1562,7 +1713,7 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E14" t="s">
@@ -1576,7 +1727,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1585,7 +1736,7 @@
       <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
@@ -1599,7 +1750,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1608,7 +1759,7 @@
       <c r="C16">
         <v>13</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E16" t="s">
@@ -1619,7 +1770,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1628,7 +1779,7 @@
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
@@ -1642,7 +1793,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1651,7 +1802,7 @@
       <c r="C18">
         <v>14</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
@@ -1665,7 +1816,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1674,7 +1825,7 @@
       <c r="C19">
         <v>15</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
@@ -1688,7 +1839,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1697,7 +1848,7 @@
       <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E20" t="s">
@@ -1711,7 +1862,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1720,7 +1871,7 @@
       <c r="C21">
         <v>15</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="s">
@@ -1745,42 +1896,42 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="4" max="4" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1789,7 +1940,7 @@
       <c r="C2">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E2" t="s">
@@ -1803,7 +1954,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <f>A2+1</f>
         <v>2</v>
       </c>
@@ -1813,21 +1964,21 @@
       <c r="C3">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <f t="shared" ref="A4:A42" si="0">A3+1</f>
         <v>3</v>
       </c>
@@ -1837,18 +1988,18 @@
       <c r="C4">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1858,237 +2009,327 @@
       <c r="C5">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1">
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1">
+      <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1">
+      <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1">
+      <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="1">
+      <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1">
+      <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="1">
+      <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="1">
+      <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="1">
+      <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="1">
+      <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="1">
+      <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="1">
+      <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="1">
+      <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -2101,6 +2342,361 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="20.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <f t="shared" ref="A4:A41" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A2"/>
@@ -2113,12 +2709,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>No.</t>
   </si>
@@ -385,6 +385,30 @@
   </si>
   <si>
     <t>helper()函数里边逻辑，这里不好描述</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>和559题很像</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>递归，注意swap要交换两颗子树</t>
+  </si>
+  <si>
+    <t>872. Leaf-Similar Trees</t>
+  </si>
+  <si>
+    <t>dfs(main, dfs(l), dfs(r))</t>
+  </si>
+  <si>
+    <t>669. Trim a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>分类讨论，不在区间之间和在区间之间</t>
   </si>
   <si>
     <t>1290. Convert Binary Number in a Linked List to Integer</t>
@@ -422,10 +446,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -444,32 +468,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,31 +489,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -523,6 +515,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -530,8 +538,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,7 +562,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,37 +584,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -620,31 +644,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,145 +794,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,8 +841,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,6 +887,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -862,32 +916,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,162 +935,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1404,7 +1428,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1896,7 +1920,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2142,28 +2166,100 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -2395,13 +2491,13 @@
         <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2419,13 +2515,13 @@
         <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2443,13 +2539,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2467,10 +2563,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -2709,12 +2805,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -124,6 +124,51 @@
         </r>
       </text>
     </comment>
+    <comment ref="E18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+The key to such a solution would be a way to visit nodes in descending order, keeping a sum of all values that we have already visited and adding that sum to the node's values as we traverse the tree. This method for tree traversal is known as a reverse in-order traversal, and allows us to guarantee visitation of each node in the desired order. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+需要多做几遍
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -163,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="108">
   <si>
     <t>No.</t>
   </si>
@@ -333,7 +378,7 @@
     <t>解决方法: inorder;第二遍写了出来是把这种写法给记着了; 另写一个中序遍历函数，左右就是递归作用，中就是得到我们最后想要的结果的过程</t>
   </si>
   <si>
-    <t>+++</t>
+    <t>+++y</t>
   </si>
   <si>
     <t>617. Merge Two Binary Trees</t>
@@ -396,19 +441,58 @@
     <t>226. Invert Binary Tree</t>
   </si>
   <si>
-    <t>递归，注意swap要交换两颗子树</t>
+    <t>递归，注意swap要交换两颗子树;不需要满足左右孩子都存在才交换，有个为空也是交换的，不需要什么过滤条件</t>
   </si>
   <si>
     <t>872. Leaf-Similar Trees</t>
   </si>
   <si>
-    <t>dfs(main, dfs(l), dfs(r))</t>
+    <t>dfs(main, dfs(l), dfs(r));注意是叶结点才能被加入</t>
+  </si>
+  <si>
+    <t>+?</t>
   </si>
   <si>
     <t>669. Trim a Binary Search Tree</t>
   </si>
   <si>
-    <t>分类讨论，不在区间之间和在区间之间</t>
+    <t>分类讨论，不在区间之间和在区间之间; 查看root-&gt;val是否在范围内，还有如果在的话，就可以考虑左右孩子了</t>
+  </si>
+  <si>
+    <t>637. Average of Levels in Binary Tree</t>
+  </si>
+  <si>
+    <t>二叉树的层序遍历layerOrder;就是一个简单的层序遍历，不必另写函数</t>
+  </si>
+  <si>
+    <t>108. Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>另写一个方法，递归方式，递归边界: end &lt;= start; 递归式: 找出中间索引，引用自身</t>
+  </si>
+  <si>
+    <t>653. Two Sum IV - Input is a BST</t>
+  </si>
+  <si>
+    <t>这个题解我没有看懂</t>
+  </si>
+  <si>
+    <t>538. Convert BST to Greater Tree</t>
+  </si>
+  <si>
+    <t>reverse in-order traversal,递减的方式排序，后边的数需要加上前面所有的数，需要新建一个全局变量sum进行记录</t>
+  </si>
+  <si>
+    <t>606. Construct String from Binary Tree</t>
+  </si>
+  <si>
+    <t>to_string();分五种情况讨论，后来其实有两种可以合为一种：根空，跟有孩子空，根有左有，根有右有，根有左右有</t>
+  </si>
+  <si>
+    <t>530. Minimum Absolute Difference in BST</t>
+  </si>
+  <si>
+    <t>这个感觉比较难想</t>
   </si>
   <si>
     <t>1290. Convert Binary Number in a Linked List to Integer</t>
@@ -439,6 +523,15 @@
   </si>
   <si>
     <t>2.先树部分</t>
+  </si>
+  <si>
+    <t>3. 先看官方solution</t>
+  </si>
+  <si>
+    <t>命令规则</t>
+  </si>
+  <si>
+    <t>1. 不要取min/max这样的变量名称，因为c++中有内置max()和min()函数，会干扰视线。</t>
   </si>
 </sst>
 </file>
@@ -447,9 +540,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -468,15 +561,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,59 +583,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,16 +605,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,21 +638,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,6 +664,44 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -644,37 +737,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,13 +863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,7 +881,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,115 +905,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,8 +934,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,8 +966,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -886,17 +990,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,22 +1014,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,148 +1033,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1920,7 +2013,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2106,7 +2199,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>68</v>
@@ -2154,9 +2247,9 @@
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F10" t="s">
@@ -2178,7 +2271,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
@@ -2202,7 +2295,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>76</v>
@@ -2226,7 +2319,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
         <v>78</v>
@@ -2250,52 +2343,160 @@
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
         <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -2491,13 +2692,13 @@
         <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2515,13 +2716,13 @@
         <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2539,13 +2740,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2563,10 +2764,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -2795,22 +2996,37 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27975" windowHeight="12705" activeTab="1"/>
+    <workbookView windowWidth="27825" windowHeight="12495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>third</author>
+    <author>fifth</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0">
@@ -169,6 +170,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="E23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>fifth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+和530题很像
+一模一样的写法</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -208,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
   <si>
     <t>No.</t>
   </si>
@@ -480,7 +504,10 @@
     <t>538. Convert BST to Greater Tree</t>
   </si>
   <si>
-    <t>reverse in-order traversal,递减的方式排序，后边的数需要加上前面所有的数，需要新建一个全局变量sum进行记录</t>
+    <t>reverse in-order traversal,递减的方式排序，后边的数需要加上前面所有的数，需要新建一个全局变量sum进行记录; 注意curSum = root-&gt;val; 注意将两个return root合成一个</t>
+  </si>
+  <si>
+    <t>++?</t>
   </si>
   <si>
     <t>606. Construct String from Binary Tree</t>
@@ -489,10 +516,55 @@
     <t>to_string();分五种情况讨论，后来其实有两种可以合为一种：根空，跟有孩子空，根有左有，根有右有，根有左右有</t>
   </si>
   <si>
+    <t>++++</t>
+  </si>
+  <si>
     <t>530. Minimum Absolute Difference in BST</t>
   </si>
   <si>
-    <t>这个感觉比较难想</t>
+    <t>这个感觉比较难想; 另写一个helper()函数，类似in-order; 全局prev; prev-&gt;val只有在prev不为空的时候才有意义; 我又将if (prev != nullptr)写成 while(prev != nullptr)了，显示结果运行超时，最后还是利用对比工具找出来错误，不然还会以为是官方编译器出了问题</t>
+  </si>
+  <si>
+    <t>100. Same Tree</t>
+  </si>
+  <si>
+    <t>递归，先考虑根结点，然后对左右进行递归即可; 排序false情况的，然后剩下的就是true了</t>
+  </si>
+  <si>
+    <t>107. Binary Tree Level Order Traversal II</t>
+  </si>
+  <si>
+    <t>层序遍历, reverse(it.begin(), it.end()), 注意res.push_back({})写法; 考虑了root, 但是忘记了左右孩子; 想清楚res.size()与树高度的关系，是先有树，再有res</t>
+  </si>
+  <si>
+    <t>783. Minimum Distance Between BST Nodes</t>
+  </si>
+  <si>
+    <t>DFS, 不要凭印象，要有做题思维</t>
+  </si>
+  <si>
+    <t>993. Cousins in Binary Tree</t>
+  </si>
+  <si>
+    <t>DFS， 考虑的东西要多一些, 完全不知道这道题的步骤是怎么写出来的</t>
+  </si>
+  <si>
+    <t>257. Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>pre-order, 其实root部分写法最重要，判断叶子结点</t>
+  </si>
+  <si>
+    <t>404. Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>[题意]找到给定二叉树的所有左叶结点，返回其和</t>
+  </si>
+  <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>[题意]找到两个结点的挨着最近的父亲。画图，三种不同的情况，递归写出来的代码很好理解。</t>
   </si>
   <si>
     <t>1290. Convert Binary Number in a Linked List to Integer</t>
@@ -532,6 +604,15 @@
   </si>
   <si>
     <t>1. 不要取min/max这样的变量名称，因为c++中有内置max()和min()函数，会干扰视线。</t>
+  </si>
+  <si>
+    <t>2. 浏览代码当你发现代码段中有两个return root时，你需要好好想想能不能合成一个</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Notes: </t>
+  </si>
+  <si>
+    <t>[题意]</t>
   </si>
 </sst>
 </file>
@@ -539,16 +620,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -556,51 +637,105 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -608,38 +743,37 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -647,62 +781,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -737,7 +829,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,151 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,13 +1009,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,24 +1020,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -960,41 +1034,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,6 +1053,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1028,153 +1096,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,72 +1274,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1376,7 +1468,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1400,9 +1492,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1426,7 +1518,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1479,7 +1571,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1504,7 +1596,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1521,16 +1613,16 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="26.375" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="5" max="5" width="26.3733333333333" customWidth="true"/>
+    <col min="6" max="6" width="14.2533333333333" customWidth="true"/>
+    <col min="7" max="7" width="18" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2013,15 +2105,15 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="true"/>
+    <col min="6" max="6" width="4.9" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2439,7 +2531,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
         <v>89</v>
@@ -2463,16 +2555,16 @@
         <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
         <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2487,106 +2579,268 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
         <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="F32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="F33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="F34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -2649,10 +2903,10 @@
       <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="20.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="20.1266666666667" style="1" customWidth="true"/>
+    <col min="6" max="6" width="12.1266666666667" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2692,13 +2946,13 @@
         <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2716,13 +2970,13 @@
         <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2740,13 +2994,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2764,10 +3018,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -2996,37 +3250,50 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -193,6 +193,52 @@
         </r>
       </text>
     </comment>
+    <comment ref="E28" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>fifth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+去除次题，表述不清</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E31" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>fifth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+这个临界条件真的很难想啊！
+这道题和上一题写法有相似之处
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -232,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="135">
   <si>
     <t>No.</t>
   </si>
@@ -552,7 +598,7 @@
     <t>257. Binary Tree Paths</t>
   </si>
   <si>
-    <t>pre-order, 其实root部分写法最重要，判断叶子结点</t>
+    <t>pre-order, 其实root部分写法最重要，判断叶子结点; vector是不能使用加的, vector里边才是一个个string类型变量</t>
   </si>
   <si>
     <t>404. Sum of Left Leaves</t>
@@ -564,7 +610,31 @@
     <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
   </si>
   <si>
-    <t>[题意]找到两个结点的挨着最近的父亲。画图，三种不同的情况，递归写出来的代码很好理解。</t>
+    <t>[题意]找到两个结点的挨着最近的父亲。画图，三种不同的情况，递归写出来的代码很好理解。循环结构要写好</t>
+  </si>
+  <si>
+    <t>563. Binary Tree Tilt</t>
+  </si>
+  <si>
+    <t>[题意]</t>
+  </si>
+  <si>
+    <t>543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>[题意]找到二叉树中距离最远的两个结点的距离; 这个加一是什么逻辑?</t>
+  </si>
+  <si>
+    <t>101. Symmetric Tree</t>
+  </si>
+  <si>
+    <t>[题意]看二叉树是不是对称二叉树。想好条件的是与非</t>
+  </si>
+  <si>
+    <t>572. Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>[题意]判断一棵树是不是另一棵树的子树。另外写两个函数，第一个函数从相等的那个结点开始对比，第二个函数看s是否包含t</t>
   </si>
   <si>
     <t>1290. Convert Binary Number in a Linked List to Integer</t>
@@ -612,7 +682,7 @@
     <t xml:space="preserve">3. Notes: </t>
   </si>
   <si>
-    <t>[题意]</t>
+    <t>4. 每天将做完的题目加到anki中去</t>
   </si>
 </sst>
 </file>
@@ -622,10 +692,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,9 +712,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,14 +790,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -674,15 +827,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,65 +851,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -765,22 +859,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,7 +887,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -829,6 +908,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -841,7 +950,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,19 +974,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,73 +1076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,61 +1088,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,65 +1105,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1106,6 +1132,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1120,157 +1190,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1287,6 +1372,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1613,7 +1701,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6:C7"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -2105,7 +2193,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -2699,7 +2787,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
         <v>105</v>
@@ -2747,7 +2835,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
         <v>109</v>
@@ -2759,52 +2847,100 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="F28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>113</v>
       </c>
       <c r="F29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
       </c>
       <c r="F30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
       </c>
       <c r="F31" t="s">
         <v>54</v>
+      </c>
+      <c r="G31" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2946,13 +3082,13 @@
         <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2970,13 +3106,13 @@
         <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2994,13 +3130,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3018,10 +3154,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -3250,50 +3386,55 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -10,7 +10,10 @@
     <sheet name="Array" sheetId="1" r:id="rId1"/>
     <sheet name="Tree" sheetId="2" r:id="rId2"/>
     <sheet name="Linked List" sheetId="4" r:id="rId3"/>
-    <sheet name="规则" sheetId="3" r:id="rId4"/>
+    <sheet name="Queue" sheetId="5" r:id="rId4"/>
+    <sheet name="Stack" sheetId="6" r:id="rId5"/>
+    <sheet name="规则" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -277,8 +280,76 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>third</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+y: 一次过
+?: 有疑问
++: 看答案，需要复习</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>third</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+y: 一次过
+?: 有疑问
++: 看答案，需要复习</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="155">
   <si>
     <t>No.</t>
   </si>
@@ -622,19 +693,64 @@
     <t>543. Diameter of Binary Tree</t>
   </si>
   <si>
-    <t>[题意]找到二叉树中距离最远的两个结点的距离; 这个加一是什么逻辑?</t>
+    <t>[题意]找到二叉树中距离最远的两个结点的距离; 这个加一是什么逻辑?; 答案中的加一可以不这样写，令ans初始为0,最后结果也是正确的</t>
   </si>
   <si>
     <t>101. Symmetric Tree</t>
   </si>
   <si>
-    <t>[题意]看二叉树是不是对称二叉树。想好条件的是与非</t>
+    <t>[题意]看二叉树是不是对称二叉树。想好条件的是与非,拿另一棵相同的树与这棵树进行对比</t>
   </si>
   <si>
     <t>572. Subtree of Another Tree</t>
   </si>
   <si>
-    <t>[题意]判断一棵树是不是另一棵树的子树。另外写两个函数，第一个函数从相等的那个结点开始对比，第二个函数看s是否包含t</t>
+    <t>[题意]判断一棵树是不是另一棵树的子树。另外写两个函数，第一个函数从相等的那个结点开始对比，第二个函数看s是否包含t; 疑问：空树是任何一棵树的子树吗？</t>
+  </si>
+  <si>
+    <t>1315. Sum of Nodes with Even-Valued Grandparent</t>
+  </si>
+  <si>
+    <t>[题意]找出爷爷是偶数的结点的总和。使用dfs</t>
+  </si>
+  <si>
+    <t>1302. Deepest Leaves Sum</t>
+  </si>
+  <si>
+    <t>[题意]找出最下边一层的为叶子结点的总和。使用的是layerorder，之前写过类似的，不是很熟。</t>
+  </si>
+  <si>
+    <t>654. Maximum Binary Tree</t>
+  </si>
+  <si>
+    <t>1038. Binary Search Tree to Greater Sum Tree</t>
+  </si>
+  <si>
+    <t>[题意]将BST中从右子树到左子树开始累计相加，右边第二个结点的值更新为右边第一个加上右边第二个</t>
+  </si>
+  <si>
+    <t>671. Second Minimum Node In a Binary Tree</t>
+  </si>
+  <si>
+    <t>[题意]找出树中结点值第二小的结点。将全部结点值放入到一个set中去，自动去除重复值，然后找到第二个值，返回即可</t>
+  </si>
+  <si>
+    <t>701. Insert into a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>[题意]BST新结点插入操作。注意函数的返回值</t>
+  </si>
+  <si>
+    <t>501. Find Mode in Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[题意]找出二叉树中出现频次最高的数字。unordered_map&lt;int, int&gt; umap, umap.first, umap.second; </t>
+  </si>
+  <si>
+    <t>111. Minimum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>[题意]找到二叉树根结点距最近的叶子结点的路径长度</t>
   </si>
   <si>
     <t>1290. Convert Binary Number in a Linked List to Integer</t>
@@ -661,6 +777,15 @@
     <t>21. Merge Two Sorted Lists</t>
   </si>
   <si>
+    <t>933. Number of Recent Calls</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>1021. Remove Outermost Parentheses</t>
+  </si>
+  <si>
     <t>1.先刷英文题目，再中文题目</t>
   </si>
   <si>
@@ -683,6 +808,12 @@
   </si>
   <si>
     <t>4. 每天将做完的题目加到anki中去</t>
+  </si>
+  <si>
+    <t>5. 注意函数的返回值</t>
+  </si>
+  <si>
+    <t>6. 函数返回值为vector&lt;int&gt;的，第一句这样写if (!root) return {};</t>
   </si>
 </sst>
 </file>
@@ -690,10 +821,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -736,38 +867,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -781,53 +882,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,7 +898,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -859,7 +915,82 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,15 +1001,15 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -920,19 +1051,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,31 +1093,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,31 +1159,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,25 +1201,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,49 +1213,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,56 +1236,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1170,8 +1251,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,6 +1273,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1205,144 +1316,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1359,14 +1490,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1707,32 +1838,32 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="3"/>
     <col min="5" max="5" width="26.3733333333333" customWidth="true"/>
     <col min="6" max="6" width="14.2533333333333" customWidth="true"/>
     <col min="7" max="7" width="18" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1743,7 +1874,7 @@
       <c r="B2">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -1764,7 +1895,7 @@
       <c r="B3">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -1785,7 +1916,7 @@
       <c r="B4">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
@@ -1806,7 +1937,7 @@
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
@@ -1827,7 +1958,7 @@
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
@@ -1851,7 +1982,7 @@
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
@@ -1872,7 +2003,7 @@
       <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
@@ -1896,7 +2027,7 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
@@ -1917,7 +2048,7 @@
       <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
@@ -1941,7 +2072,7 @@
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
@@ -1964,7 +2095,7 @@
       <c r="C12">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="s">
@@ -1987,7 +2118,7 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
@@ -2010,7 +2141,7 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" t="s">
@@ -2033,7 +2164,7 @@
       <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
@@ -2056,7 +2187,7 @@
       <c r="C16">
         <v>13</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E16" t="s">
@@ -2076,7 +2207,7 @@
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
@@ -2099,7 +2230,7 @@
       <c r="C18">
         <v>14</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
@@ -2122,7 +2253,7 @@
       <c r="C19">
         <v>15</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
@@ -2145,7 +2276,7 @@
       <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E20" t="s">
@@ -2168,7 +2299,7 @@
       <c r="C21">
         <v>15</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="s">
@@ -2191,39 +2322,39 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="3"/>
     <col min="5" max="5" width="21.5" customWidth="true"/>
     <col min="6" max="6" width="4.9" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2237,7 +2368,7 @@
       <c r="C2">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E2" t="s">
@@ -2261,7 +2392,7 @@
       <c r="C3">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -2285,7 +2416,7 @@
       <c r="C4">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
@@ -2306,7 +2437,7 @@
       <c r="C5">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E5" t="s">
@@ -2330,7 +2461,7 @@
       <c r="C6">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E6" t="s">
@@ -2354,7 +2485,7 @@
       <c r="C7">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E7" t="s">
@@ -2378,7 +2509,7 @@
       <c r="C8">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
@@ -2402,7 +2533,7 @@
       <c r="C9">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
@@ -2426,7 +2557,7 @@
       <c r="C10">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -2450,7 +2581,7 @@
       <c r="C11">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
@@ -2474,7 +2605,7 @@
       <c r="C12">
         <v>23</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
@@ -2498,7 +2629,7 @@
       <c r="C13">
         <v>23</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
@@ -2522,7 +2653,7 @@
       <c r="C14">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E14" t="s">
@@ -2546,7 +2677,7 @@
       <c r="C15">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E15" t="s">
@@ -2570,7 +2701,7 @@
       <c r="C16">
         <v>24</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E16" t="s">
@@ -2594,7 +2725,7 @@
       <c r="C17">
         <v>24</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -2618,7 +2749,7 @@
       <c r="C18">
         <v>25</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E18" t="s">
@@ -2642,7 +2773,7 @@
       <c r="C19">
         <v>25</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E19" t="s">
@@ -2666,7 +2797,7 @@
       <c r="C20">
         <v>25</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E20" t="s">
@@ -2690,7 +2821,7 @@
       <c r="C21">
         <v>26</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E21" t="s">
@@ -2714,7 +2845,7 @@
       <c r="C22">
         <v>26</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E22" t="s">
@@ -2738,7 +2869,7 @@
       <c r="C23">
         <v>28</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E23" t="s">
@@ -2762,7 +2893,7 @@
       <c r="C24">
         <v>28</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -2786,7 +2917,7 @@
       <c r="C25">
         <v>30</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E25" t="s">
@@ -2810,7 +2941,7 @@
       <c r="C26">
         <v>30</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E26" t="s">
@@ -2834,7 +2965,7 @@
       <c r="C27">
         <v>30</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E27" t="s">
@@ -2858,7 +2989,7 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -2882,8 +3013,8 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>40</v>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E29" t="s">
         <v>113</v>
@@ -2906,8 +3037,8 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>40</v>
+      <c r="D30" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E30" t="s">
         <v>115</v>
@@ -2930,8 +3061,8 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>40</v>
+      <c r="D31" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E31" t="s">
         <v>117</v>
@@ -2943,82 +3074,228 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>119</v>
       </c>
       <c r="F32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>121</v>
       </c>
       <c r="F33" t="s">
         <v>54</v>
       </c>
+      <c r="G33" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>123</v>
+      </c>
       <c r="F34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
+      </c>
+      <c r="B35">
+        <f>B34</f>
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>124</v>
       </c>
       <c r="F35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="G35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <f>B40</f>
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
+      </c>
+      <c r="F42" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3041,30 +3318,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="20.1266666666667" style="1" customWidth="true"/>
+    <col min="5" max="5" width="20.1266666666667" style="3" customWidth="true"/>
     <col min="6" max="6" width="12.1266666666667" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3081,14 +3358,14 @@
       <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>119</v>
+      <c r="E2" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3105,14 +3382,14 @@
       <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>122</v>
+      <c r="E3" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3129,14 +3406,14 @@
       <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>124</v>
+      <c r="E4" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3153,11 +3430,11 @@
       <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>126</v>
+      <c r="E5" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -3386,47 +3663,497 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="20.5" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <f t="shared" ref="A4:A30" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B26" si="1">B3</f>
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
         <v>112</v>
@@ -3434,11 +4161,37 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27825" windowHeight="12495" activeTab="1"/>
+    <workbookView windowWidth="27825" windowHeight="12585" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="Linked List" sheetId="4" r:id="rId3"/>
     <sheet name="Queue" sheetId="5" r:id="rId4"/>
     <sheet name="Stack" sheetId="6" r:id="rId5"/>
-    <sheet name="规则" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
+    <sheet name="Math" sheetId="7" r:id="rId6"/>
+    <sheet name="规则" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -242,6 +243,50 @@
         </r>
       </text>
     </comment>
+    <comment ref="E40" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>fifth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+这道题“感觉”有些难</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E43" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">fifth:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>当初面试字节实习生时遇到的题目，并没有做出来。</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -348,8 +393,42 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>third</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+y: 一次过
+?: 有疑问
++: 看答案，需要复习</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="181">
   <si>
     <t>No.</t>
   </si>
@@ -507,7 +586,13 @@
     <t>1002. Find Common Characters</t>
   </si>
   <si>
-    <t>+?+y</t>
+    <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>[题意]合并两个已排序的数组。</t>
+  </si>
+  <si>
+    <t>+?+yy</t>
   </si>
   <si>
     <t>938. Range Sum of BST</t>
@@ -519,105 +604,108 @@
     <t>解决方法: inorder;第二遍写了出来是把这种写法给记着了; 另写一个中序遍历函数，左右就是递归作用，中就是得到我们最后想要的结果的过程</t>
   </si>
   <si>
-    <t>+++y</t>
+    <t>+++y+</t>
   </si>
   <si>
     <t>617. Merge Two Binary Trees</t>
   </si>
   <si>
-    <t>使用递归; 函数是否有返回值;判空之后在进行递归的书写; 递归边界、递归式</t>
+    <t>使用递归; 函数是否有返回值;判空之后在进行递归的书写; 递归边界、递归式;纸笔模拟</t>
   </si>
   <si>
     <t>700. Search in a Binary Search Tree</t>
   </si>
   <si>
+    <t>++yy</t>
+  </si>
+  <si>
+    <t>589. N-ary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>递归和迭代都要会; 这一遍我觉得是依靠记忆的，我还记得该怎么写</t>
+  </si>
+  <si>
+    <t>y?y</t>
+  </si>
+  <si>
+    <t>590. N-ary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>因为会做上一题，知道的怎么写，这一题写着很快; children first, and then push back the root-&gt;val</t>
+  </si>
+  <si>
+    <t>897. Increasing Order Search Tree</t>
+  </si>
+  <si>
+    <t>可以打印出类似的结果，但是不知道如何以树的形式返回。</t>
+  </si>
+  <si>
+    <t>559. Maximum Depth of N-ary Tree</t>
+  </si>
+  <si>
+    <t>递归：靠着一个个的1积累;总是感觉使用迭代做树很难。递归写起来非常简洁</t>
+  </si>
+  <si>
+    <t>965. Univalued Binary Tree</t>
+  </si>
+  <si>
+    <t>pre-order</t>
+  </si>
+  <si>
+    <t>1022. Sum of Root To Leaf Binary Numbers</t>
+  </si>
+  <si>
+    <t>helper()函数里边逻辑，这里不好描述</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>和559题很像</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>递归，注意swap要交换两颗子树;不需要满足左右孩子都存在才交换，有个为空也是交换的，不需要什么过滤条件</t>
+  </si>
+  <si>
+    <t>872. Leaf-Similar Trees</t>
+  </si>
+  <si>
+    <t>dfs(main, dfs(l), dfs(r));注意是叶结点才能被加入</t>
+  </si>
+  <si>
+    <t>+?</t>
+  </si>
+  <si>
+    <t>669. Trim a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>分类讨论，不在区间之间和在区间之间; 查看root-&gt;val是否在范围内，还有如果在的话，就可以考虑左右孩子了</t>
+  </si>
+  <si>
+    <t>637. Average of Levels in Binary Tree</t>
+  </si>
+  <si>
+    <t>二叉树的层序遍历layerOrder;就是一个简单的层序遍历，不必另写函数</t>
+  </si>
+  <si>
+    <t>108. Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>另写一个方法，递归方式，递归边界: end &lt;= start; 递归式: 找出中间索引，引用自身</t>
+  </si>
+  <si>
+    <t>653. Two Sum IV - Input is a BST</t>
+  </si>
+  <si>
+    <t>这个题解我没有看懂</t>
+  </si>
+  <si>
     <t>++y</t>
   </si>
   <si>
-    <t>589. N-ary Tree Preorder Traversal</t>
-  </si>
-  <si>
-    <t>递归和迭代都要会; 这一遍我觉得是依靠记忆的，我还记得该怎么写</t>
-  </si>
-  <si>
-    <t>y?y</t>
-  </si>
-  <si>
-    <t>590. N-ary Tree Postorder Traversal</t>
-  </si>
-  <si>
-    <t>因为会做上一题，知道的怎么写，这一题写着很快; children first, and then push back the root-&gt;val</t>
-  </si>
-  <si>
-    <t>897. Increasing Order Search Tree</t>
-  </si>
-  <si>
-    <t>可以打印出类似的结果，但是不知道如何以树的形式返回。</t>
-  </si>
-  <si>
-    <t>559. Maximum Depth of N-ary Tree</t>
-  </si>
-  <si>
-    <t>递归：靠着一个个的1积累;总是感觉使用迭代做树很难。递归写起来非常简洁</t>
-  </si>
-  <si>
-    <t>965. Univalued Binary Tree</t>
-  </si>
-  <si>
-    <t>pre-order</t>
-  </si>
-  <si>
-    <t>1022. Sum of Root To Leaf Binary Numbers</t>
-  </si>
-  <si>
-    <t>helper()函数里边逻辑，这里不好描述</t>
-  </si>
-  <si>
-    <t>104. Maximum Depth of Binary Tree</t>
-  </si>
-  <si>
-    <t>和559题很像</t>
-  </si>
-  <si>
-    <t>226. Invert Binary Tree</t>
-  </si>
-  <si>
-    <t>递归，注意swap要交换两颗子树;不需要满足左右孩子都存在才交换，有个为空也是交换的，不需要什么过滤条件</t>
-  </si>
-  <si>
-    <t>872. Leaf-Similar Trees</t>
-  </si>
-  <si>
-    <t>dfs(main, dfs(l), dfs(r));注意是叶结点才能被加入</t>
-  </si>
-  <si>
-    <t>+?</t>
-  </si>
-  <si>
-    <t>669. Trim a Binary Search Tree</t>
-  </si>
-  <si>
-    <t>分类讨论，不在区间之间和在区间之间; 查看root-&gt;val是否在范围内，还有如果在的话，就可以考虑左右孩子了</t>
-  </si>
-  <si>
-    <t>637. Average of Levels in Binary Tree</t>
-  </si>
-  <si>
-    <t>二叉树的层序遍历layerOrder;就是一个简单的层序遍历，不必另写函数</t>
-  </si>
-  <si>
-    <t>108. Convert Sorted Array to Binary Search Tree</t>
-  </si>
-  <si>
-    <t>另写一个方法，递归方式，递归边界: end &lt;= start; 递归式: 找出中间索引，引用自身</t>
-  </si>
-  <si>
-    <t>653. Two Sum IV - Input is a BST</t>
-  </si>
-  <si>
-    <t>这个题解我没有看懂</t>
-  </si>
-  <si>
     <t>538. Convert BST to Greater Tree</t>
   </si>
   <si>
@@ -753,6 +841,30 @@
     <t>[题意]找到二叉树根结点距最近的叶子结点的路径长度</t>
   </si>
   <si>
+    <t>1008. Construct Binary Search Tree from Preorder Traversal</t>
+  </si>
+  <si>
+    <t>[题意]根据前序遍历还原层序遍历</t>
+  </si>
+  <si>
+    <t>1305. All Elements in Two Binary Search Trees</t>
+  </si>
+  <si>
+    <t>[题意]两个BST，返回排序后的数组。</t>
+  </si>
+  <si>
+    <t>894. All Possible Full Binary Trees</t>
+  </si>
+  <si>
+    <t>[题意]给定结点数目，返回可形成二叉树的个数</t>
+  </si>
+  <si>
+    <t>103. Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>[题意]z字形打印二叉树。</t>
+  </si>
+  <si>
     <t>1290. Convert Binary Number in a Linked List to Integer</t>
   </si>
   <si>
@@ -777,6 +889,33 @@
     <t>21. Merge Two Sorted Lists</t>
   </si>
   <si>
+    <t>[题意]合并两个已排序的链表。</t>
+  </si>
+  <si>
+    <t>83. Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>[题意]删除链表中的重复元素，使链表中元素唯一，并且返回新的链表。看cur, cur-&gt;next值的关系。</t>
+  </si>
+  <si>
+    <t>141. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>[题意]查看链表中有没有环。two pointers, 在操场上慢跑，一个快，一个慢，快的每次两个结点，慢的一个结点，如果有环，肯定会相遇。</t>
+  </si>
+  <si>
+    <t>160. Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>[题意]寻找两个链表相同部分的第一个结点。two pointers, 计算两个的长度，让指针向前走，是当前长度相同，当两个指针相同时，返回即可</t>
+  </si>
+  <si>
+    <t>234. Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>[题意]判断链表是不是回文。</t>
+  </si>
+  <si>
     <t>933. Number of Recent Calls</t>
   </si>
   <si>
@@ -786,6 +925,9 @@
     <t>1021. Remove Outermost Parentheses</t>
   </si>
   <si>
+    <t>9. Palindrome Number</t>
+  </si>
+  <si>
     <t>1.先刷英文题目，再中文题目</t>
   </si>
   <si>
@@ -795,10 +937,10 @@
     <t>3. 先看官方solution</t>
   </si>
   <si>
-    <t>命令规则</t>
-  </si>
-  <si>
-    <t>1. 不要取min/max这样的变量名称，因为c++中有内置max()和min()函数，会干扰视线。</t>
+    <t>注意：</t>
+  </si>
+  <si>
+    <t>1. [命名规则]不要取min/max这样的变量名称，因为c++中有内置max()和min()函数，会干扰视线。</t>
   </si>
   <si>
     <t>2. 浏览代码当你发现代码段中有两个return root时，你需要好好想想能不能合成一个</t>
@@ -814,6 +956,21 @@
   </si>
   <si>
     <t>6. 函数返回值为vector&lt;int&gt;的，第一句这样写if (!root) return {};</t>
+  </si>
+  <si>
+    <t>7. 纸笔模拟</t>
+  </si>
+  <si>
+    <t>8. 不要忘记函数的参数</t>
+  </si>
+  <si>
+    <t>9. 如果题目看不懂，可以到中文网站，在leetcode.com中加入leetcode-cn.com查看。</t>
+  </si>
+  <si>
+    <t>10. 自己打10遍代码不如带样例运行一遍。</t>
+  </si>
+  <si>
+    <t>11. 做完一题后看一下similiar questions</t>
   </si>
 </sst>
 </file>
@@ -821,15 +978,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -875,15 +1039,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,9 +1071,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,16 +1093,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -945,22 +1146,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,28 +1155,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,12 +1182,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1051,31 +1221,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,7 +1251,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,13 +1269,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,109 +1395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,11 +1418,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,21 +1444,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1319,6 +1480,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1331,8 +1501,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1341,160 +1511,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
@@ -1502,10 +1687,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1827,54 +2012,54 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="4" max="4" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="4" max="4" width="9" style="8"/>
     <col min="5" max="5" width="26.3733333333333" customWidth="true"/>
     <col min="6" max="6" width="14.2533333333333" customWidth="true"/>
     <col min="7" max="7" width="18" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -1888,14 +2073,14 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="9">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -1909,14 +2094,14 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="9">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
@@ -1930,14 +2115,14 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
@@ -1951,14 +2136,14 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
@@ -1972,7 +2157,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1982,7 +2167,7 @@
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
@@ -1993,7 +2178,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2003,7 +2188,7 @@
       <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
@@ -2017,7 +2202,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2027,7 +2212,7 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
@@ -2038,7 +2223,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4">
+      <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2048,7 +2233,7 @@
       <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
@@ -2062,7 +2247,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2072,7 +2257,7 @@
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
@@ -2086,7 +2271,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2095,7 +2280,7 @@
       <c r="C12">
         <v>12</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="s">
@@ -2109,7 +2294,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2118,7 +2303,7 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
@@ -2132,7 +2317,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2141,7 +2326,7 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E14" t="s">
@@ -2155,7 +2340,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2164,7 +2349,7 @@
       <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
@@ -2178,7 +2363,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2187,7 +2372,7 @@
       <c r="C16">
         <v>13</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E16" t="s">
@@ -2198,7 +2383,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="4">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2207,7 +2392,7 @@
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
@@ -2221,7 +2406,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="4">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2230,7 +2415,7 @@
       <c r="C18">
         <v>14</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
@@ -2244,7 +2429,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="4">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2253,7 +2438,7 @@
       <c r="C19">
         <v>15</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
@@ -2267,7 +2452,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="4">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20">
@@ -2276,7 +2461,7 @@
       <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E20" t="s">
@@ -2290,7 +2475,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21">
@@ -2299,13 +2484,91 @@
       <c r="C21">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
       </c>
       <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2319,47 +2582,47 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="4" max="4" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="4" max="4" width="9" style="8"/>
     <col min="5" max="5" width="21.5" customWidth="true"/>
     <col min="6" max="6" width="4.9" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2368,21 +2631,21 @@
       <c r="C2">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>52</v>
+      <c r="D2" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="9">
         <f>A2+1</f>
         <v>2</v>
       </c>
@@ -2392,21 +2655,21 @@
       <c r="C3">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4">
+      <c r="A4" s="9">
         <f t="shared" ref="A4:A42" si="0">A3+1</f>
         <v>3</v>
       </c>
@@ -2416,18 +2679,18 @@
       <c r="C4">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2437,21 +2700,21 @@
       <c r="C5">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>60</v>
+      <c r="D5" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2461,21 +2724,21 @@
       <c r="C6">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>63</v>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4">
+      <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2485,21 +2748,21 @@
       <c r="C7">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2509,21 +2772,21 @@
       <c r="C8">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2533,21 +2796,21 @@
       <c r="C9">
         <v>23</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4">
+      <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2557,21 +2820,21 @@
       <c r="C10">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>72</v>
+      <c r="E10" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2581,21 +2844,21 @@
       <c r="C11">
         <v>23</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4">
+      <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -2605,21 +2868,21 @@
       <c r="C12">
         <v>23</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4">
+      <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2629,21 +2892,21 @@
       <c r="C13">
         <v>23</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4">
+      <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2653,21 +2916,21 @@
       <c r="C14">
         <v>23</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>80</v>
+      <c r="D14" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4">
+      <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2677,21 +2940,21 @@
       <c r="C15">
         <v>24</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4">
+      <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2701,21 +2964,21 @@
       <c r="C16">
         <v>24</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>80</v>
+      <c r="D16" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="4">
+      <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2725,21 +2988,21 @@
       <c r="C17">
         <v>24</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>87</v>
+      <c r="E17" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="4">
+      <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -2749,21 +3012,21 @@
       <c r="C18">
         <v>25</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>60</v>
+      <c r="D18" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="4">
+      <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -2773,21 +3036,21 @@
       <c r="C19">
         <v>25</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>91</v>
+      <c r="D19" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="4">
+      <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -2797,21 +3060,21 @@
       <c r="C20">
         <v>25</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>94</v>
+      <c r="D20" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="4">
+      <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2821,21 +3084,21 @@
       <c r="C21">
         <v>26</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>60</v>
+      <c r="D21" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4">
+      <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -2845,21 +3108,21 @@
       <c r="C22">
         <v>26</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>60</v>
+      <c r="D22" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="4">
+      <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -2869,21 +3132,21 @@
       <c r="C23">
         <v>28</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="4">
+      <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -2893,21 +3156,21 @@
       <c r="C24">
         <v>28</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>103</v>
+      <c r="E24" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="4">
+      <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -2917,21 +3180,21 @@
       <c r="C25">
         <v>30</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="4">
+      <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -2941,21 +3204,21 @@
       <c r="C26">
         <v>30</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="4">
+      <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -2965,21 +3228,21 @@
       <c r="C27">
         <v>30</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="4">
+      <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -2989,21 +3252,21 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>111</v>
+      <c r="E28" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="4">
+      <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -3013,21 +3276,21 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="4">
+      <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -3037,21 +3300,21 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="4">
+      <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -3061,21 +3324,21 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="4">
+      <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -3085,21 +3348,21 @@
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="4">
+      <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -3109,21 +3372,21 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>80</v>
+      <c r="D33" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="4">
+      <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -3133,18 +3396,18 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="4">
+      <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -3155,21 +3418,21 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="4">
+      <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -3179,21 +3442,21 @@
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="4">
+      <c r="A37" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -3203,21 +3466,21 @@
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="4">
+      <c r="A38" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -3227,21 +3490,21 @@
       <c r="C38">
         <v>4</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="4">
+      <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -3251,51 +3514,329 @@
       <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="9">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41:B43" si="1">B40</f>
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="9">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="9">
+        <f t="shared" ref="A43:A79" si="2">A42+1</f>
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="9">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="9">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="9">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="9">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="9">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="9">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="9">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="9">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="9">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="9">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="9">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="9">
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="G39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="4">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <f>B40</f>
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="4">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="F42" t="s">
-        <v>54</v>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="9">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="9">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="9">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="9">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="9">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="9">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="9">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="9">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="9">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="9">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="9">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="9">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="9">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="9">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="9">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="9">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="9">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="9">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="9">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="9">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="9">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="9">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="9">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="9">
+        <f t="shared" si="2"/>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3313,35 +3854,36 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="20.1266666666667" style="3" customWidth="true"/>
+    <col min="4" max="4" width="9" style="7"/>
+    <col min="5" max="5" width="20.1266666666667" style="8" customWidth="true"/>
     <col min="6" max="6" width="12.1266666666667" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3355,17 +3897,17 @@
       <c r="C2">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>134</v>
+      <c r="E2" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3379,17 +3921,17 @@
       <c r="C3">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>137</v>
+      <c r="E3" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3403,218 +3945,392 @@
       <c r="C4">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>139</v>
+      <c r="E4" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="F24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="F25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="F26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="F27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="F28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="F29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="F30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="F31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="F32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="F34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -3677,25 +4393,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3710,10 +4426,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3726,7 +4442,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3739,7 +4455,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3752,7 +4468,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3765,7 +4481,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3778,7 +4494,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3791,7 +4507,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3804,7 +4520,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3817,7 +4533,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3830,7 +4546,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3843,7 +4559,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3856,7 +4572,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3869,7 +4585,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3882,7 +4598,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3895,7 +4611,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3908,7 +4624,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3921,7 +4637,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3934,7 +4650,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3947,7 +4663,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3960,7 +4676,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3973,7 +4689,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3986,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3999,7 +4715,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4012,7 +4728,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4025,7 +4741,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4034,7 +4750,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -4067,7 +4783,7 @@
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
@@ -4076,31 +4792,31 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="5:5">
       <c r="E2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4113,65 +4829,363 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="G1:M37"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="10" max="10" width="7.4" style="3" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:13">
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="7:11">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="7:7">
+      <c r="G3">
+        <f>G2+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="7:7">
+      <c r="G4">
+        <f t="shared" ref="G4:G37" si="0">G3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="7:7">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="7:7">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="7:7">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>148</v>
+      <c r="A20" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" t="s">
-        <v>112</v>
+        <v>172</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4180,12 +5194,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27825" windowHeight="12585" activeTab="4"/>
+    <workbookView windowWidth="27825" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -243,6 +243,50 @@
         </r>
       </text>
     </comment>
+    <comment ref="E37" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>fifth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+注意这道题的递归写法。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>fifth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+这道题题解没有看懂.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E40" authorId="1">
       <text>
         <r>
@@ -428,7 +472,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="185">
   <si>
     <t>No.</t>
   </si>
@@ -613,6 +657,9 @@
     <t>使用递归; 函数是否有返回值;判空之后在进行递归的书写; 递归边界、递归式;纸笔模拟</t>
   </si>
   <si>
+    <t>+yyy</t>
+  </si>
+  <si>
     <t>700. Search in a Binary Search Tree</t>
   </si>
   <si>
@@ -685,16 +732,22 @@
     <t>分类讨论，不在区间之间和在区间之间; 查看root-&gt;val是否在范围内，还有如果在的话，就可以考虑左右孩子了</t>
   </si>
   <si>
+    <t>++y</t>
+  </si>
+  <si>
     <t>637. Average of Levels in Binary Tree</t>
   </si>
   <si>
     <t>二叉树的层序遍历layerOrder;就是一个简单的层序遍历，不必另写函数</t>
   </si>
   <si>
+    <t>+?+</t>
+  </si>
+  <si>
     <t>108. Convert Sorted Array to Binary Search Tree</t>
   </si>
   <si>
-    <t>另写一个方法，递归方式，递归边界: end &lt;= start; 递归式: 找出中间索引，引用自身</t>
+    <t>另写一个方法，递归方式，递归边界: end &lt;= start; 递归式: 找出中间索引，引用自身。数组的右边界为什么是nums.size(),而不是nums.size()-1</t>
   </si>
   <si>
     <t>653. Two Sum IV - Input is a BST</t>
@@ -703,9 +756,6 @@
     <t>这个题解我没有看懂</t>
   </si>
   <si>
-    <t>++y</t>
-  </si>
-  <si>
     <t>538. Convert BST to Greater Tree</t>
   </si>
   <si>
@@ -778,6 +828,9 @@
     <t>[题意]</t>
   </si>
   <si>
+    <t>+++</t>
+  </si>
+  <si>
     <t>543. Diameter of Binary Tree</t>
   </si>
   <si>
@@ -809,6 +862,9 @@
   </si>
   <si>
     <t>654. Maximum Binary Tree</t>
+  </si>
+  <si>
+    <t>yy</t>
   </si>
   <si>
     <t>1038. Binary Search Tree to Greater Sum Tree</t>
@@ -978,10 +1034,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1016,9 +1072,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1031,25 +1095,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1072,59 +1119,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,9 +1134,78 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1152,14 +1216,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -1168,12 +1230,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -1215,67 +1271,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,7 +1307,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,25 +1397,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,67 +1451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,11 +1465,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1429,36 +1500,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1480,15 +1521,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1498,11 +1530,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1511,148 +1567,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2584,10 +2640,10 @@
   <sheetPr/>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -2680,10 +2736,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
@@ -2701,16 +2757,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2725,16 +2781,16 @@
         <v>19</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2752,13 +2808,13 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2776,13 +2832,13 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2800,13 +2856,13 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2824,13 +2880,13 @@
         <v>30</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
         <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2848,13 +2904,13 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2872,13 +2928,13 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
         <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2896,13 +2952,13 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2917,16 +2973,16 @@
         <v>23</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2941,16 +2997,16 @@
         <v>24</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
         <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2965,16 +3021,16 @@
         <v>24</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2992,13 +3048,13 @@
         <v>40</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
         <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3013,16 +3069,16 @@
         <v>25</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
         <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3037,16 +3093,16 @@
         <v>25</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
         <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3061,16 +3117,16 @@
         <v>25</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
         <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3085,16 +3141,16 @@
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
         <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3109,16 +3165,16 @@
         <v>26</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
         <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3136,13 +3192,13 @@
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
         <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3160,13 +3216,13 @@
         <v>30</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3184,13 +3240,13 @@
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F25" t="s">
         <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3208,13 +3264,13 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F26" t="s">
         <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3232,13 +3288,13 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
         <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3256,13 +3312,13 @@
         <v>40</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
         <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3277,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
         <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3304,13 +3360,13 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3325,16 +3381,16 @@
         <v>1</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
         <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3352,13 +3408,13 @@
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
         <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3373,16 +3429,16 @@
         <v>2</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
         <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3400,7 +3456,7 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F34" t="s">
         <v>56</v>
@@ -3419,16 +3475,16 @@
         <v>4</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
         <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3443,16 +3499,16 @@
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F36" t="s">
         <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3467,16 +3523,16 @@
         <v>4</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F37" t="s">
         <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3491,16 +3547,16 @@
         <v>4</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F38" t="s">
         <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3518,13 +3574,13 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F39" t="s">
         <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3542,13 +3598,13 @@
         <v>40</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
         <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3564,16 +3620,16 @@
         <v>6</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
         <v>56</v>
       </c>
       <c r="G41" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3592,13 +3648,13 @@
         <v>48</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F42" t="s">
         <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3617,10 +3673,10 @@
         <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G43" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -3901,13 +3957,13 @@
         <v>40</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3925,13 +3981,13 @@
         <v>40</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3949,13 +4005,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" t="s">
         <v>150</v>
       </c>
-      <c r="F4" t="s">
-        <v>146</v>
-      </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3973,13 +4029,13 @@
         <v>40</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3997,13 +4053,13 @@
         <v>40</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4021,13 +4077,13 @@
         <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4045,13 +4101,13 @@
         <v>40</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4066,13 +4122,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4087,7 +4143,7 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4102,7 +4158,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4117,7 +4173,7 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4132,7 +4188,7 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4141,7 +4197,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4150,7 +4206,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4159,7 +4215,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4168,7 +4224,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4177,7 +4233,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4186,7 +4242,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4195,7 +4251,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4204,7 +4260,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4213,7 +4269,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4222,7 +4278,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4231,7 +4287,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4240,7 +4296,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4249,7 +4305,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4258,7 +4314,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4267,7 +4323,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4276,7 +4332,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4285,7 +4341,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4294,7 +4350,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4303,7 +4359,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4312,7 +4368,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4321,7 +4377,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4330,7 +4386,7 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -4426,10 +4482,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4442,7 +4498,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4455,7 +4511,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4468,7 +4524,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4481,7 +4537,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4494,7 +4550,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4507,7 +4563,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4520,7 +4576,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4533,7 +4589,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4546,7 +4602,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4559,7 +4615,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4572,7 +4628,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4585,7 +4641,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4598,7 +4654,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4611,7 +4667,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4624,7 +4680,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4637,7 +4693,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4650,7 +4706,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4663,7 +4719,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4676,7 +4732,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4689,7 +4745,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4702,7 +4758,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4715,7 +4771,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4728,7 +4784,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4741,7 +4797,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4750,7 +4806,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -4783,7 +4839,7 @@
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
@@ -4816,7 +4872,7 @@
     </row>
     <row r="2" spans="5:5">
       <c r="E2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4879,7 +4935,7 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="7:7">
@@ -5112,80 +5168,80 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Array" sheetId="1" r:id="rId1"/>
     <sheet name="Tree" sheetId="2" r:id="rId2"/>
     <sheet name="Linked List" sheetId="4" r:id="rId3"/>
-    <sheet name="Queue" sheetId="5" r:id="rId4"/>
-    <sheet name="Stack" sheetId="6" r:id="rId5"/>
+    <sheet name="Stack" sheetId="6" r:id="rId4"/>
+    <sheet name="Queue" sheetId="5" r:id="rId5"/>
     <sheet name="Math" sheetId="7" r:id="rId6"/>
     <sheet name="规则" sheetId="3" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
@@ -339,6 +339,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>third</author>
+    <author>fifth</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0">
@@ -362,6 +363,28 @@
 y: 一次过
 ?: 有疑问
 +: 看答案，需要复习</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>fifth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+没有看懂题解</t>
         </r>
       </text>
     </comment>
@@ -472,7 +495,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="197">
   <si>
     <t>No.</t>
   </si>
@@ -843,6 +866,9 @@
     <t>[题意]看二叉树是不是对称二叉树。想好条件的是与非,拿另一棵相同的树与这棵树进行对比</t>
   </si>
   <si>
+    <t>+++y</t>
+  </si>
+  <si>
     <t>572. Subtree of Another Tree</t>
   </si>
   <si>
@@ -972,15 +998,45 @@
     <t>[题意]判断链表是不是回文。</t>
   </si>
   <si>
+    <t>203. Remove Linked List Elements</t>
+  </si>
+  <si>
+    <t>[题意]移除链表中匹配的结点。先考虑为空时的条件。</t>
+  </si>
+  <si>
+    <t>1019. Next Greater Node In Linked List</t>
+  </si>
+  <si>
+    <t>[题意]找到比当前元素最近的比它大的值，返回一个数组。</t>
+  </si>
+  <si>
+    <t>328. Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>725. Split Linked List in Parts</t>
+  </si>
+  <si>
+    <t>2. Add Two Numbers</t>
+  </si>
+  <si>
+    <t>[题意]两个链表中结点数值相加，需要考虑进位。</t>
+  </si>
+  <si>
+    <t>445. Add Two Numbers II</t>
+  </si>
+  <si>
+    <t>[题意]两个链表中结点数值从尾部开始相加，需要考虑向前进位。头插法</t>
+  </si>
+  <si>
+    <t>1021. Remove Outermost Parentheses</t>
+  </si>
+  <si>
     <t>933. Number of Recent Calls</t>
   </si>
   <si>
     <t>Queue</t>
   </si>
   <si>
-    <t>1021. Remove Outermost Parentheses</t>
-  </si>
-  <si>
     <t>9. Palindrome Number</t>
   </si>
   <si>
@@ -1027,6 +1083,9 @@
   </si>
   <si>
     <t>11. 做完一题后看一下similiar questions</t>
+  </si>
+  <si>
+    <t>12. stack.top(), not front()</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1093,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1072,17 +1131,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1095,46 +1146,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1150,6 +1188,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1157,29 +1203,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1193,32 +1231,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1230,6 +1284,11 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -1271,7 +1330,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,7 +1414,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,37 +1474,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,121 +1510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,6 +1521,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1476,30 +1544,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1521,11 +1565,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1544,171 +1621,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2641,9 +2700,9 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -2805,7 +2864,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
@@ -3381,16 +3440,16 @@
         <v>1</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
         <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3408,13 +3467,13 @@
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
         <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3432,13 +3491,13 @@
         <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F33" t="s">
         <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3456,7 +3515,7 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F34" t="s">
         <v>56</v>
@@ -3475,16 +3534,16 @@
         <v>4</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F35" t="s">
         <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3502,13 +3561,13 @@
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s">
         <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3526,13 +3585,13 @@
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
         <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3550,13 +3609,13 @@
         <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F38" t="s">
         <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3574,13 +3633,13 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F39" t="s">
         <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3598,13 +3657,13 @@
         <v>40</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F40" t="s">
         <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3623,13 +3682,13 @@
         <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F41" t="s">
         <v>56</v>
       </c>
       <c r="G41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3648,13 +3707,13 @@
         <v>48</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F42" t="s">
         <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3673,10 +3732,10 @@
         <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -3905,12 +3964,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -3957,13 +4016,13 @@
         <v>40</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3981,13 +4040,13 @@
         <v>40</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4005,13 +4064,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4029,13 +4088,13 @@
         <v>40</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4053,13 +4112,13 @@
         <v>40</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4077,13 +4136,13 @@
         <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4101,13 +4160,13 @@
         <v>40</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4121,17 +4180,20 @@
       <c r="C9">
         <v>6</v>
       </c>
+      <c r="D9" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="E9" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4140,13 +4202,22 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>151</v>
+      </c>
+      <c r="G10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4155,10 +4226,19 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="F11" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="G11" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4170,10 +4250,16 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="F12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4185,28 +4271,66 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="B14">
+        <f>B13</f>
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="F14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B40" si="1">B14</f>
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4214,8 +4338,15 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4223,8 +4354,15 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4232,8 +4370,15 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4241,8 +4386,12 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4250,8 +4399,12 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4259,8 +4412,12 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4268,8 +4425,12 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4277,8 +4438,12 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4286,8 +4451,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4295,8 +4464,12 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4304,8 +4477,12 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4313,8 +4490,12 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4322,8 +4503,12 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4331,8 +4516,12 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4340,8 +4529,12 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4349,8 +4542,12 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4358,8 +4555,12 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4367,8 +4568,12 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4376,8 +4581,12 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4385,44 +4594,62 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="F35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4433,408 +4660,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
-  <cols>
-    <col min="5" max="5" width="20.5" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f>B2</f>
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <f t="shared" ref="A4:A30" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B26" si="1">B3</f>
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G2"/>
@@ -4872,7 +4697,409 @@
     </row>
     <row r="2" spans="5:5">
       <c r="E2" t="s">
-        <v>168</v>
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="20.5" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <f t="shared" ref="A4:A30" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B26" si="1">B3</f>
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4935,7 +5162,7 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="7:7">
@@ -5158,47 +5385,47 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>117</v>
@@ -5206,42 +5433,47 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27825" windowHeight="12585" activeTab="1"/>
+    <workbookView windowWidth="27825" windowHeight="12585" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="206">
   <si>
     <t>No.</t>
   </si>
@@ -671,7 +671,7 @@
     <t>解决方法: inorder;第二遍写了出来是把这种写法给记着了; 另写一个中序遍历函数，左右就是递归作用，中就是得到我们最后想要的结果的过程</t>
   </si>
   <si>
-    <t>+++y+</t>
+    <t>+++y+y</t>
   </si>
   <si>
     <t>617. Merge Two Binary Trees</t>
@@ -1028,7 +1028,34 @@
     <t>[题意]两个链表中结点数值从尾部开始相加，需要考虑向前进位。头插法</t>
   </si>
   <si>
-    <t>1021. Remove Outermost Parentheses</t>
+    <t>1441. Build an Array With Stack Operations</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>[题意]返回栈中元素的推入、推出的步骤。</t>
+  </si>
+  <si>
+    <t>1047. Remove All Adjacent Duplicates In String</t>
+  </si>
+  <si>
+    <t>[题意]删除在string中所有相邻为相同字符的字母，返回最后的结果。string也是可以使用reverse()的。</t>
+  </si>
+  <si>
+    <t>1209. Remove All Adjacent Duplicates in String II</t>
+  </si>
+  <si>
+    <t>[题意]删除在String中相邻有k个相同元素的字母。</t>
+  </si>
+  <si>
+    <t>496. Next Greater Element I</t>
+  </si>
+  <si>
+    <t>[题意]两个数组num1, num2, 找到num1中元素在num2中下一个较大的值。</t>
+  </si>
+  <si>
+    <t>503. Next Greater Element II</t>
   </si>
   <si>
     <t>933. Number of Recent Calls</t>
@@ -1093,9 +1120,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1139,6 +1166,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1147,23 +1190,74 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1180,51 +1274,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1245,37 +1302,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -1284,11 +1316,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -1330,7 +1357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,25 +1369,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,139 +1525,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,6 +1551,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1533,17 +1575,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1565,15 +1616,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1583,17 +1625,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1606,162 +1648,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1771,7 +1798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1792,6 +1819,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
@@ -2137,8 +2167,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="4" max="4" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="4" max="4" width="9" style="9"/>
     <col min="5" max="5" width="26.3733333333333" customWidth="true"/>
     <col min="6" max="6" width="14.2533333333333" customWidth="true"/>
     <col min="7" max="7" width="18" customWidth="true"/>
@@ -2168,13 +2198,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -2188,14 +2218,14 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -2209,14 +2239,14 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
@@ -2230,14 +2260,14 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
@@ -2251,14 +2281,14 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
@@ -2272,7 +2302,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2282,7 +2312,7 @@
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
@@ -2293,7 +2323,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2303,7 +2333,7 @@
       <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
@@ -2317,7 +2347,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2327,7 +2357,7 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
@@ -2338,7 +2368,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2348,7 +2378,7 @@
       <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
@@ -2362,7 +2392,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2372,7 +2402,7 @@
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
@@ -2386,7 +2416,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2395,7 +2425,7 @@
       <c r="C12">
         <v>12</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="s">
@@ -2409,7 +2439,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2418,7 +2448,7 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
@@ -2432,7 +2462,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2441,7 +2471,7 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E14" t="s">
@@ -2455,7 +2485,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2464,7 +2494,7 @@
       <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
@@ -2478,7 +2508,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2487,7 +2517,7 @@
       <c r="C16">
         <v>13</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E16" t="s">
@@ -2498,7 +2528,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2507,7 +2537,7 @@
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
@@ -2521,7 +2551,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2530,7 +2560,7 @@
       <c r="C18">
         <v>14</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
@@ -2544,7 +2574,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2553,7 +2583,7 @@
       <c r="C19">
         <v>15</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
@@ -2567,7 +2597,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="9">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20">
@@ -2576,7 +2606,7 @@
       <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E20" t="s">
@@ -2590,7 +2620,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21">
@@ -2599,7 +2629,7 @@
       <c r="C21">
         <v>15</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="s">
@@ -2610,7 +2640,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="9">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22">
@@ -2619,7 +2649,7 @@
       <c r="C22">
         <v>6</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E22" t="s">
@@ -2699,16 +2729,16 @@
   <sheetPr/>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="4" max="4" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="4" max="4" width="9" style="9"/>
     <col min="5" max="5" width="21.5" customWidth="true"/>
     <col min="6" max="6" width="4.9" customWidth="true"/>
   </cols>
@@ -2737,7 +2767,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2746,7 +2776,7 @@
       <c r="C2">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E2" t="s">
@@ -2760,7 +2790,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <f>A2+1</f>
         <v>2</v>
       </c>
@@ -2770,10 +2800,10 @@
       <c r="C3">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F3" t="s">
@@ -2784,7 +2814,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <f t="shared" ref="A4:A42" si="0">A3+1</f>
         <v>3</v>
       </c>
@@ -2794,7 +2824,7 @@
       <c r="C4">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E4" t="s">
@@ -2805,7 +2835,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2815,7 +2845,7 @@
       <c r="C5">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>63</v>
       </c>
       <c r="E5" t="s">
@@ -2829,7 +2859,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2839,7 +2869,7 @@
       <c r="C6">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E6" t="s">
@@ -2853,7 +2883,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2863,7 +2893,7 @@
       <c r="C7">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="s">
@@ -2877,7 +2907,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2887,7 +2917,7 @@
       <c r="C8">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
@@ -2901,7 +2931,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2911,7 +2941,7 @@
       <c r="C9">
         <v>23</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
@@ -2925,7 +2955,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2935,10 +2965,10 @@
       <c r="C10">
         <v>23</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F10" t="s">
@@ -2949,7 +2979,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2959,7 +2989,7 @@
       <c r="C11">
         <v>23</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
@@ -2973,7 +3003,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -2983,7 +3013,7 @@
       <c r="C12">
         <v>23</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
@@ -2997,7 +3027,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -3007,7 +3037,7 @@
       <c r="C13">
         <v>23</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
@@ -3021,7 +3051,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -3031,7 +3061,7 @@
       <c r="C14">
         <v>23</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E14" t="s">
@@ -3045,7 +3075,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -3055,7 +3085,7 @@
       <c r="C15">
         <v>24</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E15" t="s">
@@ -3069,7 +3099,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3079,7 +3109,7 @@
       <c r="C16">
         <v>24</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E16" t="s">
@@ -3093,7 +3123,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -3103,10 +3133,10 @@
       <c r="C17">
         <v>24</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F17" t="s">
@@ -3117,7 +3147,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -3127,7 +3157,7 @@
       <c r="C18">
         <v>25</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E18" t="s">
@@ -3141,7 +3171,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -3151,7 +3181,7 @@
       <c r="C19">
         <v>25</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>96</v>
       </c>
       <c r="E19" t="s">
@@ -3165,7 +3195,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="9">
+      <c r="A20" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -3175,7 +3205,7 @@
       <c r="C20">
         <v>25</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>99</v>
       </c>
       <c r="E20" t="s">
@@ -3189,7 +3219,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="9">
+      <c r="A21" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -3199,7 +3229,7 @@
       <c r="C21">
         <v>26</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E21" t="s">
@@ -3213,7 +3243,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="9">
+      <c r="A22" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -3223,7 +3253,7 @@
       <c r="C22">
         <v>26</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E22" t="s">
@@ -3237,7 +3267,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="9">
+      <c r="A23" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -3247,7 +3277,7 @@
       <c r="C23">
         <v>28</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E23" t="s">
@@ -3261,7 +3291,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="9">
+      <c r="A24" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -3271,10 +3301,10 @@
       <c r="C24">
         <v>28</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>108</v>
       </c>
       <c r="F24" t="s">
@@ -3285,7 +3315,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="9">
+      <c r="A25" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -3295,7 +3325,7 @@
       <c r="C25">
         <v>30</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E25" t="s">
@@ -3309,7 +3339,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="9">
+      <c r="A26" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -3319,7 +3349,7 @@
       <c r="C26">
         <v>30</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E26" t="s">
@@ -3333,7 +3363,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="9">
+      <c r="A27" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -3343,7 +3373,7 @@
       <c r="C27">
         <v>30</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E27" t="s">
@@ -3357,7 +3387,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="9">
+      <c r="A28" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -3367,10 +3397,10 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="12" t="s">
         <v>116</v>
       </c>
       <c r="F28" t="s">
@@ -3381,7 +3411,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="9">
+      <c r="A29" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -3391,7 +3421,7 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>118</v>
       </c>
       <c r="E29" t="s">
@@ -3405,7 +3435,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="9">
+      <c r="A30" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -3415,7 +3445,7 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E30" t="s">
@@ -3429,7 +3459,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="9">
+      <c r="A31" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -3439,7 +3469,7 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>123</v>
       </c>
       <c r="E31" t="s">
@@ -3453,7 +3483,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="9">
+      <c r="A32" s="10">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -3463,7 +3493,7 @@
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E32" t="s">
@@ -3477,7 +3507,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="9">
+      <c r="A33" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -3487,7 +3517,7 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E33" t="s">
@@ -3501,7 +3531,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9">
+      <c r="A34" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -3511,7 +3541,7 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E34" t="s">
@@ -3522,7 +3552,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="9">
+      <c r="A35" s="10">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -3533,7 +3563,7 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E35" t="s">
@@ -3547,7 +3577,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="9">
+      <c r="A36" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -3557,7 +3587,7 @@
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E36" t="s">
@@ -3571,7 +3601,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="9">
+      <c r="A37" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -3581,7 +3611,7 @@
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E37" t="s">
@@ -3595,7 +3625,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="9">
+      <c r="A38" s="10">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -3605,7 +3635,7 @@
       <c r="C38">
         <v>4</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E38" t="s">
@@ -3619,7 +3649,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="9">
+      <c r="A39" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -3629,7 +3659,7 @@
       <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E39" t="s">
@@ -3643,7 +3673,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="9">
+      <c r="A40" s="10">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -3653,10 +3683,10 @@
       <c r="C40">
         <v>6</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F40" t="s">
@@ -3667,7 +3697,7 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="9">
+      <c r="A41" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -3678,7 +3708,7 @@
       <c r="C41">
         <v>6</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E41" t="s">
@@ -3692,7 +3722,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="9">
+      <c r="A42" s="10">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -3703,10 +3733,10 @@
       <c r="C42">
         <v>6</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="11" t="s">
         <v>146</v>
       </c>
       <c r="F42" t="s">
@@ -3717,7 +3747,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="9">
+      <c r="A43" s="10">
         <f t="shared" ref="A43:A79" si="2">A42+1</f>
         <v>42</v>
       </c>
@@ -3728,7 +3758,7 @@
       <c r="C43">
         <v>6</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E43" t="s">
@@ -3739,217 +3769,217 @@
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="9">
+      <c r="A44" s="10">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="9">
+      <c r="A45" s="10">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="9">
+      <c r="A46" s="10">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="9">
+      <c r="A47" s="10">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="9">
+      <c r="A48" s="10">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="9">
+      <c r="A49" s="10">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="9">
+      <c r="A50" s="10">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="9">
+      <c r="A51" s="10">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="9">
+      <c r="A52" s="10">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="9">
+      <c r="A53" s="10">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="9">
+      <c r="A54" s="10">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="9">
+      <c r="A55" s="10">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="9">
+      <c r="A56" s="10">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="9">
+      <c r="A57" s="10">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="9">
+      <c r="A58" s="10">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="9">
+      <c r="A59" s="10">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="9">
+      <c r="A60" s="10">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="9">
+      <c r="A61" s="10">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="9">
+      <c r="A62" s="10">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="9">
+      <c r="A63" s="10">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="9">
+      <c r="A64" s="10">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="9">
+      <c r="A65" s="10">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="9">
+      <c r="A66" s="10">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="9">
+      <c r="A67" s="10">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="9">
+      <c r="A68" s="10">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="9">
+      <c r="A69" s="10">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="9">
+      <c r="A70" s="10">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="9">
+      <c r="A71" s="10">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="9">
+      <c r="A72" s="10">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="9">
+      <c r="A73" s="10">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="9">
+      <c r="A74" s="10">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="9">
+      <c r="A75" s="10">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="9">
+      <c r="A76" s="10">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="9">
+      <c r="A77" s="10">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="9">
+      <c r="A78" s="10">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="9">
+      <c r="A79" s="10">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
@@ -3974,8 +4004,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="20.1266666666667" style="8" customWidth="true"/>
+    <col min="4" max="4" width="9" style="8"/>
+    <col min="5" max="5" width="20.1266666666667" style="9" customWidth="true"/>
     <col min="6" max="6" width="12.1266666666667" customWidth="true"/>
   </cols>
   <sheetData>
@@ -4012,10 +4042,10 @@
       <c r="C2">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>150</v>
       </c>
       <c r="F2" t="s">
@@ -4036,10 +4066,10 @@
       <c r="C3">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>153</v>
       </c>
       <c r="F3" t="s">
@@ -4060,10 +4090,10 @@
       <c r="C4">
         <v>23</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>155</v>
       </c>
       <c r="F4" t="s">
@@ -4084,10 +4114,10 @@
       <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>157</v>
       </c>
       <c r="F5" t="s">
@@ -4108,10 +4138,10 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>159</v>
       </c>
       <c r="F6" t="s">
@@ -4132,10 +4162,10 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>161</v>
       </c>
       <c r="F7" t="s">
@@ -4156,10 +4186,10 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>163</v>
       </c>
       <c r="F8" t="s">
@@ -4180,10 +4210,10 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>165</v>
       </c>
       <c r="F9" t="s">
@@ -4204,10 +4234,10 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>167</v>
       </c>
       <c r="F10" t="s">
@@ -4228,10 +4258,10 @@
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>169</v>
       </c>
       <c r="F11" t="s">
@@ -4252,10 +4282,10 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>171</v>
       </c>
       <c r="F12" t="s">
@@ -4273,10 +4303,10 @@
       <c r="C13">
         <v>8</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>172</v>
       </c>
       <c r="F13" t="s">
@@ -4295,10 +4325,10 @@
       <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>173</v>
       </c>
       <c r="F14" t="s">
@@ -4320,10 +4350,10 @@
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>175</v>
       </c>
       <c r="F15" t="s">
@@ -4662,15 +4692,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="8.8" style="7"/>
+    <col min="5" max="5" width="29.4" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
@@ -4682,7 +4716,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -4695,9 +4729,835 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="5:5">
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="E2" t="s">
         <v>177</v>
+      </c>
+      <c r="F2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <f t="shared" ref="A4:A35" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B35" si="1">B3</f>
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <f t="shared" ref="A36:A60" si="2">A35+1</f>
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:B60" si="3">B35</f>
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4757,10 +5617,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4773,7 +5633,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4786,7 +5646,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4799,7 +5659,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4812,7 +5672,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4825,7 +5685,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4838,7 +5698,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4851,7 +5711,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4864,7 +5724,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4877,7 +5737,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4890,7 +5750,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4903,7 +5763,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4916,7 +5776,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4929,7 +5789,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4942,7 +5802,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4955,7 +5815,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4968,7 +5828,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4981,7 +5841,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4994,7 +5854,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5007,7 +5867,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5020,7 +5880,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5033,7 +5893,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5046,7 +5906,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5059,7 +5919,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5072,7 +5932,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5081,7 +5941,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -5162,7 +6022,7 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="7:7">
@@ -5388,44 +6248,44 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>117</v>
@@ -5433,47 +6293,47 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27825" windowHeight="12585" activeTab="3"/>
+    <workbookView windowWidth="27825" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
-    <sheet name="Tree" sheetId="2" r:id="rId2"/>
-    <sheet name="Linked List" sheetId="4" r:id="rId3"/>
-    <sheet name="Stack" sheetId="6" r:id="rId4"/>
-    <sheet name="Queue" sheetId="5" r:id="rId5"/>
-    <sheet name="Math" sheetId="7" r:id="rId6"/>
-    <sheet name="规则" sheetId="3" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="String" sheetId="8" r:id="rId2"/>
+    <sheet name="Tree" sheetId="2" r:id="rId3"/>
+    <sheet name="Linked List" sheetId="4" r:id="rId4"/>
+    <sheet name="Stack" sheetId="6" r:id="rId5"/>
+    <sheet name="Queue" sheetId="5" r:id="rId6"/>
+    <sheet name="Math" sheetId="7" r:id="rId7"/>
+    <sheet name="Recursion" sheetId="9" r:id="rId8"/>
+    <sheet name="规则" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -494,8 +495,42 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>third</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+y: 一次过
+?: 有疑问
++: 看答案，需要复习</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="221">
   <si>
     <t>No.</t>
   </si>
@@ -710,16 +745,22 @@
     <t>可以打印出类似的结果，但是不知道如何以树的形式返回。</t>
   </si>
   <si>
+    <t>+y+</t>
+  </si>
+  <si>
     <t>559. Maximum Depth of N-ary Tree</t>
   </si>
   <si>
     <t>递归：靠着一个个的1积累;总是感觉使用迭代做树很难。递归写起来非常简洁</t>
   </si>
   <si>
+    <t>y?</t>
+  </si>
+  <si>
     <t>965. Univalued Binary Tree</t>
   </si>
   <si>
-    <t>pre-order</t>
+    <t>pre-order,需要将res进行初始化</t>
   </si>
   <si>
     <t>1022. Sum of Root To Leaf Binary Numbers</t>
@@ -947,6 +988,21 @@
     <t>[题意]z字形打印二叉树。</t>
   </si>
   <si>
+    <t>437. Path Sum III</t>
+  </si>
+  <si>
+    <t>112. Path Sum</t>
+  </si>
+  <si>
+    <t>[题意]找到从二叉树根结点到叶结点这条路径的值是否等于给定值，如果存在返回true.</t>
+  </si>
+  <si>
+    <t>113. Path Sum II</t>
+  </si>
+  <si>
+    <t>[题意]找到从二叉树根结点到叶结点这条路径的值是否等于给定值，如果存在，以二维数组形式返回所有可能结果。</t>
+  </si>
+  <si>
     <t>1290. Convert Binary Number in a Linked List to Integer</t>
   </si>
   <si>
@@ -1065,6 +1121,30 @@
   </si>
   <si>
     <t>9. Palindrome Number</t>
+  </si>
+  <si>
+    <t>1137. N-th Tribonacci Number</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>类似非波数列，不过这次是三个数</t>
+  </si>
+  <si>
+    <t>509. Fibonacci Number</t>
+  </si>
+  <si>
+    <t>70. Climbing Stairs</t>
+  </si>
+  <si>
+    <t>[题意]爬楼梯，每次可以爬一阶或是二阶，问有多少中方法可以爬到顶部。</t>
+  </si>
+  <si>
+    <t>687. Longest Univalue Path</t>
+  </si>
+  <si>
+    <t>[题意]找到二叉树中结点值全相同的最长路。</t>
   </si>
   <si>
     <t>1.先刷英文题目，再中文题目</t>
@@ -1120,10 +1200,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1166,9 +1246,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1182,38 +1276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,13 +1286,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1257,24 +1315,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1288,8 +1337,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1303,11 +1360,34 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -1357,7 +1437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,7 +1449,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,7 +1575,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,151 +1617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,39 +1642,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1625,6 +1672,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1648,147 +1713,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1798,7 +1878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1807,9 +1887,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -2167,44 +2244,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="4" max="4" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="4" max="4" width="9" style="8"/>
     <col min="5" max="5" width="26.3733333333333" customWidth="true"/>
     <col min="6" max="6" width="14.2533333333333" customWidth="true"/>
     <col min="7" max="7" width="18" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -2218,14 +2295,14 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -2239,14 +2316,14 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
@@ -2260,14 +2337,14 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
@@ -2281,14 +2358,14 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
@@ -2302,7 +2379,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2312,7 +2389,7 @@
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
@@ -2323,7 +2400,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2333,7 +2410,7 @@
       <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
@@ -2347,7 +2424,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2357,7 +2434,7 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
@@ -2368,7 +2445,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2378,7 +2455,7 @@
       <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
@@ -2392,7 +2469,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2402,7 +2479,7 @@
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
@@ -2416,7 +2493,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2425,7 +2502,7 @@
       <c r="C12">
         <v>12</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="s">
@@ -2439,7 +2516,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2448,7 +2525,7 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
@@ -2462,7 +2539,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2471,7 +2548,7 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E14" t="s">
@@ -2485,7 +2562,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2494,7 +2571,7 @@
       <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
@@ -2508,7 +2585,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2517,7 +2594,7 @@
       <c r="C16">
         <v>13</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E16" t="s">
@@ -2528,7 +2605,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2537,7 +2614,7 @@
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
@@ -2551,7 +2628,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2560,7 +2637,7 @@
       <c r="C18">
         <v>14</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
@@ -2574,7 +2651,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2583,7 +2660,7 @@
       <c r="C19">
         <v>15</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
@@ -2597,7 +2674,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20">
@@ -2606,7 +2683,7 @@
       <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E20" t="s">
@@ -2620,7 +2697,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21">
@@ -2629,7 +2706,7 @@
       <c r="C21">
         <v>15</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="s">
@@ -2640,7 +2717,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22">
@@ -2649,7 +2726,7 @@
       <c r="C22">
         <v>6</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E22" t="s">
@@ -2727,47 +2804,63 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="4" max="4" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="4" max="4" width="9" style="8"/>
     <col min="5" max="5" width="21.5" customWidth="true"/>
     <col min="6" max="6" width="4.9" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2776,7 +2869,7 @@
       <c r="C2">
         <v>17</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E2" t="s">
@@ -2790,7 +2883,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <f>A2+1</f>
         <v>2</v>
       </c>
@@ -2800,10 +2893,10 @@
       <c r="C3">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F3" t="s">
@@ -2814,7 +2907,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <f t="shared" ref="A4:A42" si="0">A3+1</f>
         <v>3</v>
       </c>
@@ -2824,7 +2917,7 @@
       <c r="C4">
         <v>18</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E4" t="s">
@@ -2835,7 +2928,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2845,7 +2938,7 @@
       <c r="C5">
         <v>18</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E5" t="s">
@@ -2859,7 +2952,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2869,7 +2962,7 @@
       <c r="C6">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E6" t="s">
@@ -2883,7 +2976,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2893,7 +2986,7 @@
       <c r="C7">
         <v>19</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="s">
@@ -2907,7 +3000,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2917,21 +3010,21 @@
       <c r="C8">
         <v>23</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
+      <c r="D8" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2941,21 +3034,21 @@
       <c r="C9">
         <v>23</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>14</v>
+      <c r="D9" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2965,21 +3058,21 @@
       <c r="C10">
         <v>23</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>75</v>
+      <c r="E10" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="F10" t="s">
         <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2989,21 +3082,21 @@
       <c r="C11">
         <v>23</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -3013,21 +3106,21 @@
       <c r="C12">
         <v>23</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
         <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -3037,21 +3130,21 @@
       <c r="C13">
         <v>23</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -3061,21 +3154,21 @@
       <c r="C14">
         <v>23</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>83</v>
+      <c r="D14" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -3085,21 +3178,21 @@
       <c r="C15">
         <v>24</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>86</v>
+      <c r="D15" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
         <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3109,21 +3202,21 @@
       <c r="C16">
         <v>24</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>89</v>
+      <c r="D16" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -3133,21 +3226,21 @@
       <c r="C17">
         <v>24</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>92</v>
+      <c r="E17" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="F17" t="s">
         <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -3157,21 +3250,21 @@
       <c r="C18">
         <v>25</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>86</v>
+      <c r="D18" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
         <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -3181,21 +3274,21 @@
       <c r="C19">
         <v>25</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>96</v>
+      <c r="D19" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
         <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -3205,21 +3298,21 @@
       <c r="C20">
         <v>25</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>99</v>
+      <c r="D20" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F20" t="s">
         <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -3229,21 +3322,21 @@
       <c r="C21">
         <v>26</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>86</v>
+      <c r="D21" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
         <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -3253,21 +3346,21 @@
       <c r="C22">
         <v>26</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>86</v>
+      <c r="D22" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F22" t="s">
         <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -3277,21 +3370,21 @@
       <c r="C23">
         <v>28</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
         <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -3301,21 +3394,21 @@
       <c r="C24">
         <v>28</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>108</v>
+      <c r="E24" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -3325,21 +3418,21 @@
       <c r="C25">
         <v>30</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
         <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -3349,21 +3442,21 @@
       <c r="C26">
         <v>30</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F26" t="s">
         <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -3373,21 +3466,21 @@
       <c r="C27">
         <v>30</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
         <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -3397,21 +3490,21 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>116</v>
+      <c r="E28" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="F28" t="s">
         <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -3421,21 +3514,21 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>118</v>
+      <c r="D29" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F29" t="s">
         <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -3445,21 +3538,21 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -3469,21 +3562,21 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>123</v>
+      <c r="D31" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F31" t="s">
         <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -3493,21 +3586,21 @@
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F32" t="s">
         <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -3517,21 +3610,21 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>83</v>
+      <c r="D33" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F33" t="s">
         <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -3541,18 +3634,18 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -3563,21 +3656,21 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>131</v>
+      <c r="D35" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F35" t="s">
         <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -3587,21 +3680,21 @@
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F36" t="s">
         <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="10">
+      <c r="A37" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -3611,21 +3704,21 @@
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>30</v>
+      <c r="D37" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F37" t="s">
         <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -3635,21 +3728,21 @@
       <c r="C38">
         <v>4</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
         <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="10">
+      <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -3659,21 +3752,21 @@
       <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F39" t="s">
         <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -3683,21 +3776,21 @@
       <c r="C40">
         <v>6</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>142</v>
+      <c r="E40" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="F40" t="s">
         <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -3708,21 +3801,21 @@
       <c r="C41">
         <v>6</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>11</v>
+      <c r="D41" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F41" t="s">
         <v>56</v>
       </c>
       <c r="G41" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -3733,21 +3826,21 @@
       <c r="C42">
         <v>6</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>146</v>
+      <c r="E42" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="F42" t="s">
         <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="10">
+      <c r="A43" s="9">
         <f t="shared" ref="A43:A79" si="2">A42+1</f>
         <v>42</v>
       </c>
@@ -3758,230 +3851,386 @@
       <c r="C43">
         <v>6</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="F43" t="s">
+        <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="10">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="9">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="10">
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="9">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="10">
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="9">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="10">
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="9">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="10">
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="9">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="10">
+      <c r="F48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="9">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="10">
+      <c r="F49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="9">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="10">
+      <c r="F50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="9">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="10">
+      <c r="F51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="9">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="10">
+      <c r="F52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="9">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="10">
+      <c r="F53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="9">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="10">
+      <c r="F54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="9">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="10">
+      <c r="F55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="9">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="10">
+      <c r="F56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="9">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="10">
+      <c r="F57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="9">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="10">
+      <c r="F58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="9">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="10">
+      <c r="F59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="9">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="10">
+      <c r="F60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="9">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="10">
+      <c r="F61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="9">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="10">
+      <c r="F62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="9">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="10">
+      <c r="F63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="9">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="10">
+      <c r="F64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="9">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="10">
+      <c r="F65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="9">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="10">
+      <c r="F66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="9">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="10">
+      <c r="F67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="9">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="10">
+      <c r="F68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="9">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="10">
+      <c r="F69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="9">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="10">
+      <c r="F70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="9">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="10">
+      <c r="F71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="9">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="10">
+      <c r="F72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="9">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="10">
+      <c r="F73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="9">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="10">
+      <c r="F74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="9">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="10">
+      <c r="F75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="9">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="10">
+      <c r="F76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="9">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="10">
+      <c r="F77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="9">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="10">
+      <c r="F78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="9">
         <f t="shared" si="2"/>
         <v>78</v>
+      </c>
+      <c r="F79" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3991,7 +4240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G40"/>
@@ -4004,31 +4253,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="9" style="8"/>
-    <col min="5" max="5" width="20.1266666666667" style="9" customWidth="true"/>
+    <col min="4" max="4" width="9" style="7"/>
+    <col min="5" max="5" width="20.1266666666667" style="8" customWidth="true"/>
     <col min="6" max="6" width="12.1266666666667" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4042,17 +4291,17 @@
       <c r="C2">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>150</v>
+      <c r="E2" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4066,17 +4315,17 @@
       <c r="C3">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>153</v>
+      <c r="E3" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4090,17 +4339,17 @@
       <c r="C4">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>155</v>
+      <c r="E4" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4114,17 +4363,17 @@
       <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>157</v>
+      <c r="E5" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4138,17 +4387,17 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>159</v>
+      <c r="E6" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4162,17 +4411,17 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>161</v>
+      <c r="E7" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4186,17 +4435,17 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>163</v>
+      <c r="E8" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4210,17 +4459,17 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>165</v>
+      <c r="E9" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G9" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4234,17 +4483,17 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>167</v>
+      <c r="E10" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G10" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4258,17 +4507,17 @@
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>169</v>
+      <c r="E11" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G11" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4282,14 +4531,14 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>171</v>
+      <c r="E12" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4303,14 +4552,14 @@
       <c r="C13">
         <v>8</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>172</v>
+      <c r="E13" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4325,17 +4574,17 @@
       <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>173</v>
+      <c r="E14" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4350,17 +4599,17 @@
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>175</v>
+      <c r="E15" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4376,7 +4625,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4392,7 +4641,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4408,7 +4657,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4421,7 +4670,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4434,7 +4683,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4447,7 +4696,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4460,7 +4709,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4473,7 +4722,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4486,7 +4735,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4499,7 +4748,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4512,7 +4761,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4525,7 +4774,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4538,7 +4787,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4551,7 +4800,7 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4564,7 +4813,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4577,7 +4826,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4590,7 +4839,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4603,7 +4852,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4616,7 +4865,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4629,7 +4878,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4680,884 +4929,6 @@
       <c r="B40">
         <f t="shared" si="1"/>
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G60"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
-  <cols>
-    <col min="4" max="4" width="8.8" style="7"/>
-    <col min="5" max="5" width="29.4" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f>B2</f>
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <f t="shared" ref="A4:A35" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B35" si="1">B3</f>
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <f t="shared" ref="A36:A60" si="2">A35+1</f>
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <f t="shared" ref="B36:B60" si="3">B35</f>
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F45" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F49" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F53" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F54" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F55" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F57" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F58" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F60" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5568,6 +4939,884 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="8.8" style="6"/>
+    <col min="5" max="5" width="29.4" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <f t="shared" ref="A4:A35" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B35" si="1">B3</f>
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <f t="shared" ref="A36:A60" si="2">A35+1</f>
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:B60" si="3">B35</f>
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G30"/>
@@ -5584,25 +5833,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5617,10 +5866,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5633,7 +5882,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5646,7 +5895,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5659,7 +5908,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5672,7 +5921,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5685,7 +5934,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5698,7 +5947,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5711,7 +5960,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5724,7 +5973,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5737,7 +5986,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5750,7 +5999,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5763,7 +6012,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5776,7 +6025,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5789,7 +6038,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5802,7 +6051,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5815,7 +6064,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5828,7 +6077,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5841,7 +6090,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5854,7 +6103,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5867,7 +6116,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5880,7 +6129,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5893,7 +6142,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5906,7 +6155,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5919,7 +6168,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5932,7 +6181,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5941,7 +6190,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -5960,279 +6209,6 @@
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="G1:M37"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="10" max="10" width="7.4" style="3" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="7:13">
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="7:11">
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="7:7">
-      <c r="G3">
-        <f>G2+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="7:7">
-      <c r="G4">
-        <f t="shared" ref="G4:G37" si="0">G3+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="7:7">
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="7:7">
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="7:7">
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="7:7">
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="7:7">
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="7:7">
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="7:7">
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="7:7">
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="7:7">
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="7:7">
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="7:7">
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="7:7">
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7">
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7">
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7">
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7">
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7">
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7">
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7">
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7">
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7">
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="7:7">
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7">
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="7:7">
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="7:7">
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="7:7">
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="7:7">
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7">
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7">
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="7:7">
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="7:7">
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7">
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6243,6 +6219,510 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="G1:M37"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="N38" sqref="N38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="10" max="10" width="7.4" style="6" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:13">
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="7:11">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="7:7">
+      <c r="G3">
+        <f>G2+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="7:7">
+      <c r="G4">
+        <f t="shared" ref="G4:G37" si="0">G3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="7:7">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="7:7">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="7:7">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="19.6" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <f t="shared" ref="A4:A13" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B32"/>
@@ -6255,105 +6735,89 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27825" windowHeight="12585" activeTab="2"/>
+    <workbookView windowWidth="27825" windowHeight="12585" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Math" sheetId="7" r:id="rId7"/>
     <sheet name="Recursion" sheetId="9" r:id="rId8"/>
     <sheet name="规则" sheetId="3" r:id="rId9"/>
+    <sheet name="Sort" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -56,6 +57,40 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>third</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+y: 一次过
+?: 有疑问
++: 看答案，需要复习</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>third</author>
@@ -336,7 +371,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>third</author>
@@ -393,40 +428,6 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>third</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>third:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-y: 一次过
-?: 有疑问
-+: 看答案，需要复习</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -467,6 +468,40 @@
     <author>third</author>
   </authors>
   <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+y: 一次过
+?: 有疑问
++: 看答案，需要复习</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>third</author>
+  </authors>
+  <commentList>
     <comment ref="J1" authorId="0">
       <text>
         <r>
@@ -495,7 +530,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>third</author>
@@ -530,7 +565,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="246">
   <si>
     <t>No.</t>
   </si>
@@ -694,6 +729,18 @@
     <t>[题意]合并两个已排序的数组。</t>
   </si>
   <si>
+    <t>344. Reverse String</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>[题意]翻转字符串。</t>
+  </si>
+  <si>
+    <t>709. To Lower Case</t>
+  </si>
+  <si>
     <t>+?+yy</t>
   </si>
   <si>
@@ -721,141 +768,156 @@
     <t>700. Search in a Binary Search Tree</t>
   </si>
   <si>
+    <t>++yy++y</t>
+  </si>
+  <si>
+    <t>589. N-ary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>递归和迭代都要会; 这一遍我觉得是依靠记忆的，我还记得该怎么写</t>
+  </si>
+  <si>
+    <t>y?yy</t>
+  </si>
+  <si>
+    <t>590. N-ary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>因为会做上一题，知道的怎么写，这一题写着很快; children first, and then push back the root-&gt;val</t>
+  </si>
+  <si>
+    <t>+++y</t>
+  </si>
+  <si>
+    <t>897. Increasing Order Search Tree</t>
+  </si>
+  <si>
+    <t>可以打印出类似的结果，但是不知道如何以树的形式返回。</t>
+  </si>
+  <si>
+    <t>+y+y</t>
+  </si>
+  <si>
+    <t>559. Maximum Depth of N-ary Tree</t>
+  </si>
+  <si>
+    <t>递归：靠着一个个的1积累;总是感觉使用迭代做树很难。递归写起来非常简洁</t>
+  </si>
+  <si>
+    <t>y?y</t>
+  </si>
+  <si>
+    <t>965. Univalued Binary Tree</t>
+  </si>
+  <si>
+    <t>pre-order,需要将res进行初始化</t>
+  </si>
+  <si>
+    <t>+++</t>
+  </si>
+  <si>
+    <t>1022. Sum of Root To Leaf Binary Numbers</t>
+  </si>
+  <si>
+    <t>helper()函数里边逻辑，这里不好描述</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>和559题很像</t>
+  </si>
+  <si>
+    <t>+y+</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>递归，注意swap要交换两颗子树;不需要满足左右孩子都存在才交换，有个为空也是交换的，不需要什么过滤条件</t>
+  </si>
+  <si>
+    <t>+yy</t>
+  </si>
+  <si>
+    <t>872. Leaf-Similar Trees</t>
+  </si>
+  <si>
+    <t>dfs(main, dfs(l), dfs(r));注意是叶结点才能被加入</t>
+  </si>
+  <si>
+    <t>+?+</t>
+  </si>
+  <si>
+    <t>669. Trim a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>分类讨论，不在区间之间和在区间之间; 查看root-&gt;val是否在范围内，还有如果在的话，就可以考虑左右孩子了</t>
+  </si>
+  <si>
     <t>++yy</t>
   </si>
   <si>
-    <t>589. N-ary Tree Preorder Traversal</t>
-  </si>
-  <si>
-    <t>递归和迭代都要会; 这一遍我觉得是依靠记忆的，我还记得该怎么写</t>
-  </si>
-  <si>
-    <t>y?y</t>
-  </si>
-  <si>
-    <t>590. N-ary Tree Postorder Traversal</t>
-  </si>
-  <si>
-    <t>因为会做上一题，知道的怎么写，这一题写着很快; children first, and then push back the root-&gt;val</t>
-  </si>
-  <si>
-    <t>897. Increasing Order Search Tree</t>
-  </si>
-  <si>
-    <t>可以打印出类似的结果，但是不知道如何以树的形式返回。</t>
-  </si>
-  <si>
-    <t>+y+</t>
-  </si>
-  <si>
-    <t>559. Maximum Depth of N-ary Tree</t>
-  </si>
-  <si>
-    <t>递归：靠着一个个的1积累;总是感觉使用迭代做树很难。递归写起来非常简洁</t>
-  </si>
-  <si>
-    <t>y?</t>
-  </si>
-  <si>
-    <t>965. Univalued Binary Tree</t>
-  </si>
-  <si>
-    <t>pre-order,需要将res进行初始化</t>
-  </si>
-  <si>
-    <t>1022. Sum of Root To Leaf Binary Numbers</t>
-  </si>
-  <si>
-    <t>helper()函数里边逻辑，这里不好描述</t>
-  </si>
-  <si>
-    <t>104. Maximum Depth of Binary Tree</t>
-  </si>
-  <si>
-    <t>和559题很像</t>
-  </si>
-  <si>
-    <t>226. Invert Binary Tree</t>
-  </si>
-  <si>
-    <t>递归，注意swap要交换两颗子树;不需要满足左右孩子都存在才交换，有个为空也是交换的，不需要什么过滤条件</t>
-  </si>
-  <si>
-    <t>872. Leaf-Similar Trees</t>
-  </si>
-  <si>
-    <t>dfs(main, dfs(l), dfs(r));注意是叶结点才能被加入</t>
-  </si>
-  <si>
-    <t>+?</t>
-  </si>
-  <si>
-    <t>669. Trim a Binary Search Tree</t>
-  </si>
-  <si>
-    <t>分类讨论，不在区间之间和在区间之间; 查看root-&gt;val是否在范围内，还有如果在的话，就可以考虑左右孩子了</t>
+    <t>637. Average of Levels in Binary Tree</t>
+  </si>
+  <si>
+    <t>二叉树的层序遍历layerOrder;就是一个简单的层序遍历，不必另写函数</t>
+  </si>
+  <si>
+    <t>+?+y</t>
+  </si>
+  <si>
+    <t>108. Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>另写一个方法，递归方式，递归边界: end &lt;= start; 递归式: 找出中间索引，引用自身。数组的右边界为什么是nums.size(),而不是nums.size()-1</t>
+  </si>
+  <si>
+    <t>653. Two Sum IV - Input is a BST</t>
+  </si>
+  <si>
+    <t>这个题解我没有看懂</t>
+  </si>
+  <si>
+    <t>538. Convert BST to Greater Tree</t>
+  </si>
+  <si>
+    <t>reverse in-order traversal,递减的方式排序，后边的数需要加上前面所有的数，需要新建一个全局变量sum进行记录; 注意curSum = root-&gt;val; 注意将两个return root合成一个</t>
+  </si>
+  <si>
+    <t>++?+</t>
+  </si>
+  <si>
+    <t>606. Construct String from Binary Tree</t>
+  </si>
+  <si>
+    <t>to_string();分五种情况讨论，后来其实有两种可以合为一种：根空，跟有孩子空，根有左有，根有右有，根有左右有</t>
+  </si>
+  <si>
+    <t>+++++</t>
+  </si>
+  <si>
+    <t>530. Minimum Absolute Difference in BST</t>
+  </si>
+  <si>
+    <t>这个感觉比较难想; 另写一个helper()函数，类似in-order; 全局prev; prev-&gt;val只有在prev不为空的时候才有意义; 我又将if (prev != nullptr)写成 while(prev != nullptr)了，显示结果运行超时，最后还是利用对比工具找出来错误，不然还会以为是官方编译器出了问题</t>
+  </si>
+  <si>
+    <t>100. Same Tree</t>
+  </si>
+  <si>
+    <t>递归，先考虑根结点，然后对左右进行递归即可; 排序false情况的，然后剩下的就是true了</t>
+  </si>
+  <si>
+    <t>107. Binary Tree Level Order Traversal II</t>
+  </si>
+  <si>
+    <t>层序遍历, reverse(it.begin(), it.end()), 注意res.push_back({})写法; 考虑了root, 但是忘记了左右孩子; 想清楚res.size()与树高度的关系，是先有树，再有res</t>
   </si>
   <si>
     <t>++y</t>
   </si>
   <si>
-    <t>637. Average of Levels in Binary Tree</t>
-  </si>
-  <si>
-    <t>二叉树的层序遍历layerOrder;就是一个简单的层序遍历，不必另写函数</t>
-  </si>
-  <si>
-    <t>+?+</t>
-  </si>
-  <si>
-    <t>108. Convert Sorted Array to Binary Search Tree</t>
-  </si>
-  <si>
-    <t>另写一个方法，递归方式，递归边界: end &lt;= start; 递归式: 找出中间索引，引用自身。数组的右边界为什么是nums.size(),而不是nums.size()-1</t>
-  </si>
-  <si>
-    <t>653. Two Sum IV - Input is a BST</t>
-  </si>
-  <si>
-    <t>这个题解我没有看懂</t>
-  </si>
-  <si>
-    <t>538. Convert BST to Greater Tree</t>
-  </si>
-  <si>
-    <t>reverse in-order traversal,递减的方式排序，后边的数需要加上前面所有的数，需要新建一个全局变量sum进行记录; 注意curSum = root-&gt;val; 注意将两个return root合成一个</t>
-  </si>
-  <si>
-    <t>++?</t>
-  </si>
-  <si>
-    <t>606. Construct String from Binary Tree</t>
-  </si>
-  <si>
-    <t>to_string();分五种情况讨论，后来其实有两种可以合为一种：根空，跟有孩子空，根有左有，根有右有，根有左右有</t>
-  </si>
-  <si>
-    <t>++++</t>
-  </si>
-  <si>
-    <t>530. Minimum Absolute Difference in BST</t>
-  </si>
-  <si>
-    <t>这个感觉比较难想; 另写一个helper()函数，类似in-order; 全局prev; prev-&gt;val只有在prev不为空的时候才有意义; 我又将if (prev != nullptr)写成 while(prev != nullptr)了，显示结果运行超时，最后还是利用对比工具找出来错误，不然还会以为是官方编译器出了问题</t>
-  </si>
-  <si>
-    <t>100. Same Tree</t>
-  </si>
-  <si>
-    <t>递归，先考虑根结点，然后对左右进行递归即可; 排序false情况的，然后剩下的就是true了</t>
-  </si>
-  <si>
-    <t>107. Binary Tree Level Order Traversal II</t>
-  </si>
-  <si>
-    <t>层序遍历, reverse(it.begin(), it.end()), 注意res.push_back({})写法; 考虑了root, 但是忘记了左右孩子; 想清楚res.size()与树高度的关系，是先有树，再有res</t>
-  </si>
-  <si>
     <t>783. Minimum Distance Between BST Nodes</t>
   </si>
   <si>
@@ -874,6 +936,9 @@
     <t>pre-order, 其实root部分写法最重要，判断叶子结点; vector是不能使用加的, vector里边才是一个个string类型变量</t>
   </si>
   <si>
+    <t>y+</t>
+  </si>
+  <si>
     <t>404. Sum of Left Leaves</t>
   </si>
   <si>
@@ -892,9 +957,6 @@
     <t>[题意]</t>
   </si>
   <si>
-    <t>+++</t>
-  </si>
-  <si>
     <t>543. Diameter of Binary Tree</t>
   </si>
   <si>
@@ -907,7 +969,7 @@
     <t>[题意]看二叉树是不是对称二叉树。想好条件的是与非,拿另一棵相同的树与这棵树进行对比</t>
   </si>
   <si>
-    <t>+++y</t>
+    <t>+++yy</t>
   </si>
   <si>
     <t>572. Subtree of Another Tree</t>
@@ -1003,6 +1065,24 @@
     <t>[题意]找到从二叉树根结点到叶结点这条路径的值是否等于给定值，如果存在，以二维数组形式返回所有可能结果。</t>
   </si>
   <si>
+    <t>102. Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>同题目107</t>
+  </si>
+  <si>
+    <t>98. Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>[题意]判断一棵树是否为BST</t>
+  </si>
+  <si>
+    <t>145. Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>[题意]后跟遍历二叉树。递归很好写，迭代需要多练。</t>
+  </si>
+  <si>
     <t>1290. Convert Binary Number in a Linked List to Integer</t>
   </si>
   <si>
@@ -1012,6 +1092,9 @@
     <t>两步：遍历+转换数字</t>
   </si>
   <si>
+    <t>题目不清</t>
+  </si>
+  <si>
     <t>237. Delete Node in a Linked List</t>
   </si>
   <si>
@@ -1084,6 +1167,9 @@
     <t>[题意]两个链表中结点数值从尾部开始相加，需要考虑向前进位。头插法</t>
   </si>
   <si>
+    <t>92. Reverse Linked List II</t>
+  </si>
+  <si>
     <t>1441. Build an Array With Stack Operations</t>
   </si>
   <si>
@@ -1123,6 +1209,12 @@
     <t>9. Palindrome Number</t>
   </si>
   <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>202. Happy Number</t>
+  </si>
+  <si>
     <t>1137. N-th Tribonacci Number</t>
   </si>
   <si>
@@ -1193,6 +1285,24 @@
   </si>
   <si>
     <t>12. stack.top(), not front()</t>
+  </si>
+  <si>
+    <t>13. 比起先序、中序、后序，还是先根、中根、后根这种称呼更加符合实际。</t>
+  </si>
+  <si>
+    <t>14. 将leetcode做题面板调成黑色的</t>
+  </si>
+  <si>
+    <t>15. vector初始化要用{}</t>
+  </si>
+  <si>
+    <t>Tree:</t>
+  </si>
+  <si>
+    <t>1. 当树涉及到root的父亲或者是root的爷爷时，应该新建这些变量，而不是往下遍历，是将当前的root变为爷爷或者父亲，然后向下遍历，如果不存在则置为NULL.</t>
+  </si>
+  <si>
+    <t>1. 进制转换是从右往左开始的。</t>
   </si>
 </sst>
 </file>
@@ -1201,9 +1311,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1246,10 +1356,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1260,17 +1395,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1291,62 +1462,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1359,14 +1477,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1374,11 +1484,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1425,19 +1535,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,19 +1655,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,109 +1697,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1593,31 +1721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,60 +1741,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1708,8 +1770,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1728,126 +1814,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1856,19 +1966,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1878,7 +1988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1901,18 +2011,27 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2237,14 +2356,14 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="12"/>
     <col min="4" max="4" width="9" style="8"/>
     <col min="5" max="5" width="26.3733333333333" customWidth="true"/>
     <col min="6" max="6" width="14.2533333333333" customWidth="true"/>
@@ -2275,7 +2394,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2295,7 +2414,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="12">
         <f>A2+1</f>
         <v>2</v>
       </c>
@@ -2316,7 +2435,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="9">
+      <c r="A4" s="12">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
@@ -2337,7 +2456,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2358,7 +2477,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9">
+      <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2379,7 +2498,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9">
+      <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2400,7 +2519,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9">
+      <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2424,7 +2543,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9">
+      <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2445,7 +2564,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="9">
+      <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2469,7 +2588,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2493,7 +2612,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="9">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2516,7 +2635,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="9">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2539,7 +2658,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2562,7 +2681,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2585,7 +2704,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2605,7 +2724,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="9">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2628,7 +2747,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2651,7 +2770,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="9">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2674,7 +2793,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="9">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
       <c r="B20">
@@ -2697,7 +2816,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
       <c r="B21">
@@ -2717,7 +2836,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="9">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
       <c r="B22">
@@ -2801,13 +2920,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -2817,22 +2936,425 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="13.5" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <f t="shared" ref="A4:A38" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="12"/>
     <col min="4" max="4" width="9" style="8"/>
-    <col min="5" max="5" width="21.5" customWidth="true"/>
+    <col min="5" max="5" width="50" customWidth="true"/>
     <col min="6" max="6" width="4.9" customWidth="true"/>
   </cols>
   <sheetData>
@@ -2860,7 +3382,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2870,20 +3392,20 @@
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="12">
         <f>A2+1</f>
         <v>2</v>
       </c>
@@ -2894,20 +3416,20 @@
         <v>17</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9">
+      <c r="A4" s="12">
         <f t="shared" ref="A4:A42" si="0">A3+1</f>
         <v>3</v>
       </c>
@@ -2918,17 +3440,17 @@
         <v>18</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2939,20 +3461,20 @@
         <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9">
+      <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2963,20 +3485,20 @@
         <v>19</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2987,20 +3509,20 @@
         <v>19</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9">
+      <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -3011,20 +3533,20 @@
         <v>23</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -3035,20 +3557,20 @@
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="9">
+      <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -3059,20 +3581,20 @@
         <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -3083,20 +3605,20 @@
         <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="9">
+      <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -3107,20 +3629,20 @@
         <v>23</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="9">
+      <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -3131,20 +3653,20 @@
         <v>23</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9">
+      <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -3155,20 +3677,20 @@
         <v>23</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -3179,20 +3701,20 @@
         <v>24</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9">
+      <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3203,20 +3725,20 @@
         <v>24</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="9">
+      <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -3229,18 +3751,18 @@
       <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>94</v>
+      <c r="E17" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9">
+      <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -3251,20 +3773,20 @@
         <v>25</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="9">
+      <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -3275,20 +3797,20 @@
         <v>25</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="9">
+      <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -3299,20 +3821,20 @@
         <v>25</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="9">
+      <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -3323,20 +3845,20 @@
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="9">
+      <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -3347,20 +3869,20 @@
         <v>26</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="9">
+      <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -3371,20 +3893,20 @@
         <v>28</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="9">
+      <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -3395,20 +3917,20 @@
         <v>28</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>110</v>
+        <v>82</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="9">
+      <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -3419,20 +3941,20 @@
         <v>30</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="9">
+      <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -3443,20 +3965,20 @@
         <v>30</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="9">
+      <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -3470,17 +3992,17 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="9">
+      <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -3493,18 +4015,18 @@
       <c r="D28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>118</v>
+      <c r="E28" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="9">
+      <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -3515,20 +4037,20 @@
         <v>1</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="9">
+      <c r="A30" s="12">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -3539,20 +4061,20 @@
         <v>1</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="9">
+      <c r="A31" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -3563,20 +4085,20 @@
         <v>1</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="9">
+      <c r="A32" s="12">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -3587,20 +4109,20 @@
         <v>2</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="9">
+      <c r="A33" s="12">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -3611,20 +4133,20 @@
         <v>2</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9">
+      <c r="A34" s="12">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -3638,14 +4160,14 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="9">
+      <c r="A35" s="12">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -3657,20 +4179,20 @@
         <v>4</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="9">
+      <c r="A36" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -3681,20 +4203,20 @@
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="9">
+      <c r="A37" s="12">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -3705,20 +4227,20 @@
         <v>4</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="9">
+      <c r="A38" s="12">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -3729,20 +4251,20 @@
         <v>4</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="9">
+      <c r="A39" s="12">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -3756,17 +4278,17 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="9">
+      <c r="A40" s="12">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -3779,18 +4301,18 @@
       <c r="D40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>144</v>
+      <c r="E40" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="9">
+      <c r="A41" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -3802,20 +4324,20 @@
         <v>6</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="9">
+      <c r="A42" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -3829,18 +4351,18 @@
       <c r="D42" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>148</v>
+      <c r="E42" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="9">
+      <c r="A43" s="12">
         <f t="shared" ref="A43:A79" si="2">A42+1</f>
         <v>42</v>
       </c>
@@ -3855,17 +4377,17 @@
         <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="9">
+      <c r="A44" s="12">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
@@ -3876,14 +4398,14 @@
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="9">
+      <c r="A45" s="12">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
@@ -3897,17 +4419,17 @@
         <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="9">
+      <c r="A46" s="12">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
@@ -3921,17 +4443,17 @@
         <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="12">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
@@ -3939,298 +4461,337 @@
         <v>8</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" t="s">
+        <v>166</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="9">
+        <v>60</v>
+      </c>
+      <c r="G47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="12">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s">
+        <v>168</v>
+      </c>
       <c r="F48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="9">
+        <v>60</v>
+      </c>
+      <c r="G48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="12">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>16</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>170</v>
+      </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="G49" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="9">
+      <c r="A50" s="12">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="9">
+      <c r="A51" s="12">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="9">
+      <c r="A52" s="12">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="9">
+      <c r="A53" s="12">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="9">
+      <c r="A54" s="12">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="9">
+      <c r="A55" s="12">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="9">
+      <c r="A56" s="12">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="9">
+      <c r="A57" s="12">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="9">
+      <c r="A58" s="12">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="9">
+      <c r="A59" s="12">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="9">
+      <c r="A60" s="12">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="9">
+      <c r="A61" s="12">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="9">
+      <c r="A62" s="12">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="9">
+      <c r="A63" s="12">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="9">
+      <c r="A64" s="12">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="9">
+      <c r="A65" s="12">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="9">
+      <c r="A66" s="12">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="9">
+      <c r="A67" s="12">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="9">
+      <c r="A68" s="12">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="9">
+      <c r="A69" s="12">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="9">
+      <c r="A70" s="12">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="9">
+      <c r="A71" s="12">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="9">
+      <c r="A72" s="12">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="9">
+      <c r="A73" s="12">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="9">
+      <c r="A74" s="12">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="9">
+      <c r="A75" s="12">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="9">
+      <c r="A76" s="12">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="9">
+      <c r="A77" s="12">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="9">
+      <c r="A78" s="12">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="9">
+      <c r="A79" s="12">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4248,7 +4809,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -4268,7 +4829,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -4292,16 +4853,16 @@
         <v>19</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4315,17 +4876,17 @@
       <c r="C3">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>160</v>
+      <c r="D3" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4340,16 +4901,16 @@
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4364,16 +4925,16 @@
         <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4388,16 +4949,16 @@
         <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4415,13 +4976,13 @@
         <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4439,13 +5000,13 @@
         <v>40</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4463,13 +5024,13 @@
         <v>40</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4487,13 +5048,13 @@
         <v>40</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4511,13 +5072,13 @@
         <v>40</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G11" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4535,10 +5096,10 @@
         <v>40</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4556,10 +5117,10 @@
         <v>48</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4578,13 +5139,13 @@
         <v>40</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4603,13 +5164,13 @@
         <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4622,10 +5183,16 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4637,11 +5204,8 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4653,11 +5217,8 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4670,7 +5231,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4683,7 +5244,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4696,7 +5257,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4709,7 +5270,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4722,7 +5283,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4735,7 +5296,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4748,7 +5309,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4761,7 +5322,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4774,7 +5335,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4787,7 +5348,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4800,7 +5361,7 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4813,7 +5374,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4826,7 +5387,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4839,7 +5400,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4852,7 +5413,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4865,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4878,7 +5439,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4992,13 +5553,13 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5017,13 +5578,13 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5042,13 +5603,13 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5067,13 +5628,13 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G5" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5092,10 +5653,10 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5111,7 +5672,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5127,7 +5688,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5143,7 +5704,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5156,7 +5717,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5169,7 +5730,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5182,7 +5743,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5195,7 +5756,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5208,7 +5769,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5221,7 +5782,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5234,7 +5795,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5247,7 +5808,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5260,7 +5821,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5273,7 +5834,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5286,7 +5847,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5299,7 +5860,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5312,7 +5873,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5325,7 +5886,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5338,7 +5899,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5351,7 +5912,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5364,7 +5925,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5377,7 +5938,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5390,7 +5951,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5403,7 +5964,7 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5416,7 +5977,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5429,7 +5990,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5442,7 +6003,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5455,7 +6016,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5468,7 +6029,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5481,7 +6042,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5494,7 +6055,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5507,7 +6068,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5520,7 +6081,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5533,7 +6094,7 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5546,7 +6107,7 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5559,7 +6120,7 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5572,7 +6133,7 @@
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5585,7 +6146,7 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5598,7 +6159,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5611,7 +6172,7 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5624,7 +6185,7 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5637,7 +6198,7 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5650,7 +6211,7 @@
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5663,7 +6224,7 @@
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5676,7 +6237,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5689,7 +6250,7 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5702,7 +6263,7 @@
         <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5715,7 +6276,7 @@
         <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5728,7 +6289,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5741,7 +6302,7 @@
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5754,7 +6315,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5767,7 +6328,7 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5780,7 +6341,7 @@
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5793,7 +6354,7 @@
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5806,7 +6367,7 @@
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5866,10 +6427,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5882,7 +6443,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5895,7 +6456,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5908,7 +6469,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5921,7 +6482,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5934,7 +6495,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5947,7 +6508,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5960,7 +6521,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5973,7 +6534,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5986,7 +6547,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5999,7 +6560,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6012,7 +6573,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6025,7 +6586,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6038,7 +6599,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6051,7 +6612,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6064,7 +6625,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6077,7 +6638,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6090,7 +6651,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6103,7 +6664,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6116,7 +6677,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6129,7 +6690,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6142,7 +6703,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6155,7 +6716,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6168,7 +6729,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6181,7 +6742,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6190,7 +6751,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -6226,12 +6787,13 @@
     <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N38" sqref="N38"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
     <col min="10" max="10" width="7.4" style="6" customWidth="true"/>
+    <col min="11" max="11" width="23.1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="7:13">
@@ -6257,7 +6819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="7:11">
+    <row r="2" spans="7:12">
       <c r="G2">
         <v>1</v>
       </c>
@@ -6271,217 +6833,337 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="7:7">
+        <v>213</v>
+      </c>
+      <c r="L2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="7:12">
       <c r="G3">
         <f>G2+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="7:7">
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="7:12">
       <c r="G4">
         <f t="shared" ref="G4:G37" si="0">G3+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="7:7">
+      <c r="L4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="7:12">
       <c r="G5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="7:7">
+      <c r="L5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="7:12">
       <c r="G6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="7:7">
+      <c r="L6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="7:12">
       <c r="G7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="7:7">
+      <c r="L7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="7:12">
       <c r="G8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="7:7">
+      <c r="L8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="7:12">
       <c r="G9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="7:7">
+      <c r="L9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="7:12">
       <c r="G10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="7:7">
+      <c r="L10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="7:12">
       <c r="G11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="7:7">
+      <c r="L11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="7:12">
       <c r="G12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="7:7">
+      <c r="L12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="7:12">
       <c r="G13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="7:7">
+      <c r="L13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="7:12">
       <c r="G14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="7:7">
+      <c r="L14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="7:12">
       <c r="G15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="7:7">
+      <c r="L15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="7:12">
       <c r="G16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="7:7">
+      <c r="L16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="7:12">
       <c r="G17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="7:7">
+      <c r="L17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12">
       <c r="G18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="7:7">
+      <c r="L18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="7:12">
       <c r="G19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="7:7">
+      <c r="L19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="7:12">
       <c r="G20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="7:7">
+      <c r="L20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="7:12">
       <c r="G21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="7:7">
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="7:12">
       <c r="G22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="7:7">
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="7:12">
       <c r="G23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="7:7">
+      <c r="L23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="7:12">
       <c r="G24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="7:7">
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="7:12">
       <c r="G25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="7:7">
+      <c r="L25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="7:12">
       <c r="G26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="7:7">
+      <c r="L26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="7:12">
       <c r="G27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="7:7">
+      <c r="L27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="7:12">
       <c r="G28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="7:7">
+      <c r="L28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="7:12">
       <c r="G29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="7:7">
+      <c r="L29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="7:12">
       <c r="G30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="7:7">
+      <c r="L30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="7:12">
       <c r="G31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="7:7">
+      <c r="L31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="7:12">
       <c r="G32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="7:7">
+      <c r="L32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12">
       <c r="G33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="7:7">
+      <c r="L33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12">
       <c r="G34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="7:7">
+      <c r="L34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="7:12">
       <c r="G35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="7:7">
+      <c r="L35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="7:12">
       <c r="G36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="7:7">
+      <c r="L36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="7:12">
       <c r="G37">
         <f t="shared" si="0"/>
         <v>36</v>
+      </c>
+      <c r="L37" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -6499,7 +7181,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -6544,13 +7226,13 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6568,10 +7250,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6589,13 +7271,13 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G4" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6613,13 +7295,13 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G5" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6634,10 +7316,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6652,7 +7334,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6667,7 +7349,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6676,7 +7358,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6685,7 +7367,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6694,7 +7376,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6703,7 +7385,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6712,7 +7394,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -6725,95 +7407,130 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27825" windowHeight="12585" activeTab="8"/>
+    <workbookView windowWidth="27825" windowHeight="12585" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Recursion" sheetId="9" r:id="rId8"/>
     <sheet name="规则" sheetId="3" r:id="rId9"/>
     <sheet name="Sort" sheetId="10" r:id="rId10"/>
+    <sheet name="DFS" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -564,8 +565,42 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>third</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+y: 一次过
+?: 有疑问
++: 看答案，需要复习</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="266">
   <si>
     <t>No.</t>
   </si>
@@ -729,6 +764,9 @@
     <t>[题意]合并两个已排序的数组。</t>
   </si>
   <si>
+    <t>189. Rotate Array</t>
+  </si>
+  <si>
     <t>344. Reverse String</t>
   </si>
   <si>
@@ -741,6 +779,12 @@
     <t>709. To Lower Case</t>
   </si>
   <si>
+    <t>520. Detect Capital</t>
+  </si>
+  <si>
+    <t>541. Reverse String II</t>
+  </si>
+  <si>
     <t>+?+yy</t>
   </si>
   <si>
@@ -813,177 +857,180 @@
     <t>pre-order,需要将res进行初始化</t>
   </si>
   <si>
+    <t>++++</t>
+  </si>
+  <si>
+    <t>1022. Sum of Root To Leaf Binary Numbers</t>
+  </si>
+  <si>
+    <t>helper()函数里边逻辑，这里不好描述</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>和559题很像</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>递归，注意swap要交换两颗子树;不需要满足左右孩子都存在才交换，有个为空也是交换的，不需要什么过滤条件</t>
+  </si>
+  <si>
+    <t>872. Leaf-Similar Trees</t>
+  </si>
+  <si>
+    <t>dfs(main, dfs(l), dfs(r));注意是叶结点才能被加入</t>
+  </si>
+  <si>
+    <t>+?+</t>
+  </si>
+  <si>
+    <t>669. Trim a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>分类讨论，不在区间之间和在区间之间; 查看root-&gt;val是否在范围内，还有如果在的话，就可以考虑左右孩子了</t>
+  </si>
+  <si>
+    <t>++yy</t>
+  </si>
+  <si>
+    <t>637. Average of Levels in Binary Tree</t>
+  </si>
+  <si>
+    <t>二叉树的层序遍历layerOrder;就是一个简单的层序遍历，不必另写函数</t>
+  </si>
+  <si>
+    <t>108. Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>另写一个方法，递归方式，递归边界: end &lt;= start; 递归式: 找出中间索引，引用自身。数组的右边界为什么是nums.size(),而不是nums.size()-1</t>
+  </si>
+  <si>
+    <t>653. Two Sum IV - Input is a BST</t>
+  </si>
+  <si>
+    <t>这个题解我没有看懂</t>
+  </si>
+  <si>
+    <t>++yyy</t>
+  </si>
+  <si>
+    <t>538. Convert BST to Greater Tree</t>
+  </si>
+  <si>
+    <t>reverse in-order traversal,递减的方式排序，后边的数需要加上前面所有的数，需要新建一个全局变量sum进行记录; 注意curSum = root-&gt;val; 注意将两个return root合成一个</t>
+  </si>
+  <si>
+    <t>++?+</t>
+  </si>
+  <si>
+    <t>606. Construct String from Binary Tree</t>
+  </si>
+  <si>
+    <t>to_string();分五种情况讨论，后来其实有两种可以合为一种：根空，跟有孩子空，根有左有，根有右有，根有左右有</t>
+  </si>
+  <si>
+    <t>+++++y</t>
+  </si>
+  <si>
+    <t>530. Minimum Absolute Difference in BST</t>
+  </si>
+  <si>
+    <t>这个感觉比较难想; 另写一个helper()函数，类似in-order; 全局prev; prev-&gt;val只有在prev不为空的时候才有意义; 我又将if (prev != nullptr)写成 while(prev != nullptr)了，显示结果运行超时，最后还是利用对比工具找出来错误，不然还会以为是官方编译器出了问题</t>
+  </si>
+  <si>
+    <t>100. Same Tree</t>
+  </si>
+  <si>
+    <t>递归，先考虑根结点，然后对左右进行递归即可; 排序false情况的，然后剩下的就是true了</t>
+  </si>
+  <si>
+    <t>107. Binary Tree Level Order Traversal II</t>
+  </si>
+  <si>
+    <t>层序遍历, reverse(it.begin(), it.end()), 注意res.push_back({})写法; 考虑了root, 但是忘记了左右孩子; 想清楚res.size()与树高度的关系，是先有树，再有res</t>
+  </si>
+  <si>
+    <t>++y</t>
+  </si>
+  <si>
+    <t>783. Minimum Distance Between BST Nodes</t>
+  </si>
+  <si>
+    <t>DFS, 不要凭印象，要有做题思维</t>
+  </si>
+  <si>
     <t>+++</t>
   </si>
   <si>
-    <t>1022. Sum of Root To Leaf Binary Numbers</t>
-  </si>
-  <si>
-    <t>helper()函数里边逻辑，这里不好描述</t>
-  </si>
-  <si>
-    <t>104. Maximum Depth of Binary Tree</t>
-  </si>
-  <si>
-    <t>和559题很像</t>
+    <t>993. Cousins in Binary Tree</t>
+  </si>
+  <si>
+    <t>DFS， 考虑的东西要多一些, 完全不知道这道题的步骤是怎么写出来的</t>
+  </si>
+  <si>
+    <t>257. Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>pre-order, 其实root部分写法最重要，判断叶子结点; vector是不能使用加的, vector里边才是一个个string类型变量</t>
+  </si>
+  <si>
+    <t>y+</t>
+  </si>
+  <si>
+    <t>404. Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>[题意]找到给定二叉树的所有左叶结点，返回其和</t>
+  </si>
+  <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>[题意]找到两个结点的挨着最近的父亲。画图，三种不同的情况，递归写出来的代码很好理解。循环结构要写好</t>
+  </si>
+  <si>
+    <t>563. Binary Tree Tilt</t>
+  </si>
+  <si>
+    <t>[题意]</t>
+  </si>
+  <si>
+    <t>543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>[题意]找到二叉树中距离最远的两个结点的距离; 这个加一是什么逻辑?; 答案中的加一可以不这样写，令ans初始为0,最后结果也是正确的</t>
+  </si>
+  <si>
+    <t>101. Symmetric Tree</t>
+  </si>
+  <si>
+    <t>[题意]看二叉树是不是对称二叉树。想好条件的是与非,拿另一棵相同的树与这棵树进行对比</t>
+  </si>
+  <si>
+    <t>+++yy</t>
+  </si>
+  <si>
+    <t>572. Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>[题意]判断一棵树是不是另一棵树的子树。另外写两个函数，第一个函数从相等的那个结点开始对比，第二个函数看s是否包含t; 疑问：空树是任何一棵树的子树吗？</t>
   </si>
   <si>
     <t>+y+</t>
   </si>
   <si>
-    <t>226. Invert Binary Tree</t>
-  </si>
-  <si>
-    <t>递归，注意swap要交换两颗子树;不需要满足左右孩子都存在才交换，有个为空也是交换的，不需要什么过滤条件</t>
-  </si>
-  <si>
-    <t>+yy</t>
-  </si>
-  <si>
-    <t>872. Leaf-Similar Trees</t>
-  </si>
-  <si>
-    <t>dfs(main, dfs(l), dfs(r));注意是叶结点才能被加入</t>
-  </si>
-  <si>
-    <t>+?+</t>
-  </si>
-  <si>
-    <t>669. Trim a Binary Search Tree</t>
-  </si>
-  <si>
-    <t>分类讨论，不在区间之间和在区间之间; 查看root-&gt;val是否在范围内，还有如果在的话，就可以考虑左右孩子了</t>
-  </si>
-  <si>
-    <t>++yy</t>
-  </si>
-  <si>
-    <t>637. Average of Levels in Binary Tree</t>
-  </si>
-  <si>
-    <t>二叉树的层序遍历layerOrder;就是一个简单的层序遍历，不必另写函数</t>
+    <t>1315. Sum of Nodes with Even-Valued Grandparent</t>
+  </si>
+  <si>
+    <t>[题意]找出爷爷是偶数的结点的总和。使用dfs</t>
   </si>
   <si>
     <t>+?+y</t>
   </si>
   <si>
-    <t>108. Convert Sorted Array to Binary Search Tree</t>
-  </si>
-  <si>
-    <t>另写一个方法，递归方式，递归边界: end &lt;= start; 递归式: 找出中间索引，引用自身。数组的右边界为什么是nums.size(),而不是nums.size()-1</t>
-  </si>
-  <si>
-    <t>653. Two Sum IV - Input is a BST</t>
-  </si>
-  <si>
-    <t>这个题解我没有看懂</t>
-  </si>
-  <si>
-    <t>538. Convert BST to Greater Tree</t>
-  </si>
-  <si>
-    <t>reverse in-order traversal,递减的方式排序，后边的数需要加上前面所有的数，需要新建一个全局变量sum进行记录; 注意curSum = root-&gt;val; 注意将两个return root合成一个</t>
-  </si>
-  <si>
-    <t>++?+</t>
-  </si>
-  <si>
-    <t>606. Construct String from Binary Tree</t>
-  </si>
-  <si>
-    <t>to_string();分五种情况讨论，后来其实有两种可以合为一种：根空，跟有孩子空，根有左有，根有右有，根有左右有</t>
-  </si>
-  <si>
-    <t>+++++</t>
-  </si>
-  <si>
-    <t>530. Minimum Absolute Difference in BST</t>
-  </si>
-  <si>
-    <t>这个感觉比较难想; 另写一个helper()函数，类似in-order; 全局prev; prev-&gt;val只有在prev不为空的时候才有意义; 我又将if (prev != nullptr)写成 while(prev != nullptr)了，显示结果运行超时，最后还是利用对比工具找出来错误，不然还会以为是官方编译器出了问题</t>
-  </si>
-  <si>
-    <t>100. Same Tree</t>
-  </si>
-  <si>
-    <t>递归，先考虑根结点，然后对左右进行递归即可; 排序false情况的，然后剩下的就是true了</t>
-  </si>
-  <si>
-    <t>107. Binary Tree Level Order Traversal II</t>
-  </si>
-  <si>
-    <t>层序遍历, reverse(it.begin(), it.end()), 注意res.push_back({})写法; 考虑了root, 但是忘记了左右孩子; 想清楚res.size()与树高度的关系，是先有树，再有res</t>
-  </si>
-  <si>
-    <t>++y</t>
-  </si>
-  <si>
-    <t>783. Minimum Distance Between BST Nodes</t>
-  </si>
-  <si>
-    <t>DFS, 不要凭印象，要有做题思维</t>
-  </si>
-  <si>
-    <t>993. Cousins in Binary Tree</t>
-  </si>
-  <si>
-    <t>DFS， 考虑的东西要多一些, 完全不知道这道题的步骤是怎么写出来的</t>
-  </si>
-  <si>
-    <t>257. Binary Tree Paths</t>
-  </si>
-  <si>
-    <t>pre-order, 其实root部分写法最重要，判断叶子结点; vector是不能使用加的, vector里边才是一个个string类型变量</t>
-  </si>
-  <si>
-    <t>y+</t>
-  </si>
-  <si>
-    <t>404. Sum of Left Leaves</t>
-  </si>
-  <si>
-    <t>[题意]找到给定二叉树的所有左叶结点，返回其和</t>
-  </si>
-  <si>
-    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
-  </si>
-  <si>
-    <t>[题意]找到两个结点的挨着最近的父亲。画图，三种不同的情况，递归写出来的代码很好理解。循环结构要写好</t>
-  </si>
-  <si>
-    <t>563. Binary Tree Tilt</t>
-  </si>
-  <si>
-    <t>[题意]</t>
-  </si>
-  <si>
-    <t>543. Diameter of Binary Tree</t>
-  </si>
-  <si>
-    <t>[题意]找到二叉树中距离最远的两个结点的距离; 这个加一是什么逻辑?; 答案中的加一可以不这样写，令ans初始为0,最后结果也是正确的</t>
-  </si>
-  <si>
-    <t>101. Symmetric Tree</t>
-  </si>
-  <si>
-    <t>[题意]看二叉树是不是对称二叉树。想好条件的是与非,拿另一棵相同的树与这棵树进行对比</t>
-  </si>
-  <si>
-    <t>+++yy</t>
-  </si>
-  <si>
-    <t>572. Subtree of Another Tree</t>
-  </si>
-  <si>
-    <t>[题意]判断一棵树是不是另一棵树的子树。另外写两个函数，第一个函数从相等的那个结点开始对比，第二个函数看s是否包含t; 疑问：空树是任何一棵树的子树吗？</t>
-  </si>
-  <si>
-    <t>1315. Sum of Nodes with Even-Valued Grandparent</t>
-  </si>
-  <si>
-    <t>[题意]找出爷爷是偶数的结点的总和。使用dfs</t>
-  </si>
-  <si>
     <t>1302. Deepest Leaves Sum</t>
   </si>
   <si>
@@ -1032,6 +1079,9 @@
     <t>[题意]根据前序遍历还原层序遍历</t>
   </si>
   <si>
+    <t>+y+yy</t>
+  </si>
+  <si>
     <t>1305. All Elements in Two Binary Search Trees</t>
   </si>
   <si>
@@ -1083,6 +1133,12 @@
     <t>[题意]后跟遍历二叉树。递归很好写，迭代需要多练。</t>
   </si>
   <si>
+    <t>1382. Balance a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>[题意]给定BST，输出平衡后的BST，平衡是指根结点左右孩子的高度相差不超过1.</t>
+  </si>
+  <si>
     <t>1290. Convert Binary Number in a Linked List to Integer</t>
   </si>
   <si>
@@ -1152,6 +1208,9 @@
     <t>328. Odd Even Linked List</t>
   </si>
   <si>
+    <t>这道题感觉有点问题</t>
+  </si>
+  <si>
     <t>725. Split Linked List in Parts</t>
   </si>
   <si>
@@ -1170,6 +1229,18 @@
     <t>92. Reverse Linked List II</t>
   </si>
   <si>
+    <t>19. Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>[题意]移除链表中倒数第n个结点，返回新的链表。</t>
+  </si>
+  <si>
+    <t>109. Convert Sorted List to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>24. Swap Nodes in Pairs</t>
+  </si>
+  <si>
     <t>1441. Build an Array With Stack Operations</t>
   </si>
   <si>
@@ -1303,6 +1374,30 @@
   </si>
   <si>
     <t>1. 进制转换是从右往左开始的。</t>
+  </si>
+  <si>
+    <t>2. 在while里对链表进行迭代时，先把head = head-&gt;next写在代码块里，以免最后忘记了。</t>
+  </si>
+  <si>
+    <t>3. dummy head 虚拟头结点</t>
+  </si>
+  <si>
+    <t>1. monotonic stack</t>
+  </si>
+  <si>
+    <t>和面试官交流</t>
+  </si>
+  <si>
+    <t>1. 数据规模</t>
+  </si>
+  <si>
+    <t>1448. Count Good Nodes in Binary Tree</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>需要注意在迭代过程中不断更新greastest.</t>
   </si>
 </sst>
 </file>
@@ -1310,10 +1405,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1324,16 +1419,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1356,17 +1451,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1380,11 +1466,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1395,16 +1480,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1419,29 +1497,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1462,9 +1518,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1484,11 +1564,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1523,13 +1618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,13 +1642,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,19 +1660,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1589,19 +1696,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1613,31 +1720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1655,7 +1738,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1667,13 +1774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,19 +1798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,19 +1810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,11 +1838,63 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1770,71 +1917,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1843,142 +1938,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1992,20 +2087,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
@@ -2016,10 +2111,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true">
@@ -2353,12 +2448,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -2371,25 +2466,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2858,59 +2953,159 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="6:6">
+    <row r="23" spans="1:6">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="6:6">
+    <row r="24" spans="1:6">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="6:6">
+    <row r="25" spans="1:6">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="6:6">
+    <row r="26" spans="1:6">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="6:6">
+    <row r="27" spans="1:6">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="6:6">
+    <row r="28" spans="1:6">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
       <c r="F28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="6:6">
+    <row r="29" spans="1:6">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
       <c r="F29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="6:6">
+    <row r="30" spans="1:6">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="6:6">
+    <row r="31" spans="1:6">
+      <c r="A31" s="12">
+        <v>30</v>
+      </c>
       <c r="F31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="6:6">
+    <row r="32" spans="1:6">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
       <c r="F32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="6:6">
+    <row r="33" spans="1:6">
+      <c r="A33" s="12">
+        <v>32</v>
+      </c>
       <c r="F33" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="12">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2936,13 +3131,359 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="30.2" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <f t="shared" ref="A4:A33" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -2951,25 +3492,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2987,13 +3528,13 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3011,10 +3552,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3022,8 +3563,17 @@
         <f t="shared" ref="A4:A38" si="0">A3+1</f>
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3031,8 +3581,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3041,7 +3603,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3050,7 +3612,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3059,7 +3621,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3068,7 +3630,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3077,7 +3639,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3086,7 +3648,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3095,7 +3657,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3104,7 +3666,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3113,7 +3675,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3122,7 +3684,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3131,7 +3693,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3140,7 +3702,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3149,7 +3711,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3158,7 +3720,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3167,7 +3729,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3176,7 +3738,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3185,7 +3747,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3194,7 +3756,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3203,7 +3765,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3212,7 +3774,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3221,7 +3783,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3230,7 +3792,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3239,7 +3801,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3248,7 +3810,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3257,7 +3819,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3266,7 +3828,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3275,7 +3837,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3284,7 +3846,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3293,7 +3855,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3302,7 +3864,7 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3311,7 +3873,7 @@
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3320,7 +3882,7 @@
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3329,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3345,9 +3907,9 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -3359,25 +3921,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3392,16 +3954,16 @@
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3416,16 +3978,16 @@
         <v>17</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
         <v>63</v>
       </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3440,13 +4002,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3461,16 +4023,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3485,16 +4047,16 @@
         <v>19</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3509,16 +4071,16 @@
         <v>19</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3533,16 +4095,16 @@
         <v>23</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3557,16 +4119,16 @@
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3581,16 +4143,16 @@
         <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3605,16 +4167,16 @@
         <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3629,16 +4191,16 @@
         <v>23</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3653,16 +4215,16 @@
         <v>23</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3677,16 +4239,16 @@
         <v>23</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3701,16 +4263,16 @@
         <v>24</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3725,13 +4287,13 @@
         <v>24</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
         <v>101</v>
@@ -3755,7 +4317,7 @@
         <v>102</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
         <v>103</v>
@@ -3773,16 +4335,16 @@
         <v>25</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3797,16 +4359,16 @@
         <v>25</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3821,16 +4383,16 @@
         <v>25</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3845,16 +4407,16 @@
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3869,16 +4431,16 @@
         <v>26</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3893,16 +4455,16 @@
         <v>28</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3917,16 +4479,16 @@
         <v>28</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3941,16 +4503,16 @@
         <v>30</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3965,16 +4527,16 @@
         <v>30</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3992,13 +4554,13 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4016,13 +4578,13 @@
         <v>40</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4037,16 +4599,16 @@
         <v>1</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4061,16 +4623,16 @@
         <v>1</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4085,16 +4647,16 @@
         <v>1</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4109,16 +4671,16 @@
         <v>2</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4133,16 +4695,16 @@
         <v>2</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4160,10 +4722,10 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4179,16 +4741,16 @@
         <v>4</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G35" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4203,16 +4765,16 @@
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4227,16 +4789,16 @@
         <v>4</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G37" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4251,16 +4813,16 @@
         <v>4</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4278,13 +4840,13 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -4302,13 +4864,13 @@
         <v>40</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4324,16 +4886,16 @@
         <v>6</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -4352,13 +4914,13 @@
         <v>48</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4377,13 +4939,13 @@
         <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G43" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4398,10 +4960,10 @@
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -4419,13 +4981,13 @@
         <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -4443,13 +5005,13 @@
         <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -4467,13 +5029,13 @@
         <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4491,13 +5053,13 @@
         <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G48" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4515,22 +5077,37 @@
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="12">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>18</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>177</v>
+      </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="G50" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4539,7 +5116,7 @@
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4548,7 +5125,7 @@
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4557,7 +5134,7 @@
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4566,7 +5143,7 @@
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4575,7 +5152,7 @@
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4584,7 +5161,7 @@
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4593,7 +5170,7 @@
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4602,7 +5179,7 @@
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4611,7 +5188,7 @@
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4620,7 +5197,7 @@
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4629,7 +5206,7 @@
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4638,7 +5215,7 @@
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4647,7 +5224,7 @@
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4656,7 +5233,7 @@
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4665,7 +5242,7 @@
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4674,7 +5251,7 @@
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4683,7 +5260,7 @@
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4692,7 +5269,7 @@
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4701,7 +5278,7 @@
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4710,7 +5287,7 @@
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4719,7 +5296,7 @@
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4728,7 +5305,7 @@
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4737,7 +5314,7 @@
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4746,7 +5323,7 @@
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4755,7 +5332,7 @@
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4764,7 +5341,7 @@
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4773,7 +5350,7 @@
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4782,7 +5359,7 @@
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4791,7 +5368,7 @@
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4806,10 +5383,10 @@
   <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -4820,25 +5397,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4856,13 +5433,13 @@
         <v>30</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4877,16 +5454,16 @@
         <v>23</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4904,13 +5481,13 @@
         <v>30</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4928,13 +5505,13 @@
         <v>30</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" t="s">
         <v>180</v>
       </c>
-      <c r="F5" t="s">
-        <v>173</v>
-      </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4952,13 +5529,13 @@
         <v>30</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4976,13 +5553,13 @@
         <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4997,16 +5574,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5024,13 +5601,13 @@
         <v>40</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G9" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5045,16 +5622,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G10" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5069,19 +5646,19 @@
         <v>8</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5093,13 +5670,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>180</v>
+      </c>
+      <c r="G12" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5114,13 +5694,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5136,16 +5716,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G14" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5164,13 +5744,13 @@
         <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5189,13 +5769,13 @@
         <v>40</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5204,8 +5784,20 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>209</v>
+      </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5217,8 +5809,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5230,8 +5831,14 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5244,7 +5851,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5257,7 +5864,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5270,7 +5877,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5283,7 +5890,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5296,7 +5903,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5309,7 +5916,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5322,7 +5929,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5335,7 +5942,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5348,7 +5955,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5361,7 +5968,7 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5374,7 +5981,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5387,7 +5994,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5400,7 +6007,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5413,7 +6020,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5426,7 +6033,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5439,7 +6046,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5517,25 +6124,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5553,13 +6160,13 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5578,13 +6185,13 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5603,13 +6210,13 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G4" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5628,13 +6235,13 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5653,10 +6260,10 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5672,7 +6279,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5688,7 +6295,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5704,7 +6311,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5717,7 +6324,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5730,7 +6337,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5743,7 +6350,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5756,7 +6363,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5769,7 +6376,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5782,7 +6389,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5795,7 +6402,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5808,7 +6415,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5821,7 +6428,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5834,7 +6441,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5847,7 +6454,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5860,7 +6467,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5873,7 +6480,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5886,7 +6493,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5899,7 +6506,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5912,7 +6519,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5925,7 +6532,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5938,7 +6545,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5951,7 +6558,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5964,7 +6571,7 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5977,7 +6584,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5990,7 +6597,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6003,7 +6610,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6016,7 +6623,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6029,7 +6636,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6042,7 +6649,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6055,7 +6662,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6068,7 +6675,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6081,7 +6688,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6094,7 +6701,7 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6107,7 +6714,7 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6120,7 +6727,7 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6133,7 +6740,7 @@
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6146,7 +6753,7 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6159,7 +6766,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6172,7 +6779,7 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6185,7 +6792,7 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6198,7 +6805,7 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6211,7 +6818,7 @@
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6224,7 +6831,7 @@
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6237,7 +6844,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6250,7 +6857,7 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6263,7 +6870,7 @@
         <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6276,7 +6883,7 @@
         <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6289,7 +6896,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6302,7 +6909,7 @@
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6315,7 +6922,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6328,7 +6935,7 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6341,7 +6948,7 @@
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6354,7 +6961,7 @@
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6367,7 +6974,7 @@
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -6394,25 +7001,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6427,10 +7034,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6443,7 +7050,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6456,7 +7063,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6469,7 +7076,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6482,7 +7089,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6495,7 +7102,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6508,7 +7115,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6521,7 +7128,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6534,7 +7141,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6547,7 +7154,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6560,7 +7167,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6573,7 +7180,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6586,7 +7193,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6599,7 +7206,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6612,7 +7219,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6625,7 +7232,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6638,7 +7245,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6651,7 +7258,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6664,7 +7271,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6677,7 +7284,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6690,7 +7297,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6703,7 +7310,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6716,7 +7323,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6729,7 +7336,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6742,7 +7349,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6751,7 +7358,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -6797,25 +7404,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="7:13">
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6833,10 +7440,10 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="L2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="7:12">
@@ -6854,10 +7461,10 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="L3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="7:12">
@@ -6866,7 +7473,7 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="7:12">
@@ -6875,7 +7482,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="7:12">
@@ -6884,7 +7491,7 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="7:12">
@@ -6893,7 +7500,7 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="7:12">
@@ -6902,7 +7509,7 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="7:12">
@@ -6911,7 +7518,7 @@
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="7:12">
@@ -6920,7 +7527,7 @@
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="7:12">
@@ -6929,7 +7536,7 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="7:12">
@@ -6938,7 +7545,7 @@
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="7:12">
@@ -6947,7 +7554,7 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="7:12">
@@ -6956,7 +7563,7 @@
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="7:12">
@@ -6965,7 +7572,7 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="7:12">
@@ -6974,7 +7581,7 @@
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="7:12">
@@ -6983,7 +7590,7 @@
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="7:12">
@@ -6992,7 +7599,7 @@
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="7:12">
@@ -7001,7 +7608,7 @@
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="7:12">
@@ -7010,7 +7617,7 @@
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="7:12">
@@ -7019,7 +7626,7 @@
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="7:12">
@@ -7028,7 +7635,7 @@
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="7:12">
@@ -7037,7 +7644,7 @@
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="7:12">
@@ -7046,7 +7653,7 @@
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="7:12">
@@ -7055,7 +7662,7 @@
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="7:12">
@@ -7064,7 +7671,7 @@
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="7:12">
@@ -7073,7 +7680,7 @@
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="7:12">
@@ -7082,7 +7689,7 @@
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="7:12">
@@ -7091,7 +7698,7 @@
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="7:12">
@@ -7100,7 +7707,7 @@
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="7:12">
@@ -7109,7 +7716,7 @@
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="7:12">
@@ -7118,7 +7725,7 @@
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="7:12">
@@ -7127,7 +7734,7 @@
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="7:12">
@@ -7136,7 +7743,7 @@
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="7:12">
@@ -7145,7 +7752,7 @@
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="7:12">
@@ -7154,7 +7761,7 @@
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="7:12">
@@ -7163,7 +7770,7 @@
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -7181,7 +7788,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -7190,25 +7797,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7226,13 +7833,13 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="G2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7250,10 +7857,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7271,13 +7878,13 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7295,13 +7902,13 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7316,10 +7923,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7334,7 +7941,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7349,7 +7956,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7358,7 +7965,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7367,7 +7974,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7376,7 +7983,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7385,7 +7992,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7394,7 +8001,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7407,130 +8014,160 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>227</v>
+      <c r="A20" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>129</v>
+        <v>242</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>243</v>
+      <c r="A37" s="4" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>173</v>
+      <c r="A44" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>245</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27825" windowHeight="12585" tabRatio="806" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="12585" tabRatio="806" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Array(basic)" sheetId="1" r:id="rId1"/>
@@ -671,7 +671,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="292">
   <si>
     <t>No.</t>
   </si>
@@ -838,6 +838,18 @@
     <t>189. Rotate Array</t>
   </si>
   <si>
+    <t>66. Plus One</t>
+  </si>
+  <si>
+    <t>注意最高阶</t>
+  </si>
+  <si>
+    <t>989. Add to Array-Form of Integer</t>
+  </si>
+  <si>
+    <t>进制取余和得到商这些个步骤很麻烦</t>
+  </si>
+  <si>
     <t>344. Reverse String</t>
   </si>
   <si>
@@ -856,6 +868,9 @@
     <t>541. Reverse String II</t>
   </si>
   <si>
+    <t>415. Add Strings</t>
+  </si>
+  <si>
     <t>1441. Build an Array With Stack Operations</t>
   </si>
   <si>
@@ -919,7 +934,7 @@
     <t>700. Search in a Binary Search Tree</t>
   </si>
   <si>
-    <t>++yy++y</t>
+    <t>++yy++yy</t>
   </si>
   <si>
     <t>589. N-ary Tree Preorder Traversal</t>
@@ -994,7 +1009,7 @@
     <t>dfs(main, dfs(l), dfs(r));注意是叶结点才能被加入</t>
   </si>
   <si>
-    <t>+?+</t>
+    <t>+?++</t>
   </si>
   <si>
     <t>669. Trim a Binary Search Tree</t>
@@ -1393,6 +1408,30 @@
     <t>771. Jewels and Stones</t>
   </si>
   <si>
+    <t>1365. How Many Numbers Are Smaller Than the Current Number</t>
+  </si>
+  <si>
+    <t>给定数组，看对数组中每一个数字i，有多少数字j是不等于i且小于i的。</t>
+  </si>
+  <si>
+    <t>961. N-Repeated Element in Size 2N Array</t>
+  </si>
+  <si>
+    <t>1207. Unique Number of Occurrences</t>
+  </si>
+  <si>
+    <t>查看数组中每个数组出现的次数是否唯一。使用map和set，最后查看map和set的大小是否相同。</t>
+  </si>
+  <si>
+    <t>811. Subdomain Visit Count</t>
+  </si>
+  <si>
+    <t>对网址的各项域名进行计数。</t>
+  </si>
+  <si>
+    <t>先将A中第一个string做一个基准，然后对剩余的string进行遍历，每次遍历完一个string后，就与基准作一个对比，得到其中最少频数并更新基准，这样遍历完之后的string后，基准中那些频数大于1的字符就是这些string中共同的字符，之后输出。</t>
+  </si>
+  <si>
     <t>9. Palindrome Number</t>
   </si>
   <si>
@@ -1402,6 +1441,9 @@
     <t>202. Happy Number</t>
   </si>
   <si>
+    <t>67. Add Binary</t>
+  </si>
+  <si>
     <t>1448. Count Good Nodes in Binary Tree</t>
   </si>
   <si>
@@ -1475,6 +1517,9 @@
   </si>
   <si>
     <t>15. vector初始化要用{}</t>
+  </si>
+  <si>
+    <t>16. 认真写循环中的变量，写完之后检查一下，不然最后出bug，你都不会想到这些错了，会自动忽略这些你以为不会错的地方。</t>
   </si>
   <si>
     <t>Tree:</t>
@@ -1509,9 +1554,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1548,7 +1593,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,6 +1623,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1569,6 +1644,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1577,31 +1659,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1609,6 +1676,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1632,20 +1707,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1653,7 +1714,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1661,15 +1722,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1677,15 +1730,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1696,15 +1741,15 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1746,19 +1791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,7 +1803,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1788,7 +1857,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,13 +1923,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1818,91 +1959,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1914,19 +1971,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1937,15 +1982,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1964,6 +2000,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1975,15 +2044,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2022,168 +2082,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2559,7 +2604,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -3079,20 +3124,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="12">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="12">
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
       <c r="F25" t="s">
         <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3226,10 +3301,10 @@
   <sheetPr/>
   <dimension ref="G1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -3275,10 +3350,10 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="L2" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="7:12">
@@ -3296,10 +3371,10 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="L3" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="7:12">
@@ -3307,8 +3382,20 @@
         <f t="shared" ref="G4:G37" si="0">G3+1</f>
         <v>3</v>
       </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>256</v>
+      </c>
       <c r="L4" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="7:12">
@@ -3317,7 +3404,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="7:12">
@@ -3326,7 +3413,7 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="7:12">
@@ -3335,7 +3422,7 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="7:12">
@@ -3344,7 +3431,7 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="7:12">
@@ -3353,7 +3440,7 @@
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="7:12">
@@ -3362,7 +3449,7 @@
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="7:12">
@@ -3371,7 +3458,7 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="7:12">
@@ -3380,7 +3467,7 @@
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="7:12">
@@ -3389,7 +3476,7 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="7:12">
@@ -3398,7 +3485,7 @@
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="7:12">
@@ -3407,7 +3494,7 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="7:12">
@@ -3416,7 +3503,7 @@
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="7:12">
@@ -3425,7 +3512,7 @@
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="7:12">
@@ -3434,7 +3521,7 @@
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="7:12">
@@ -3443,7 +3530,7 @@
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="7:12">
@@ -3452,7 +3539,7 @@
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="7:12">
@@ -3461,7 +3548,7 @@
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="7:12">
@@ -3470,7 +3557,7 @@
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="7:12">
@@ -3479,7 +3566,7 @@
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="7:12">
@@ -3488,7 +3575,7 @@
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="7:12">
@@ -3497,7 +3584,7 @@
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="7:12">
@@ -3506,7 +3593,7 @@
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="7:12">
@@ -3515,7 +3602,7 @@
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="7:12">
@@ -3524,7 +3611,7 @@
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="7:12">
@@ -3533,7 +3620,7 @@
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="7:12">
@@ -3542,7 +3629,7 @@
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="7:12">
@@ -3551,7 +3638,7 @@
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="7:12">
@@ -3560,7 +3647,7 @@
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="7:12">
@@ -3569,7 +3656,7 @@
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="7:12">
@@ -3578,7 +3665,7 @@
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="7:12">
@@ -3587,7 +3674,7 @@
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="7:12">
@@ -3596,7 +3683,7 @@
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="7:12">
@@ -3605,7 +3692,7 @@
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3682,13 +3769,13 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="G2" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3697,7 +3784,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3706,7 +3793,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3715,7 +3802,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3724,7 +3811,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3733,7 +3820,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3742,7 +3829,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3751,7 +3838,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3760,7 +3847,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3769,7 +3856,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3778,7 +3865,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3787,7 +3874,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3796,7 +3883,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3805,7 +3892,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3814,7 +3901,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3823,7 +3910,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3832,7 +3919,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3841,7 +3928,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3850,7 +3937,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3859,7 +3946,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3868,7 +3955,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3877,7 +3964,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3886,7 +3973,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3895,7 +3982,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3904,7 +3991,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3913,7 +4000,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3922,7 +4009,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3931,7 +4018,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3940,7 +4027,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3949,7 +4036,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3958,7 +4045,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3967,7 +4054,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4025,10 +4112,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4037,7 +4124,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4238,163 +4325,168 @@
   <sheetPr/>
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4410,8 +4502,8 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -4456,13 +4548,13 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4480,10 +4572,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4498,10 +4590,10 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4519,10 +4611,10 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
         <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4530,8 +4622,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4540,7 +4644,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4549,7 +4653,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4558,7 +4662,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4567,7 +4671,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4576,7 +4680,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4585,7 +4689,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4594,7 +4698,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4603,7 +4707,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4612,7 +4716,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4621,7 +4725,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4630,7 +4734,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4639,7 +4743,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4648,7 +4752,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4657,7 +4761,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4666,7 +4770,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4675,7 +4779,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4684,7 +4788,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4693,7 +4797,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4702,7 +4806,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4711,7 +4815,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4720,7 +4824,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4729,7 +4833,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4738,7 +4842,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4747,7 +4851,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4756,7 +4860,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4765,7 +4869,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4774,7 +4878,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4783,7 +4887,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4792,7 +4896,7 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4801,7 +4905,7 @@
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4810,7 +4914,7 @@
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4819,7 +4923,7 @@
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4885,13 +4989,13 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4910,13 +5014,13 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4935,13 +5039,13 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4960,13 +5064,13 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4985,10 +5089,10 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5004,7 +5108,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5020,7 +5124,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5036,7 +5140,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5049,7 +5153,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5062,7 +5166,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5075,7 +5179,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5088,7 +5192,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5101,7 +5205,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5114,7 +5218,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5127,7 +5231,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5140,7 +5244,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5153,7 +5257,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5166,7 +5270,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5179,7 +5283,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5192,7 +5296,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5205,7 +5309,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5218,7 +5322,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5231,7 +5335,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5244,7 +5348,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5257,7 +5361,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5270,7 +5374,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5283,7 +5387,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5296,7 +5400,7 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5309,7 +5413,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5322,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5335,7 +5439,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5348,7 +5452,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5361,7 +5465,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5374,7 +5478,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5387,7 +5491,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5400,7 +5504,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5413,7 +5517,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5426,7 +5530,7 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5439,7 +5543,7 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5452,7 +5556,7 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5465,7 +5569,7 @@
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5478,7 +5582,7 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5491,7 +5595,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5504,7 +5608,7 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5517,7 +5621,7 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5530,7 +5634,7 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5543,7 +5647,7 @@
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5556,7 +5660,7 @@
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5569,7 +5673,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5582,7 +5686,7 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5595,7 +5699,7 @@
         <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5608,7 +5712,7 @@
         <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5621,7 +5725,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5634,7 +5738,7 @@
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5647,7 +5751,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5660,7 +5764,7 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5673,7 +5777,7 @@
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5686,7 +5790,7 @@
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5699,7 +5803,7 @@
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5761,10 +5865,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5777,7 +5881,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5790,7 +5894,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5803,7 +5907,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5816,7 +5920,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5829,7 +5933,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5842,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5855,7 +5959,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5868,7 +5972,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5881,7 +5985,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5894,7 +5998,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5907,7 +6011,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5920,7 +6024,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5933,7 +6037,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5946,7 +6050,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5959,7 +6063,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5972,7 +6076,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5985,7 +6089,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5998,7 +6102,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6011,7 +6115,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6024,7 +6128,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6037,7 +6141,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6050,7 +6154,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6063,7 +6167,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6076,7 +6180,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6085,7 +6189,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -6121,9 +6225,9 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -6168,16 +6272,16 @@
         <v>17</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6192,16 +6296,16 @@
         <v>17</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6216,13 +6320,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
         <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6237,16 +6341,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6261,16 +6365,16 @@
         <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6285,16 +6389,16 @@
         <v>19</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6309,16 +6413,16 @@
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6333,16 +6437,16 @@
         <v>23</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6357,16 +6461,16 @@
         <v>23</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6381,16 +6485,16 @@
         <v>23</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6405,16 +6509,16 @@
         <v>23</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6429,16 +6533,16 @@
         <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" t="s">
         <v>80</v>
       </c>
-      <c r="E13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" t="s">
-        <v>75</v>
-      </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6453,16 +6557,16 @@
         <v>23</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6477,16 +6581,16 @@
         <v>24</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6501,16 +6605,16 @@
         <v>24</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6528,13 +6632,13 @@
         <v>40</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6549,16 +6653,16 @@
         <v>25</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6573,16 +6677,16 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6597,16 +6701,16 @@
         <v>25</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6621,16 +6725,16 @@
         <v>26</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6645,16 +6749,16 @@
         <v>26</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6669,16 +6773,16 @@
         <v>28</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6693,16 +6797,16 @@
         <v>28</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -6717,16 +6821,16 @@
         <v>30</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6741,16 +6845,16 @@
         <v>30</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6768,13 +6872,13 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6792,13 +6896,13 @@
         <v>40</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6813,16 +6917,16 @@
         <v>1</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -6837,16 +6941,16 @@
         <v>1</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6861,16 +6965,16 @@
         <v>1</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6885,16 +6989,16 @@
         <v>2</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6909,16 +7013,16 @@
         <v>2</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6936,10 +7040,10 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6955,16 +7059,16 @@
         <v>4</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6979,16 +7083,16 @@
         <v>4</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -7003,16 +7107,16 @@
         <v>4</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -7027,16 +7131,16 @@
         <v>4</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -7054,13 +7158,13 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7078,13 +7182,13 @@
         <v>40</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -7100,16 +7204,16 @@
         <v>6</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E41" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -7128,13 +7232,13 @@
         <v>48</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -7153,13 +7257,13 @@
         <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7174,10 +7278,10 @@
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -7195,13 +7299,13 @@
         <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -7219,13 +7323,13 @@
         <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -7243,13 +7347,13 @@
         <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -7267,13 +7371,13 @@
         <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -7291,13 +7395,13 @@
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F49" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -7315,13 +7419,13 @@
         <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -7339,13 +7443,13 @@
         <v>40</v>
       </c>
       <c r="E51" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F51" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -7363,13 +7467,13 @@
         <v>40</v>
       </c>
       <c r="E52" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7378,7 +7482,7 @@
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7387,7 +7491,7 @@
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7396,7 +7500,7 @@
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7405,7 +7509,7 @@
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7414,7 +7518,7 @@
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7423,7 +7527,7 @@
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7432,7 +7536,7 @@
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7441,7 +7545,7 @@
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7450,7 +7554,7 @@
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7459,7 +7563,7 @@
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7468,7 +7572,7 @@
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7477,7 +7581,7 @@
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7486,7 +7590,7 @@
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7495,7 +7599,7 @@
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7504,7 +7608,7 @@
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7513,7 +7617,7 @@
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7522,7 +7626,7 @@
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7531,7 +7635,7 @@
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7540,7 +7644,7 @@
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7549,7 +7653,7 @@
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7558,7 +7662,7 @@
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7567,7 +7671,7 @@
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7576,7 +7680,7 @@
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7585,7 +7689,7 @@
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7594,7 +7698,7 @@
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7603,7 +7707,7 @@
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7612,7 +7716,7 @@
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -7677,13 +7781,13 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7701,10 +7805,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7722,13 +7826,13 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7746,13 +7850,13 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" t="s">
         <v>201</v>
       </c>
-      <c r="F5" t="s">
-        <v>196</v>
-      </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7767,10 +7871,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7785,7 +7889,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7800,7 +7904,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7809,7 +7913,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7818,7 +7922,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7827,7 +7931,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7836,7 +7940,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7845,7 +7949,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -7912,13 +8016,13 @@
         <v>30</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7933,16 +8037,16 @@
         <v>23</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7960,13 +8064,13 @@
         <v>30</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" t="s">
         <v>209</v>
       </c>
-      <c r="F4" t="s">
-        <v>204</v>
-      </c>
       <c r="G4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7984,13 +8088,13 @@
         <v>30</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G5" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8008,13 +8112,13 @@
         <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G6" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8032,13 +8136,13 @@
         <v>40</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8056,13 +8160,13 @@
         <v>30</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F8" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G8" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8080,13 +8184,13 @@
         <v>40</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G9" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8104,13 +8208,13 @@
         <v>30</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G10" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8128,13 +8232,13 @@
         <v>30</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G11" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8152,13 +8256,13 @@
         <v>30</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F12" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G12" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8176,10 +8280,10 @@
         <v>30</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F13" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8195,16 +8299,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F14" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G14" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8223,13 +8327,13 @@
         <v>40</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F15" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G15" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8248,10 +8352,10 @@
         <v>40</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8270,13 +8374,13 @@
         <v>40</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F17" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G17" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8295,10 +8399,10 @@
         <v>14</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8314,10 +8418,10 @@
         <v>19</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8330,7 +8434,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8343,7 +8447,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8356,7 +8460,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8369,7 +8473,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8382,7 +8486,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8395,7 +8499,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8408,7 +8512,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -8421,7 +8525,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8434,7 +8538,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8447,7 +8551,7 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -8460,7 +8564,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8473,7 +8577,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -8486,7 +8590,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -8499,7 +8603,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -8512,7 +8616,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -8525,7 +8629,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8593,7 +8697,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -8638,10 +8742,10 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8659,19 +8763,34 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <f t="shared" ref="A4:A40" si="0">A3+1</f>
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>245</v>
+      </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>243</v>
+      </c>
+      <c r="G4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8679,35 +8798,92 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>247</v>
+      </c>
       <c r="F5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>248</v>
+      </c>
       <c r="F6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>243</v>
+      </c>
+      <c r="G6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>250</v>
+      </c>
       <c r="F7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>243</v>
+      </c>
+      <c r="G7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
       <c r="F8" t="s">
-        <v>238</v>
+        <v>243</v>
+      </c>
+      <c r="G8" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8716,7 +8892,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8725,7 +8901,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8734,7 +8910,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8743,7 +8919,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8752,7 +8928,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8761,7 +8937,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8770,7 +8946,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8779,7 +8955,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8788,7 +8964,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8797,7 +8973,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8806,7 +8982,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8815,7 +8991,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8824,7 +9000,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8833,7 +9009,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8842,7 +9018,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8851,7 +9027,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8860,7 +9036,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8869,7 +9045,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -8878,7 +9054,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8887,7 +9063,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8896,7 +9072,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -8905,7 +9081,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8914,7 +9090,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -8923,7 +9099,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -8932,7 +9108,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -8941,7 +9117,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -8950,7 +9126,7 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -8959,7 +9135,7 @@
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -8968,7 +9144,7 @@
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -8977,7 +9153,7 @@
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -8986,7 +9162,7 @@
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:1">

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12585" tabRatio="806" activeTab="1"/>
+    <workbookView windowWidth="27975" windowHeight="12585" tabRatio="806" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Array(basic)" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="DFS" sheetId="11" r:id="rId12"/>
     <sheet name="Binary search" sheetId="12" r:id="rId13"/>
     <sheet name="规则" sheetId="3" r:id="rId14"/>
+    <sheet name="Backtracking" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -121,6 +122,63 @@
 y: 一次过
 ?: 有疑问
 +: 看答案，需要复习</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>third</author>
+    <author>fifth</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+y: 一次过
+?: 有疑问
++: 看答案，需要复习</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>fifth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+回溯</t>
         </r>
       </text>
     </comment>
@@ -671,7 +729,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="314">
   <si>
     <t>No.</t>
   </si>
@@ -907,228 +965,231 @@
     <t>Queue</t>
   </si>
   <si>
+    <t>+?+yyy</t>
+  </si>
+  <si>
+    <t>938. Range Sum of BST</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>解决方法: inorder;第二遍写了出来是把这种写法给记着了; 另写一个中序遍历函数，左右就是递归作用，中就是得到我们最后想要的结果的过程</t>
+  </si>
+  <si>
+    <t>+++y+yy</t>
+  </si>
+  <si>
+    <t>617. Merge Two Binary Trees</t>
+  </si>
+  <si>
+    <t>使用递归; 函数是否有返回值;判空之后在进行递归的书写; 递归边界、递归式;纸笔模拟</t>
+  </si>
+  <si>
+    <t>+yyy</t>
+  </si>
+  <si>
+    <t>700. Search in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>++yy++yyy</t>
+  </si>
+  <si>
+    <t>589. N-ary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>递归和迭代都要会; 这一遍我觉得是依靠记忆的，我还记得该怎么写</t>
+  </si>
+  <si>
+    <t>y?yy</t>
+  </si>
+  <si>
+    <t>590. N-ary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>因为会做上一题，知道的怎么写，这一题写着很快; children first, and then push back the root-&gt;val</t>
+  </si>
+  <si>
+    <t>+++yy</t>
+  </si>
+  <si>
+    <t>897. Increasing Order Search Tree</t>
+  </si>
+  <si>
+    <t>可以打印出类似的结果，但是不知道如何以树的形式返回。</t>
+  </si>
+  <si>
+    <t>+y+yy</t>
+  </si>
+  <si>
+    <t>559. Maximum Depth of N-ary Tree</t>
+  </si>
+  <si>
+    <t>递归：靠着一个个的1积累;总是感觉使用迭代做树很难。递归写起来非常简洁</t>
+  </si>
+  <si>
+    <t>965. Univalued Binary Tree</t>
+  </si>
+  <si>
+    <t>pre-order,需要将res进行初始化</t>
+  </si>
+  <si>
+    <t>++++</t>
+  </si>
+  <si>
+    <t>1022. Sum of Root To Leaf Binary Numbers</t>
+  </si>
+  <si>
+    <t>helper()函数里边逻辑，这里不好描述</t>
+  </si>
+  <si>
+    <t>+++y</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>和559题很像</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>递归，注意swap要交换两颗子树;不需要满足左右孩子都存在才交换，有个为空也是交换的，不需要什么过滤条件</t>
+  </si>
+  <si>
+    <t>872. Leaf-Similar Trees</t>
+  </si>
+  <si>
+    <t>dfs(main, dfs(l), dfs(r));注意是叶结点才能被加入</t>
+  </si>
+  <si>
+    <t>+?++y</t>
+  </si>
+  <si>
+    <t>669. Trim a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>分类讨论，不在区间之间和在区间之间; 查看root-&gt;val是否在范围内，还有如果在的话，就可以考虑左右孩子了</t>
+  </si>
+  <si>
+    <t>++yyyy</t>
+  </si>
+  <si>
+    <t>637. Average of Levels in Binary Tree</t>
+  </si>
+  <si>
+    <t>二叉树的层序遍历layerOrder;就是一个简单的层序遍历，不必另写函数</t>
+  </si>
+  <si>
     <t>+?+yy</t>
   </si>
   <si>
-    <t>938. Range Sum of BST</t>
-  </si>
-  <si>
-    <t>Tree</t>
-  </si>
-  <si>
-    <t>解决方法: inorder;第二遍写了出来是把这种写法给记着了; 另写一个中序遍历函数，左右就是递归作用，中就是得到我们最后想要的结果的过程</t>
-  </si>
-  <si>
-    <t>+++y+y</t>
-  </si>
-  <si>
-    <t>617. Merge Two Binary Trees</t>
-  </si>
-  <si>
-    <t>使用递归; 函数是否有返回值;判空之后在进行递归的书写; 递归边界、递归式;纸笔模拟</t>
-  </si>
-  <si>
-    <t>+yyy</t>
-  </si>
-  <si>
-    <t>700. Search in a Binary Search Tree</t>
-  </si>
-  <si>
-    <t>++yy++yy</t>
-  </si>
-  <si>
-    <t>589. N-ary Tree Preorder Traversal</t>
-  </si>
-  <si>
-    <t>递归和迭代都要会; 这一遍我觉得是依靠记忆的，我还记得该怎么写</t>
-  </si>
-  <si>
-    <t>y?yy</t>
-  </si>
-  <si>
-    <t>590. N-ary Tree Postorder Traversal</t>
-  </si>
-  <si>
-    <t>因为会做上一题，知道的怎么写，这一题写着很快; children first, and then push back the root-&gt;val</t>
-  </si>
-  <si>
-    <t>+++yy</t>
-  </si>
-  <si>
-    <t>897. Increasing Order Search Tree</t>
-  </si>
-  <si>
-    <t>可以打印出类似的结果，但是不知道如何以树的形式返回。</t>
-  </si>
-  <si>
-    <t>+y+y</t>
-  </si>
-  <si>
-    <t>559. Maximum Depth of N-ary Tree</t>
-  </si>
-  <si>
-    <t>递归：靠着一个个的1积累;总是感觉使用迭代做树很难。递归写起来非常简洁</t>
-  </si>
-  <si>
-    <t>y?y</t>
-  </si>
-  <si>
-    <t>965. Univalued Binary Tree</t>
-  </si>
-  <si>
-    <t>pre-order,需要将res进行初始化</t>
-  </si>
-  <si>
-    <t>++++</t>
-  </si>
-  <si>
-    <t>1022. Sum of Root To Leaf Binary Numbers</t>
-  </si>
-  <si>
-    <t>helper()函数里边逻辑，这里不好描述</t>
-  </si>
-  <si>
-    <t>+++y</t>
-  </si>
-  <si>
-    <t>104. Maximum Depth of Binary Tree</t>
-  </si>
-  <si>
-    <t>和559题很像</t>
-  </si>
-  <si>
-    <t>226. Invert Binary Tree</t>
-  </si>
-  <si>
-    <t>递归，注意swap要交换两颗子树;不需要满足左右孩子都存在才交换，有个为空也是交换的，不需要什么过滤条件</t>
-  </si>
-  <si>
-    <t>872. Leaf-Similar Trees</t>
-  </si>
-  <si>
-    <t>dfs(main, dfs(l), dfs(r));注意是叶结点才能被加入</t>
-  </si>
-  <si>
-    <t>+?++</t>
-  </si>
-  <si>
-    <t>669. Trim a Binary Search Tree</t>
-  </si>
-  <si>
-    <t>分类讨论，不在区间之间和在区间之间; 查看root-&gt;val是否在范围内，还有如果在的话，就可以考虑左右孩子了</t>
+    <t>108. Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>另写一个方法，递归方式，递归边界: end &lt;= start; 递归式: 找出中间索引，引用自身。数组的右边界为什么是nums.size(),而不是nums.size()-1</t>
+  </si>
+  <si>
+    <t>653. Two Sum IV - Input is a BST</t>
+  </si>
+  <si>
+    <t>这个题解我没有看懂</t>
+  </si>
+  <si>
+    <t>++yyy</t>
+  </si>
+  <si>
+    <t>538. Convert BST to Greater Tree</t>
+  </si>
+  <si>
+    <t>reverse in-order traversal,递减的方式排序，后边的数需要加上前面所有的数，需要新建一个全局变量sum进行记录; 注意curSum = root-&gt;val; 注意将两个return root合成一个</t>
+  </si>
+  <si>
+    <t>++?++</t>
+  </si>
+  <si>
+    <t>606. Construct String from Binary Tree</t>
+  </si>
+  <si>
+    <t>to_string();分五种情况讨论，后来其实有两种可以合为一种：根空，跟有孩子空，根有左有，根有右有，根有左右有</t>
+  </si>
+  <si>
+    <t>+++++yy</t>
+  </si>
+  <si>
+    <t>530. Minimum Absolute Difference in BST</t>
+  </si>
+  <si>
+    <t>这个感觉比较难想; 另写一个helper()函数，类似in-order; 全局prev; prev-&gt;val只有在prev不为空的时候才有意义; 我又将if (prev != nullptr)写成 while(prev != nullptr)了，显示结果运行超时，最后还是利用对比工具找出来错误，不然还会以为是官方编译器出了问题</t>
+  </si>
+  <si>
+    <t>100. Same Tree</t>
+  </si>
+  <si>
+    <t>递归，先考虑根结点，然后对左右进行递归即可; 排序false情况的，然后剩下的就是true了</t>
+  </si>
+  <si>
+    <t>107. Binary Tree Level Order Traversal II</t>
+  </si>
+  <si>
+    <t>层序遍历, reverse(it.begin(), it.end()), 注意res.push_back({})写法; 考虑了root, 但是忘记了左右孩子; 想清楚res.size()与树高度的关系，是先有树，再有res</t>
   </si>
   <si>
     <t>++yy</t>
   </si>
   <si>
-    <t>637. Average of Levels in Binary Tree</t>
-  </si>
-  <si>
-    <t>二叉树的层序遍历layerOrder;就是一个简单的层序遍历，不必另写函数</t>
-  </si>
-  <si>
-    <t>108. Convert Sorted Array to Binary Search Tree</t>
-  </si>
-  <si>
-    <t>另写一个方法，递归方式，递归边界: end &lt;= start; 递归式: 找出中间索引，引用自身。数组的右边界为什么是nums.size(),而不是nums.size()-1</t>
-  </si>
-  <si>
-    <t>653. Two Sum IV - Input is a BST</t>
-  </si>
-  <si>
-    <t>这个题解我没有看懂</t>
-  </si>
-  <si>
-    <t>++yyy</t>
-  </si>
-  <si>
-    <t>538. Convert BST to Greater Tree</t>
-  </si>
-  <si>
-    <t>reverse in-order traversal,递减的方式排序，后边的数需要加上前面所有的数，需要新建一个全局变量sum进行记录; 注意curSum = root-&gt;val; 注意将两个return root合成一个</t>
-  </si>
-  <si>
-    <t>++?+</t>
-  </si>
-  <si>
-    <t>606. Construct String from Binary Tree</t>
-  </si>
-  <si>
-    <t>to_string();分五种情况讨论，后来其实有两种可以合为一种：根空，跟有孩子空，根有左有，根有右有，根有左右有</t>
-  </si>
-  <si>
-    <t>+++++y</t>
-  </si>
-  <si>
-    <t>530. Minimum Absolute Difference in BST</t>
-  </si>
-  <si>
-    <t>这个感觉比较难想; 另写一个helper()函数，类似in-order; 全局prev; prev-&gt;val只有在prev不为空的时候才有意义; 我又将if (prev != nullptr)写成 while(prev != nullptr)了，显示结果运行超时，最后还是利用对比工具找出来错误，不然还会以为是官方编译器出了问题</t>
-  </si>
-  <si>
-    <t>100. Same Tree</t>
-  </si>
-  <si>
-    <t>递归，先考虑根结点，然后对左右进行递归即可; 排序false情况的，然后剩下的就是true了</t>
-  </si>
-  <si>
-    <t>107. Binary Tree Level Order Traversal II</t>
-  </si>
-  <si>
-    <t>层序遍历, reverse(it.begin(), it.end()), 注意res.push_back({})写法; 考虑了root, 但是忘记了左右孩子; 想清楚res.size()与树高度的关系，是先有树，再有res</t>
+    <t>783. Minimum Distance Between BST Nodes</t>
+  </si>
+  <si>
+    <t>DFS, 不要凭印象，要有做题思维</t>
+  </si>
+  <si>
+    <t>+++</t>
+  </si>
+  <si>
+    <t>993. Cousins in Binary Tree</t>
+  </si>
+  <si>
+    <t>DFS， 考虑的东西要多一些, 完全不知道这道题的步骤是怎么写出来的</t>
+  </si>
+  <si>
+    <t>257. Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>pre-order, 其实root部分写法最重要，判断叶子结点; vector是不能使用加的, vector里边才是一个个string类型变量</t>
+  </si>
+  <si>
+    <t>y+y</t>
+  </si>
+  <si>
+    <t>404. Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>[题意]找到给定二叉树的所有左叶结点，返回其和</t>
+  </si>
+  <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>[题意]找到两个结点的挨着最近的父亲。画图，三种不同的情况，递归写出来的代码很好理解。循环结构要写好</t>
+  </si>
+  <si>
+    <t>563. Binary Tree Tilt</t>
+  </si>
+  <si>
+    <t>[题意]</t>
+  </si>
+  <si>
+    <t>543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>[题意]找到二叉树中距离最远的两个结点的距离; 这个加一是什么逻辑?; 答案中的加一可以不这样写，令ans初始为0,最后结果也是正确的</t>
   </si>
   <si>
     <t>++y</t>
   </si>
   <si>
-    <t>783. Minimum Distance Between BST Nodes</t>
-  </si>
-  <si>
-    <t>DFS, 不要凭印象，要有做题思维</t>
-  </si>
-  <si>
-    <t>+++</t>
-  </si>
-  <si>
-    <t>993. Cousins in Binary Tree</t>
-  </si>
-  <si>
-    <t>DFS， 考虑的东西要多一些, 完全不知道这道题的步骤是怎么写出来的</t>
-  </si>
-  <si>
-    <t>257. Binary Tree Paths</t>
-  </si>
-  <si>
-    <t>pre-order, 其实root部分写法最重要，判断叶子结点; vector是不能使用加的, vector里边才是一个个string类型变量</t>
-  </si>
-  <si>
-    <t>y+</t>
-  </si>
-  <si>
-    <t>404. Sum of Left Leaves</t>
-  </si>
-  <si>
-    <t>[题意]找到给定二叉树的所有左叶结点，返回其和</t>
-  </si>
-  <si>
-    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
-  </si>
-  <si>
-    <t>[题意]找到两个结点的挨着最近的父亲。画图，三种不同的情况，递归写出来的代码很好理解。循环结构要写好</t>
-  </si>
-  <si>
-    <t>563. Binary Tree Tilt</t>
-  </si>
-  <si>
-    <t>[题意]</t>
-  </si>
-  <si>
-    <t>543. Diameter of Binary Tree</t>
-  </si>
-  <si>
-    <t>[题意]找到二叉树中距离最远的两个结点的距离; 这个加一是什么逻辑?; 答案中的加一可以不这样写，令ans初始为0,最后结果也是正确的</t>
-  </si>
-  <si>
     <t>101. Symmetric Tree</t>
   </si>
   <si>
@@ -1141,7 +1202,7 @@
     <t>[题意]判断一棵树是不是另一棵树的子树。另外写两个函数，第一个函数从相等的那个结点开始对比，第二个函数看s是否包含t; 疑问：空树是任何一棵树的子树吗？</t>
   </si>
   <si>
-    <t>+y+</t>
+    <t>+y++</t>
   </si>
   <si>
     <t>1315. Sum of Nodes with Even-Valued Grandparent</t>
@@ -1150,9 +1211,6 @@
     <t>[题意]找出爷爷是偶数的结点的总和。使用dfs</t>
   </si>
   <si>
-    <t>+?+y</t>
-  </si>
-  <si>
     <t>1302. Deepest Leaves Sum</t>
   </si>
   <si>
@@ -1177,6 +1235,9 @@
     <t>[题意]找出树中结点值第二小的结点。将全部结点值放入到一个set中去，自动去除重复值，然后找到第二个值，返回即可</t>
   </si>
   <si>
+    <t>++y+y</t>
+  </si>
+  <si>
     <t>701. Insert into a Binary Search Tree</t>
   </si>
   <si>
@@ -1201,7 +1262,7 @@
     <t>[题意]根据前序遍历还原层序遍历</t>
   </si>
   <si>
-    <t>+y+yy</t>
+    <t>+y+yyy</t>
   </si>
   <si>
     <t>1305. All Elements in Two Binary Search Trees</t>
@@ -1273,6 +1334,12 @@
     <t>中根遍历迭代写法</t>
   </si>
   <si>
+    <t>236. Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>814. Binary Tree Pruning</t>
+  </si>
+  <si>
     <t>1137. N-th Tribonacci Number</t>
   </si>
   <si>
@@ -1321,6 +1388,9 @@
     <t>链表头删，链表头插</t>
   </si>
   <si>
+    <t>+++?</t>
+  </si>
+  <si>
     <t>21. Merge Two Sorted Lists</t>
   </si>
   <si>
@@ -1399,6 +1469,9 @@
     <t>24. Swap Nodes in Pairs</t>
   </si>
   <si>
+    <t>82. Remove Duplicates from Sorted List II</t>
+  </si>
+  <si>
     <t>1512. Number of Good Pairs</t>
   </si>
   <si>
@@ -1432,6 +1505,21 @@
     <t>先将A中第一个string做一个基准，然后对剩余的string进行遍历，每次遍历完一个string后，就与基准作一个对比，得到其中最少频数并更新基准，这样遍历完之后的string后，基准中那些频数大于1的字符就是这些string中共同的字符，之后输出。</t>
   </si>
   <si>
+    <t>1160. Find Words That Can Be Formed by Characters</t>
+  </si>
+  <si>
+    <t>463. Island Perimeter</t>
+  </si>
+  <si>
+    <t>136. Single Number</t>
+  </si>
+  <si>
+    <t>137. Single Number II</t>
+  </si>
+  <si>
+    <t>260. Single Number III</t>
+  </si>
+  <si>
     <t>9. Palindrome Number</t>
   </si>
   <si>
@@ -1522,6 +1610,15 @@
     <t>16. 认真写循环中的变量，写完之后检查一下，不然最后出bug，你都不会想到这些错了，会自动忽略这些你以为不会错的地方。</t>
   </si>
   <si>
+    <t>17. 对于函数返回类型为指针类型的，返回写为return nullptr;</t>
+  </si>
+  <si>
+    <t>18. 在vscode中使用leetcode插件可以刷新为更快一些。</t>
+  </si>
+  <si>
+    <t>19. if和while有时会搞错，改用while的时候用了if</t>
+  </si>
+  <si>
     <t>Tree:</t>
   </si>
   <si>
@@ -1531,6 +1628,9 @@
     <t>2. 不要总是对root这个变量名执迷不悟。</t>
   </si>
   <si>
+    <t>3. 关于求树的深度不熟练</t>
+  </si>
+  <si>
     <t>1. 进制转换是从右往左开始的。</t>
   </si>
   <si>
@@ -1540,6 +1640,9 @@
     <t>3. dummy head 虚拟头结点</t>
   </si>
   <si>
+    <t>4. 在设置了虚拟头结点之后，最后需要释放。这样: ListNode* resNode = yummy-&gt;next; delete(yummy);</t>
+  </si>
+  <si>
     <t>1. monotonic stack</t>
   </si>
   <si>
@@ -1547,6 +1650,56 @@
   </si>
   <si>
     <t>1. 数据规模</t>
+  </si>
+  <si>
+    <t>Name variables</t>
+  </si>
+  <si>
+    <t>1. stack: stk</t>
+  </si>
+  <si>
+    <t>2. return value: res</t>
+  </si>
+  <si>
+    <t>3. string: s</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 最重要的是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>递归条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>78. Subsets</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
   </si>
 </sst>
 </file>
@@ -1554,12 +1707,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1568,16 +1721,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1592,23 +1745,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1621,16 +1760,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,15 +1783,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1683,7 +1874,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1692,47 +1883,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1741,15 +1901,15 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1767,13 +1927,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,7 +1951,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1803,31 +1975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,13 +1999,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1863,7 +2029,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1881,31 +2077,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,61 +2131,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1982,21 +2142,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2015,20 +2160,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2077,8 +2219,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2087,183 +2247,186 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true">
@@ -2602,51 +2765,51 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="4" max="4" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="26.3733333333333" customWidth="true"/>
     <col min="6" max="6" width="14.2533333333333" customWidth="true"/>
     <col min="7" max="7" width="18" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -2660,14 +2823,14 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -2681,14 +2844,14 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
@@ -2702,14 +2865,14 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
@@ -2723,14 +2886,14 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
@@ -2744,7 +2907,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2754,7 +2917,7 @@
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
@@ -2765,7 +2928,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2775,7 +2938,7 @@
       <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
@@ -2789,7 +2952,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2799,7 +2962,7 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
@@ -2810,7 +2973,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2820,7 +2983,7 @@
       <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
@@ -2834,7 +2997,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2844,7 +3007,7 @@
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
@@ -2858,7 +3021,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2867,7 +3030,7 @@
       <c r="C12">
         <v>12</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="s">
@@ -2881,7 +3044,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2890,7 +3053,7 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
@@ -2904,7 +3067,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2913,7 +3076,7 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E14" t="s">
@@ -2927,7 +3090,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2936,7 +3099,7 @@
       <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
@@ -2950,7 +3113,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2959,7 +3122,7 @@
       <c r="C16">
         <v>13</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E16" t="s">
@@ -2970,7 +3133,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2979,7 +3142,7 @@
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
@@ -2993,7 +3156,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
       <c r="B18">
@@ -3002,7 +3165,7 @@
       <c r="C18">
         <v>14</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
@@ -3016,7 +3179,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
       <c r="B19">
@@ -3025,7 +3188,7 @@
       <c r="C19">
         <v>15</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
@@ -3039,7 +3202,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
       <c r="B20">
@@ -3048,7 +3211,7 @@
       <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E20" t="s">
@@ -3062,7 +3225,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="12">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
       <c r="B21">
@@ -3071,7 +3234,7 @@
       <c r="C21">
         <v>15</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="s">
@@ -3082,7 +3245,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="12">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
       <c r="B22">
@@ -3091,7 +3254,7 @@
       <c r="C22">
         <v>6</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E22" t="s">
@@ -3105,7 +3268,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="12">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
       <c r="B23">
@@ -3114,7 +3277,7 @@
       <c r="C23">
         <v>19</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E23" t="s">
@@ -3125,7 +3288,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="12">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
       <c r="B24">
@@ -3134,7 +3297,7 @@
       <c r="C24">
         <v>24</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E24" t="s">
@@ -3148,7 +3311,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="12">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
       <c r="B25">
@@ -3157,7 +3320,7 @@
       <c r="C25">
         <v>24</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E25" t="s">
@@ -3171,7 +3334,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="12">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
       <c r="F26" t="s">
@@ -3179,7 +3342,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="12">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
       <c r="F27" t="s">
@@ -3187,7 +3350,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="12">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
       <c r="F28" t="s">
@@ -3195,7 +3358,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="12">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
       <c r="F29" t="s">
@@ -3203,7 +3366,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="12">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
       <c r="F30" t="s">
@@ -3211,7 +3374,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="12">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
       <c r="F31" t="s">
@@ -3219,7 +3382,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="12">
+      <c r="A32" s="13">
         <v>31</v>
       </c>
       <c r="F32" t="s">
@@ -3227,7 +3390,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="12">
+      <c r="A33" s="13">
         <v>32</v>
       </c>
       <c r="F33" t="s">
@@ -3235,57 +3398,57 @@
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="12">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="12">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="12">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="12">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="12">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="12">
+      <c r="A39" s="13">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="12">
+      <c r="A40" s="13">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="12">
+      <c r="A41" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="12">
+      <c r="A42" s="13">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="12">
+      <c r="A43" s="13">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="12">
+      <c r="A44" s="13">
         <v>43</v>
       </c>
     </row>
@@ -3304,35 +3467,35 @@
     <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="10" max="10" width="7.4" style="6" customWidth="true"/>
+    <col min="10" max="10" width="7.4" style="8" customWidth="true"/>
     <col min="11" max="11" width="23.1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="7:13">
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3346,14 +3509,14 @@
       <c r="I2">
         <v>6</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>40</v>
+      <c r="J2" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="K2" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="L2" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="7:12">
@@ -3367,14 +3530,14 @@
       <c r="I3">
         <v>17</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="8" t="s">
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L3" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="7:12">
@@ -3388,14 +3551,14 @@
       <c r="I4">
         <v>24</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="8" t="s">
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L4" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="7:12">
@@ -3404,7 +3567,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="7:12">
@@ -3413,7 +3576,7 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="7:12">
@@ -3422,7 +3585,7 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="7:12">
@@ -3431,7 +3594,7 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="7:12">
@@ -3440,7 +3603,7 @@
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="7:12">
@@ -3449,7 +3612,7 @@
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="7:12">
@@ -3458,7 +3621,7 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="7:12">
@@ -3467,7 +3630,7 @@
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="7:12">
@@ -3476,7 +3639,7 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="7:12">
@@ -3485,7 +3648,7 @@
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="7:12">
@@ -3494,7 +3657,7 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="7:12">
@@ -3503,7 +3666,7 @@
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="7:12">
@@ -3512,7 +3675,7 @@
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="7:12">
@@ -3521,7 +3684,7 @@
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="7:12">
@@ -3530,7 +3693,7 @@
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="7:12">
@@ -3539,7 +3702,7 @@
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="7:12">
@@ -3548,7 +3711,7 @@
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="7:12">
@@ -3557,7 +3720,7 @@
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="7:12">
@@ -3566,7 +3729,7 @@
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="7:12">
@@ -3575,7 +3738,7 @@
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="7:12">
@@ -3584,7 +3747,7 @@
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="7:12">
@@ -3593,7 +3756,7 @@
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="7:12">
@@ -3602,7 +3765,7 @@
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="7:12">
@@ -3611,7 +3774,7 @@
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="7:12">
@@ -3620,7 +3783,7 @@
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="7:12">
@@ -3629,7 +3792,7 @@
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="7:12">
@@ -3638,7 +3801,7 @@
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="7:12">
@@ -3647,7 +3810,7 @@
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="7:12">
@@ -3656,7 +3819,7 @@
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="7:12">
@@ -3665,7 +3828,7 @@
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="7:12">
@@ -3674,7 +3837,7 @@
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="7:12">
@@ -3683,7 +3846,7 @@
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="7:12">
@@ -3692,7 +3855,7 @@
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3733,25 +3896,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3769,13 +3932,13 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3784,7 +3947,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3793,7 +3956,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3802,7 +3965,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3811,7 +3974,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3820,7 +3983,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3829,7 +3992,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3838,7 +4001,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3847,7 +4010,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3856,7 +4019,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3865,7 +4028,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3874,7 +4037,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3883,7 +4046,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3892,7 +4055,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3901,7 +4064,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3910,7 +4073,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3919,7 +4082,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3928,7 +4091,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3937,7 +4100,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3946,7 +4109,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3955,7 +4118,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3964,7 +4127,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3973,7 +4136,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3982,7 +4145,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3991,7 +4154,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4000,7 +4163,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4009,7 +4172,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4018,7 +4181,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4027,7 +4190,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4036,7 +4199,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4045,7 +4208,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4054,7 +4217,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4070,31 +4233,31 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4112,10 +4275,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4124,7 +4287,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4323,175 +4486,622 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>266</v>
+      <c r="A20" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>269</v>
-      </c>
-      <c r="B23" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>283</v>
+      <c r="A37" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>287</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
+      <c r="A47" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="5" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>291</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="5" width="8.8" style="1"/>
+    <col min="6" max="6" width="13" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <f t="shared" ref="A4:A40" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4502,7 +5112,7 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -4512,25 +5122,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4943,35 +5553,35 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="8.8" style="6"/>
+    <col min="4" max="4" width="8.8" style="8"/>
     <col min="5" max="5" width="29.4" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4985,8 +5595,8 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>40</v>
+      <c r="D2" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>66</v>
@@ -5010,8 +5620,8 @@
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>40</v>
+      <c r="D3" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -5035,8 +5645,8 @@
       <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>40</v>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
@@ -5060,8 +5670,8 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>40</v>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>73</v>
@@ -5085,8 +5695,8 @@
       <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>40</v>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>75</v>
@@ -5832,25 +6442,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6224,45 +6834,45 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="4" max="4" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="50" customWidth="true"/>
     <col min="6" max="6" width="4.9" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2">
@@ -6271,7 +6881,7 @@
       <c r="C2">
         <v>17</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E2" t="s">
@@ -6285,7 +6895,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <f>A2+1</f>
         <v>2</v>
       </c>
@@ -6295,10 +6905,10 @@
       <c r="C3">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>83</v>
       </c>
       <c r="F3" t="s">
@@ -6309,7 +6919,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <f t="shared" ref="A4:A42" si="0">A3+1</f>
         <v>3</v>
       </c>
@@ -6319,7 +6929,7 @@
       <c r="C4">
         <v>18</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E4" t="s">
@@ -6330,7 +6940,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -6340,7 +6950,7 @@
       <c r="C5">
         <v>18</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E5" t="s">
@@ -6354,7 +6964,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -6364,7 +6974,7 @@
       <c r="C6">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E6" t="s">
@@ -6378,7 +6988,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -6388,7 +6998,7 @@
       <c r="C7">
         <v>19</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E7" t="s">
@@ -6402,7 +7012,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -6412,7 +7022,7 @@
       <c r="C8">
         <v>23</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E8" t="s">
@@ -6426,7 +7036,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -6436,21 +7046,21 @@
       <c r="C9">
         <v>23</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
         <v>99</v>
-      </c>
-      <c r="E9" t="s">
-        <v>100</v>
       </c>
       <c r="F9" t="s">
         <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -6460,21 +7070,21 @@
       <c r="C10">
         <v>23</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -6484,21 +7094,21 @@
       <c r="C11">
         <v>23</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
         <v>105</v>
-      </c>
-      <c r="E11" t="s">
-        <v>106</v>
       </c>
       <c r="F11" t="s">
         <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -6508,21 +7118,21 @@
       <c r="C12">
         <v>23</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -6532,21 +7142,21 @@
       <c r="C13">
         <v>23</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -6556,21 +7166,21 @@
       <c r="C14">
         <v>23</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
         <v>112</v>
-      </c>
-      <c r="E14" t="s">
-        <v>113</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -6580,21 +7190,21 @@
       <c r="C15">
         <v>24</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
         <v>115</v>
-      </c>
-      <c r="E15" t="s">
-        <v>116</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -6604,8 +7214,8 @@
       <c r="C16">
         <v>24</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>78</v>
+      <c r="D16" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="E16" t="s">
         <v>118</v>
@@ -6618,7 +7228,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -6628,10 +7238,10 @@
       <c r="C17">
         <v>24</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="14" t="s">
         <v>120</v>
       </c>
       <c r="F17" t="s">
@@ -6642,7 +7252,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -6652,7 +7262,7 @@
       <c r="C18">
         <v>25</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E18" t="s">
@@ -6666,7 +7276,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -6676,7 +7286,7 @@
       <c r="C19">
         <v>25</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E19" t="s">
@@ -6690,7 +7300,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -6700,7 +7310,7 @@
       <c r="C20">
         <v>25</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E20" t="s">
@@ -6714,7 +7324,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="12">
+      <c r="A21" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -6724,8 +7334,8 @@
       <c r="C21">
         <v>26</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>122</v>
+      <c r="D21" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="E21" t="s">
         <v>131</v>
@@ -6738,7 +7348,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="12">
+      <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -6748,8 +7358,8 @@
       <c r="C22">
         <v>26</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>115</v>
+      <c r="D22" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E22" t="s">
         <v>133</v>
@@ -6762,7 +7372,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="12">
+      <c r="A23" s="13">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -6772,7 +7382,7 @@
       <c r="C23">
         <v>28</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E23" t="s">
@@ -6786,7 +7396,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="12">
+      <c r="A24" s="13">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -6796,10 +7406,10 @@
       <c r="C24">
         <v>28</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="14" t="s">
         <v>139</v>
       </c>
       <c r="F24" t="s">
@@ -6810,7 +7420,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="12">
+      <c r="A25" s="13">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -6820,7 +7430,7 @@
       <c r="C25">
         <v>30</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E25" t="s">
@@ -6834,7 +7444,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="12">
+      <c r="A26" s="13">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -6844,7 +7454,7 @@
       <c r="C26">
         <v>30</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E26" t="s">
@@ -6858,7 +7468,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="12">
+      <c r="A27" s="13">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -6868,8 +7478,8 @@
       <c r="C27">
         <v>30</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>30</v>
+      <c r="D27" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="E27" t="s">
         <v>146</v>
@@ -6882,7 +7492,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="12">
+      <c r="A28" s="13">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -6892,10 +7502,10 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="15" t="s">
         <v>148</v>
       </c>
       <c r="F28" t="s">
@@ -6906,7 +7516,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="12">
+      <c r="A29" s="13">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -6916,7 +7526,7 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E29" t="s">
@@ -6930,7 +7540,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="12">
+      <c r="A30" s="13">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -6940,21 +7550,21 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>135</v>
+      <c r="D30" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
         <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="12">
+      <c r="A31" s="13">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -6964,21 +7574,21 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F31" t="s">
         <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="12">
+      <c r="A32" s="13">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -6988,21 +7598,21 @@
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>156</v>
+      <c r="D32" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
         <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="12">
+      <c r="A33" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -7012,8 +7622,8 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>159</v>
+      <c r="D33" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="E33" t="s">
         <v>160</v>
@@ -7026,7 +7636,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="12">
+      <c r="A34" s="13">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -7036,7 +7646,7 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E34" t="s">
@@ -7047,7 +7657,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="12">
+      <c r="A35" s="13">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -7058,7 +7668,7 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="1" t="s">
         <v>163</v>
       </c>
       <c r="E35" t="s">
@@ -7072,7 +7682,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="12">
+      <c r="A36" s="13">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -7082,8 +7692,8 @@
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>135</v>
+      <c r="D36" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E36" t="s">
         <v>166</v>
@@ -7096,7 +7706,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="12">
+      <c r="A37" s="13">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -7106,21 +7716,21 @@
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>135</v>
+      <c r="D37" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="E37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F37" t="s">
         <v>80</v>
       </c>
       <c r="G37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="12">
+      <c r="A38" s="13">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -7130,21 +7740,21 @@
       <c r="C38">
         <v>4</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>105</v>
+      <c r="D38" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F38" t="s">
         <v>80</v>
       </c>
       <c r="G38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="12">
+      <c r="A39" s="13">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -7154,21 +7764,21 @@
       <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F39" t="s">
         <v>80</v>
       </c>
       <c r="G39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="12">
+      <c r="A40" s="13">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -7178,21 +7788,21 @@
       <c r="C40">
         <v>6</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>174</v>
+      <c r="E40" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="F40" t="s">
         <v>80</v>
       </c>
       <c r="G40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="12">
+      <c r="A41" s="13">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -7203,21 +7813,21 @@
       <c r="C41">
         <v>6</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>176</v>
+      <c r="D41" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F41" t="s">
         <v>80</v>
       </c>
       <c r="G41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="12">
+      <c r="A42" s="13">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -7228,21 +7838,21 @@
       <c r="C42">
         <v>6</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>179</v>
+      <c r="E42" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="F42" t="s">
         <v>80</v>
       </c>
       <c r="G42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="12">
+      <c r="A43" s="13">
         <f t="shared" ref="A43:A79" si="2">A42+1</f>
         <v>42</v>
       </c>
@@ -7253,21 +7863,21 @@
       <c r="C43">
         <v>6</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>40</v>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F43" t="s">
         <v>80</v>
       </c>
       <c r="G43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="12">
+      <c r="A44" s="13">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
@@ -7275,17 +7885,20 @@
         <v>8</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F44" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="12">
+      <c r="A45" s="13">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
@@ -7295,21 +7908,21 @@
       <c r="C45">
         <v>14</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>40</v>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F45" t="s">
         <v>80</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="12">
+      <c r="A46" s="13">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
@@ -7319,21 +7932,21 @@
       <c r="C46">
         <v>14</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>40</v>
+      <c r="D46" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F46" t="s">
         <v>80</v>
       </c>
       <c r="G46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="12">
+      <c r="A47" s="13">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
@@ -7343,21 +7956,21 @@
       <c r="C47">
         <v>15</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F47" t="s">
         <v>80</v>
       </c>
       <c r="G47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="12">
+      <c r="A48" s="13">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
@@ -7367,21 +7980,21 @@
       <c r="C48">
         <v>16</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F48" t="s">
         <v>80</v>
       </c>
       <c r="G48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="12">
+      <c r="A49" s="13">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -7391,21 +8004,21 @@
       <c r="C49">
         <v>16</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F49" t="s">
         <v>80</v>
       </c>
       <c r="G49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="12">
+      <c r="A50" s="13">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
@@ -7415,21 +8028,21 @@
       <c r="C50">
         <v>18</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F50" t="s">
         <v>80</v>
       </c>
       <c r="G50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="12">
+      <c r="A51" s="13">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
@@ -7439,21 +8052,21 @@
       <c r="C51">
         <v>20</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F51" t="s">
         <v>80</v>
       </c>
       <c r="G51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="12">
+      <c r="A52" s="13">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
@@ -7463,39 +8076,63 @@
       <c r="C52">
         <v>20</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F52" t="s">
         <v>80</v>
       </c>
       <c r="G52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="12">
+      <c r="A53" s="13">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>25</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" t="s">
+        <v>201</v>
+      </c>
       <c r="F53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="12">
+      <c r="A54" s="13">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>29</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" t="s">
+        <v>202</v>
+      </c>
       <c r="F54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="12">
+      <c r="A55" s="13">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
@@ -7504,7 +8141,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="12">
+      <c r="A56" s="13">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
@@ -7513,7 +8150,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="12">
+      <c r="A57" s="13">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
@@ -7522,7 +8159,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="12">
+      <c r="A58" s="13">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
@@ -7531,7 +8168,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="12">
+      <c r="A59" s="13">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
@@ -7540,7 +8177,7 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="12">
+      <c r="A60" s="13">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
@@ -7549,7 +8186,7 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="12">
+      <c r="A61" s="13">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
@@ -7558,7 +8195,7 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="12">
+      <c r="A62" s="13">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
@@ -7567,7 +8204,7 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="12">
+      <c r="A63" s="13">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
@@ -7576,7 +8213,7 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="12">
+      <c r="A64" s="13">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
@@ -7585,7 +8222,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="12">
+      <c r="A65" s="13">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
@@ -7594,7 +8231,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="12">
+      <c r="A66" s="13">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
@@ -7603,7 +8240,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="12">
+      <c r="A67" s="13">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
@@ -7612,7 +8249,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="12">
+      <c r="A68" s="13">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
@@ -7621,7 +8258,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="12">
+      <c r="A69" s="13">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
@@ -7630,7 +8267,7 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="12">
+      <c r="A70" s="13">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
@@ -7639,7 +8276,7 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="12">
+      <c r="A71" s="13">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
@@ -7648,7 +8285,7 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="12">
+      <c r="A72" s="13">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
@@ -7657,7 +8294,7 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="12">
+      <c r="A73" s="13">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
@@ -7666,7 +8303,7 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="12">
+      <c r="A74" s="13">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
@@ -7675,7 +8312,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="12">
+      <c r="A75" s="13">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
@@ -7684,7 +8321,7 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="12">
+      <c r="A76" s="13">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
@@ -7693,7 +8330,7 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="12">
+      <c r="A77" s="13">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
@@ -7702,7 +8339,7 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="12">
+      <c r="A78" s="13">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
@@ -7711,7 +8348,7 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="12">
+      <c r="A79" s="13">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
@@ -7736,34 +8373,35 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
+    <col min="4" max="4" width="8.8" style="1"/>
     <col min="5" max="5" width="19.6" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7777,17 +8415,17 @@
       <c r="C2">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
+      <c r="D2" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7801,14 +8439,14 @@
       <c r="C3">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
+      <c r="D3" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7822,17 +8460,17 @@
       <c r="C4">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" t="s">
         <v>204</v>
       </c>
-      <c r="F4" t="s">
-        <v>201</v>
-      </c>
       <c r="G4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7846,17 +8484,17 @@
       <c r="C5">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7871,10 +8509,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7889,7 +8527,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7904,7 +8542,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7913,7 +8551,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7922,7 +8560,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7931,7 +8569,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7940,7 +8578,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7949,7 +8587,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -7969,36 +8607,36 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="9" style="8"/>
-    <col min="5" max="5" width="20.1266666666667" style="9" customWidth="true"/>
+    <col min="4" max="4" width="9" style="10"/>
+    <col min="5" max="5" width="20.1266666666667" style="1" customWidth="true"/>
     <col min="6" max="6" width="12.1266666666667" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8012,17 +8650,17 @@
       <c r="C2">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>208</v>
+      <c r="D2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8036,17 +8674,17 @@
       <c r="C3">
         <v>23</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" t="s">
         <v>212</v>
       </c>
-      <c r="F3" t="s">
-        <v>209</v>
-      </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8060,17 +8698,17 @@
       <c r="C4">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>214</v>
+      <c r="D4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8084,17 +8722,17 @@
       <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>216</v>
+      <c r="D5" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8108,17 +8746,17 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>218</v>
+      <c r="E6" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8132,17 +8770,17 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>220</v>
+      <c r="E7" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8156,17 +8794,17 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>222</v>
+      <c r="D8" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8180,17 +8818,17 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>224</v>
+      <c r="D9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="F9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G9" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8204,17 +8842,17 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>226</v>
+      <c r="D10" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="F10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8228,17 +8866,17 @@
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>228</v>
+      <c r="E11" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="F11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8252,17 +8890,17 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>230</v>
+      <c r="D12" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="F12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8276,14 +8914,14 @@
       <c r="C13">
         <v>8</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>232</v>
+      <c r="E13" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="F13" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8298,17 +8936,17 @@
       <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>233</v>
+      <c r="E14" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="F14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G14" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8323,17 +8961,17 @@
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>235</v>
+      <c r="E15" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="F15" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G15" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8348,14 +8986,14 @@
       <c r="C16">
         <v>17</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>237</v>
+      <c r="E16" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="F16" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8370,17 +9008,17 @@
       <c r="C17">
         <v>19</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>238</v>
+      <c r="E17" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="F17" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G17" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8395,14 +9033,14 @@
       <c r="C18">
         <v>19</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>240</v>
+      <c r="E18" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="F18" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8417,11 +9055,14 @@
       <c r="C19">
         <v>19</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>241</v>
+      <c r="D19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8433,8 +9074,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8447,7 +9097,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8460,7 +9110,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8473,7 +9123,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8486,7 +9136,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8499,7 +9149,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8512,7 +9162,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -8525,7 +9175,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8538,7 +9188,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8551,7 +9201,7 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -8564,7 +9214,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8577,7 +9227,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -8590,7 +9240,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -8603,7 +9253,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -8616,7 +9266,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -8629,7 +9279,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8697,7 +9347,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -8706,25 +9356,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8742,10 +9392,10 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8763,10 +9413,10 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8784,13 +9434,13 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8808,10 +9458,10 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8829,13 +9479,13 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" t="s">
         <v>248</v>
       </c>
-      <c r="F6" t="s">
-        <v>243</v>
-      </c>
       <c r="G6" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8853,13 +9503,13 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8880,10 +9530,10 @@
         <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G8" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8891,8 +9541,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>258</v>
+      </c>
       <c r="F9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8900,8 +9562,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>259</v>
+      </c>
       <c r="F10" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8909,8 +9583,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>260</v>
+      </c>
       <c r="F11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8918,8 +9604,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>261</v>
+      </c>
       <c r="F12" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8927,8 +9625,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>262</v>
+      </c>
       <c r="F13" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8936,8 +9646,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
       <c r="F14" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8946,7 +9662,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8955,7 +9671,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8964,7 +9680,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8973,7 +9689,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8982,7 +9698,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8991,7 +9707,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -9000,7 +9716,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -9009,7 +9725,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -9018,7 +9734,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -9027,7 +9743,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -9036,7 +9752,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -9045,7 +9761,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -9054,7 +9770,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -9063,7 +9779,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9072,7 +9788,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -9081,7 +9797,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9090,7 +9806,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -9099,7 +9815,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -9108,7 +9824,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -9117,7 +9833,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -9126,7 +9842,7 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -9135,7 +9851,7 @@
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -9144,7 +9860,7 @@
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -9153,7 +9869,7 @@
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -9162,7 +9878,7 @@
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:1">

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27975" windowHeight="12585" tabRatio="806" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="27975" windowHeight="12585" tabRatio="806"/>
   </bookViews>
   <sheets>
     <sheet name="Array(basic)" sheetId="1" r:id="rId1"/>
@@ -729,7 +729,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="332">
   <si>
     <t>No.</t>
   </si>
@@ -752,7 +752,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>??y</t>
+    <t>??yy</t>
   </si>
   <si>
     <t>1480. Running Sum of 1d Array</t>
@@ -764,111 +764,126 @@
     <t>from end to start, 注意i的自增，总是忘掉</t>
   </si>
   <si>
+    <t>+yy</t>
+  </si>
+  <si>
+    <t>1470. Shuffle the Array</t>
+  </si>
+  <si>
+    <t>vector.push_back()</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>1351. Count Negative Numbers in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>没有使用二分法，明早起来使用二分法做一下</t>
+  </si>
+  <si>
+    <t>1313. Decompress Run-Length Encoded List</t>
+  </si>
+  <si>
+    <t>?yy</t>
+  </si>
+  <si>
+    <t>1389. Create Target Array in the Given Order</t>
+  </si>
+  <si>
+    <t>细心，容易将数组中的值弄混, 注意vector.insert(it, value)用法</t>
+  </si>
+  <si>
+    <t>yyy</t>
+  </si>
+  <si>
+    <t>1295. Find Numbers with Even Number of Digits</t>
+  </si>
+  <si>
+    <t>1450. Number of Students Doing Homework at a Given Time</t>
+  </si>
+  <si>
+    <t>very easy</t>
+  </si>
+  <si>
+    <t>1464. Maximum Product of Two Elements in an Array</t>
+  </si>
+  <si>
+    <t>1502. Can Make Arithmetic Progression From Sequence</t>
+  </si>
+  <si>
+    <t>注意相邻两个元素是如何在数组中进行循环的，不需要两层循环,注意i和i-1的关系</t>
+  </si>
+  <si>
+    <t>1299. Replace Elements with Greatest Element on Right Side</t>
+  </si>
+  <si>
+    <t>c++ max()函数应用，从右向左的思想</t>
+  </si>
+  <si>
+    <t>+++</t>
+  </si>
+  <si>
+    <t>1304. Find N Unique Integers Sum up to Zero</t>
+  </si>
+  <si>
+    <t>不用在意数组顺序，最终数组中元素相加为0就行; vector.push_back(); 针对奇数多个情况，其他一样</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>832. Flipping an Image</t>
+  </si>
+  <si>
+    <t>c++ #include &lt;algorithm&gt; reverse(arr.begin(), arr.end()); 异或运算^，效率更高</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>1475. Final Prices With a Special Discount in a Shop</t>
+  </si>
+  <si>
+    <t>粗心，没有考虑prices[i]可以等于prices[j]的情况; 还是那句话，把题读好，题目中有条件, 注意等号的成立</t>
+  </si>
+  <si>
+    <t>977. Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t>讨论区有更好的解，但是我没有看懂</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>561. Array Partition I</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>1380. Lucky Numbers in a Matrix</t>
+  </si>
+  <si>
+    <t>c++ unordered_set定义, 常量INT_MAX和INT_MIN; unordered_set::find(); unorder_set::insert(element)</t>
+  </si>
+  <si>
+    <t>?y</t>
+  </si>
+  <si>
+    <t>1491. Average Salary Excluding the Minimum and Maximum Salary</t>
+  </si>
+  <si>
+    <t>注意数组的索引情况，本题并不难，但是确实花了较长时间; 注意在优先级不确定情况下添加括号，防止意外情况;注意结果的类型，别总是取int类型，看看题</t>
+  </si>
+  <si>
     <t>+y</t>
   </si>
   <si>
-    <t>1470. Shuffle the Array</t>
-  </si>
-  <si>
-    <t>vector.push_back()</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>1351. Count Negative Numbers in a Sorted Matrix</t>
-  </si>
-  <si>
-    <t>Binary Search</t>
-  </si>
-  <si>
-    <t>没有使用二分法，明早起来使用二分法做一下</t>
-  </si>
-  <si>
-    <t>1313. Decompress Run-Length Encoded List</t>
-  </si>
-  <si>
-    <t>?y</t>
-  </si>
-  <si>
-    <t>1389. Create Target Array in the Given Order</t>
-  </si>
-  <si>
-    <t>细心，容易将数组中的值弄混, 注意vector.insert(it, value)用法</t>
-  </si>
-  <si>
-    <t>1295. Find Numbers with Even Number of Digits</t>
-  </si>
-  <si>
-    <t>1450. Number of Students Doing Homework at a Given Time</t>
-  </si>
-  <si>
-    <t>very easy</t>
-  </si>
-  <si>
-    <t>1464. Maximum Product of Two Elements in an Array</t>
-  </si>
-  <si>
-    <t>1502. Can Make Arithmetic Progression From Sequence</t>
-  </si>
-  <si>
-    <t>注意相邻两个元素是如何在数组中进行循环的，不需要两层循环,注意i和i-1的关系</t>
-  </si>
-  <si>
-    <t>1299. Replace Elements with Greatest Element on Right Side</t>
-  </si>
-  <si>
-    <t>c++ max()函数应用，从右向左的思想</t>
-  </si>
-  <si>
-    <t>++</t>
-  </si>
-  <si>
-    <t>1304. Find N Unique Integers Sum up to Zero</t>
-  </si>
-  <si>
-    <t>不用在意数组顺序，最终数组中元素相加为0就行; vector.push_back(); 针对奇数多个情况，其他一样</t>
-  </si>
-  <si>
-    <t>832. Flipping an Image</t>
-  </si>
-  <si>
-    <t>c++ #include &lt;algorithm&gt; reverse(arr.begin(), arr.end()); 异或运算^，效率更高</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>1475. Final Prices With a Special Discount in a Shop</t>
-  </si>
-  <si>
-    <t>粗心，没有考虑prices[i]可以等于prices[j]的情况; 还是那句话，把题读好，题目中有条件, 注意等号的成立</t>
-  </si>
-  <si>
-    <t>977. Squares of a Sorted Array</t>
-  </si>
-  <si>
-    <t>讨论区有更好的解，但是我没有看懂</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>561. Array Partition I</t>
-  </si>
-  <si>
-    <t>1380. Lucky Numbers in a Matrix</t>
-  </si>
-  <si>
-    <t>c++ unordered_set定义, 常量INT_MAX和INT_MIN; unordered_set::find(); unorder_set::insert(element)</t>
-  </si>
-  <si>
-    <t>1491. Average Salary Excluding the Minimum and Maximum Salary</t>
-  </si>
-  <si>
-    <t>注意数组的索引情况，本题并不难，但是确实花了较长时间; 注意在优先级不确定情况下添加括号，防止意外情况;注意结果的类型，别总是取int类型，看看题</t>
-  </si>
-  <si>
     <t>1051. Height Checker</t>
   </si>
   <si>
@@ -908,6 +923,12 @@
     <t>进制取余和得到商这些个步骤很麻烦</t>
   </si>
   <si>
+    <t>1200. Minimum Absolute Difference</t>
+  </si>
+  <si>
+    <t>283. Move Zeroes</t>
+  </si>
+  <si>
     <t>344. Reverse String</t>
   </si>
   <si>
@@ -938,12 +959,18 @@
     <t>[题意]返回栈中元素的推入、推出的步骤。</t>
   </si>
   <si>
+    <t>++y</t>
+  </si>
+  <si>
     <t>1047. Remove All Adjacent Duplicates In String</t>
   </si>
   <si>
     <t>[题意]删除在string中所有相邻为相同字符的字母，返回最后的结果。string也是可以使用reverse()的。</t>
   </si>
   <si>
+    <t>+++y</t>
+  </si>
+  <si>
     <t>1209. Remove All Adjacent Duplicates in String II</t>
   </si>
   <si>
@@ -986,7 +1013,7 @@
     <t>使用递归; 函数是否有返回值;判空之后在进行递归的书写; 递归边界、递归式;纸笔模拟</t>
   </si>
   <si>
-    <t>+yyy</t>
+    <t>+yyyy</t>
   </si>
   <si>
     <t>700. Search in a Binary Search Tree</t>
@@ -1010,42 +1037,42 @@
     <t>因为会做上一题，知道的怎么写，这一题写着很快; children first, and then push back the root-&gt;val</t>
   </si>
   <si>
+    <t>+++yyy</t>
+  </si>
+  <si>
+    <t>897. Increasing Order Search Tree</t>
+  </si>
+  <si>
+    <t>可以打印出类似的结果，但是不知道如何以树的形式返回。</t>
+  </si>
+  <si>
+    <t>+y+yy</t>
+  </si>
+  <si>
+    <t>559. Maximum Depth of N-ary Tree</t>
+  </si>
+  <si>
+    <t>递归：靠着一个个的1积累;总是感觉使用迭代做树很难。递归写起来非常简洁</t>
+  </si>
+  <si>
+    <t>965. Univalued Binary Tree</t>
+  </si>
+  <si>
+    <t>pre-order,需要将res进行初始化</t>
+  </si>
+  <si>
+    <t>++++</t>
+  </si>
+  <si>
+    <t>1022. Sum of Root To Leaf Binary Numbers</t>
+  </si>
+  <si>
+    <t>helper()函数里边逻辑，这里不好描述</t>
+  </si>
+  <si>
     <t>+++yy</t>
   </si>
   <si>
-    <t>897. Increasing Order Search Tree</t>
-  </si>
-  <si>
-    <t>可以打印出类似的结果，但是不知道如何以树的形式返回。</t>
-  </si>
-  <si>
-    <t>+y+yy</t>
-  </si>
-  <si>
-    <t>559. Maximum Depth of N-ary Tree</t>
-  </si>
-  <si>
-    <t>递归：靠着一个个的1积累;总是感觉使用迭代做树很难。递归写起来非常简洁</t>
-  </si>
-  <si>
-    <t>965. Univalued Binary Tree</t>
-  </si>
-  <si>
-    <t>pre-order,需要将res进行初始化</t>
-  </si>
-  <si>
-    <t>++++</t>
-  </si>
-  <si>
-    <t>1022. Sum of Root To Leaf Binary Numbers</t>
-  </si>
-  <si>
-    <t>helper()函数里边逻辑，这里不好描述</t>
-  </si>
-  <si>
-    <t>+++y</t>
-  </si>
-  <si>
     <t>104. Maximum Depth of Binary Tree</t>
   </si>
   <si>
@@ -1082,135 +1109,135 @@
     <t>二叉树的层序遍历layerOrder;就是一个简单的层序遍历，不必另写函数</t>
   </si>
   <si>
+    <t>+?+yyyy</t>
+  </si>
+  <si>
+    <t>108. Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>另写一个方法，递归方式，递归边界: end &lt;= start; 递归式: 找出中间索引，引用自身。数组的右边界为什么是nums.size(),而不是nums.size()-1</t>
+  </si>
+  <si>
+    <t>653. Two Sum IV - Input is a BST</t>
+  </si>
+  <si>
+    <t>这个题解我没有看懂</t>
+  </si>
+  <si>
+    <t>538. Convert BST to Greater Tree</t>
+  </si>
+  <si>
+    <t>reverse in-order traversal,递减的方式排序，后边的数需要加上前面所有的数，需要新建一个全局变量sum进行记录; 注意curSum = root-&gt;val; 注意将两个return root合成一个</t>
+  </si>
+  <si>
+    <t>++?++</t>
+  </si>
+  <si>
+    <t>606. Construct String from Binary Tree</t>
+  </si>
+  <si>
+    <t>to_string();分五种情况讨论，后来其实有两种可以合为一种：根空，跟有孩子空，根有左有，根有右有，根有左右有</t>
+  </si>
+  <si>
+    <t>+++++yy</t>
+  </si>
+  <si>
+    <t>530. Minimum Absolute Difference in BST</t>
+  </si>
+  <si>
+    <t>这个感觉比较难想; 另写一个helper()函数，类似in-order; 全局prev; prev-&gt;val只有在prev不为空的时候才有意义; 我又将if (prev != nullptr)写成 while(prev != nullptr)了，显示结果运行超时，最后还是利用对比工具找出来错误，不然还会以为是官方编译器出了问题</t>
+  </si>
+  <si>
+    <t>100. Same Tree</t>
+  </si>
+  <si>
+    <t>递归，先考虑根结点，然后对左右进行递归即可; 排序false情况的，然后剩下的就是true了</t>
+  </si>
+  <si>
+    <t>++yyy</t>
+  </si>
+  <si>
+    <t>107. Binary Tree Level Order Traversal II</t>
+  </si>
+  <si>
+    <t>层序遍历, reverse(it.begin(), it.end()), 注意res.push_back({})写法; 考虑了root, 但是忘记了左右孩子; 想清楚res.size()与树高度的关系，是先有树，再有res</t>
+  </si>
+  <si>
+    <t>++yy</t>
+  </si>
+  <si>
+    <t>783. Minimum Distance Between BST Nodes</t>
+  </si>
+  <si>
+    <t>DFS, 不要凭印象，要有做题思维</t>
+  </si>
+  <si>
+    <t>993. Cousins in Binary Tree</t>
+  </si>
+  <si>
+    <t>DFS， 考虑的东西要多一些, 完全不知道这道题的步骤是怎么写出来的</t>
+  </si>
+  <si>
+    <t>257. Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>pre-order, 其实root部分写法最重要，判断叶子结点; vector是不能使用加的, vector里边才是一个个string类型变量</t>
+  </si>
+  <si>
+    <t>y+y</t>
+  </si>
+  <si>
+    <t>404. Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>[题意]找到给定二叉树的所有左叶结点，返回其和</t>
+  </si>
+  <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>[题意]找到两个结点的挨着最近的父亲。画图，三种不同的情况，递归写出来的代码很好理解。循环结构要写好</t>
+  </si>
+  <si>
+    <t>563. Binary Tree Tilt</t>
+  </si>
+  <si>
+    <t>[题意]</t>
+  </si>
+  <si>
+    <t>++++y</t>
+  </si>
+  <si>
+    <t>543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>[题意]找到二叉树中距离最远的两个结点的距离; 这个加一是什么逻辑?; 答案中的加一可以不这样写，令ans初始为0,最后结果也是正确的</t>
+  </si>
+  <si>
+    <t>101. Symmetric Tree</t>
+  </si>
+  <si>
+    <t>[题意]看二叉树是不是对称二叉树。想好条件的是与非,拿另一棵相同的树与这棵树进行对比</t>
+  </si>
+  <si>
+    <t>572. Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>[题意]判断一棵树是不是另一棵树的子树。另外写两个函数，第一个函数从相等的那个结点开始对比，第二个函数看s是否包含t; 疑问：空树是任何一棵树的子树吗？</t>
+  </si>
+  <si>
+    <t>+y++yy</t>
+  </si>
+  <si>
+    <t>1315. Sum of Nodes with Even-Valued Grandparent</t>
+  </si>
+  <si>
+    <t>[题意]找出爷爷是偶数的结点的总和。使用dfs</t>
+  </si>
+  <si>
     <t>+?+yy</t>
   </si>
   <si>
-    <t>108. Convert Sorted Array to Binary Search Tree</t>
-  </si>
-  <si>
-    <t>另写一个方法，递归方式，递归边界: end &lt;= start; 递归式: 找出中间索引，引用自身。数组的右边界为什么是nums.size(),而不是nums.size()-1</t>
-  </si>
-  <si>
-    <t>653. Two Sum IV - Input is a BST</t>
-  </si>
-  <si>
-    <t>这个题解我没有看懂</t>
-  </si>
-  <si>
-    <t>++yyy</t>
-  </si>
-  <si>
-    <t>538. Convert BST to Greater Tree</t>
-  </si>
-  <si>
-    <t>reverse in-order traversal,递减的方式排序，后边的数需要加上前面所有的数，需要新建一个全局变量sum进行记录; 注意curSum = root-&gt;val; 注意将两个return root合成一个</t>
-  </si>
-  <si>
-    <t>++?++</t>
-  </si>
-  <si>
-    <t>606. Construct String from Binary Tree</t>
-  </si>
-  <si>
-    <t>to_string();分五种情况讨论，后来其实有两种可以合为一种：根空，跟有孩子空，根有左有，根有右有，根有左右有</t>
-  </si>
-  <si>
-    <t>+++++yy</t>
-  </si>
-  <si>
-    <t>530. Minimum Absolute Difference in BST</t>
-  </si>
-  <si>
-    <t>这个感觉比较难想; 另写一个helper()函数，类似in-order; 全局prev; prev-&gt;val只有在prev不为空的时候才有意义; 我又将if (prev != nullptr)写成 while(prev != nullptr)了，显示结果运行超时，最后还是利用对比工具找出来错误，不然还会以为是官方编译器出了问题</t>
-  </si>
-  <si>
-    <t>100. Same Tree</t>
-  </si>
-  <si>
-    <t>递归，先考虑根结点，然后对左右进行递归即可; 排序false情况的，然后剩下的就是true了</t>
-  </si>
-  <si>
-    <t>107. Binary Tree Level Order Traversal II</t>
-  </si>
-  <si>
-    <t>层序遍历, reverse(it.begin(), it.end()), 注意res.push_back({})写法; 考虑了root, 但是忘记了左右孩子; 想清楚res.size()与树高度的关系，是先有树，再有res</t>
-  </si>
-  <si>
-    <t>++yy</t>
-  </si>
-  <si>
-    <t>783. Minimum Distance Between BST Nodes</t>
-  </si>
-  <si>
-    <t>DFS, 不要凭印象，要有做题思维</t>
-  </si>
-  <si>
-    <t>+++</t>
-  </si>
-  <si>
-    <t>993. Cousins in Binary Tree</t>
-  </si>
-  <si>
-    <t>DFS， 考虑的东西要多一些, 完全不知道这道题的步骤是怎么写出来的</t>
-  </si>
-  <si>
-    <t>257. Binary Tree Paths</t>
-  </si>
-  <si>
-    <t>pre-order, 其实root部分写法最重要，判断叶子结点; vector是不能使用加的, vector里边才是一个个string类型变量</t>
-  </si>
-  <si>
-    <t>y+y</t>
-  </si>
-  <si>
-    <t>404. Sum of Left Leaves</t>
-  </si>
-  <si>
-    <t>[题意]找到给定二叉树的所有左叶结点，返回其和</t>
-  </si>
-  <si>
-    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
-  </si>
-  <si>
-    <t>[题意]找到两个结点的挨着最近的父亲。画图，三种不同的情况，递归写出来的代码很好理解。循环结构要写好</t>
-  </si>
-  <si>
-    <t>563. Binary Tree Tilt</t>
-  </si>
-  <si>
-    <t>[题意]</t>
-  </si>
-  <si>
-    <t>543. Diameter of Binary Tree</t>
-  </si>
-  <si>
-    <t>[题意]找到二叉树中距离最远的两个结点的距离; 这个加一是什么逻辑?; 答案中的加一可以不这样写，令ans初始为0,最后结果也是正确的</t>
-  </si>
-  <si>
-    <t>++y</t>
-  </si>
-  <si>
-    <t>101. Symmetric Tree</t>
-  </si>
-  <si>
-    <t>[题意]看二叉树是不是对称二叉树。想好条件的是与非,拿另一棵相同的树与这棵树进行对比</t>
-  </si>
-  <si>
-    <t>572. Subtree of Another Tree</t>
-  </si>
-  <si>
-    <t>[题意]判断一棵树是不是另一棵树的子树。另外写两个函数，第一个函数从相等的那个结点开始对比，第二个函数看s是否包含t; 疑问：空树是任何一棵树的子树吗？</t>
-  </si>
-  <si>
-    <t>+y++</t>
-  </si>
-  <si>
-    <t>1315. Sum of Nodes with Even-Valued Grandparent</t>
-  </si>
-  <si>
-    <t>[题意]找出爷爷是偶数的结点的总和。使用dfs</t>
-  </si>
-  <si>
     <t>1302. Deepest Leaves Sum</t>
   </si>
   <si>
@@ -1220,9 +1247,6 @@
     <t>654. Maximum Binary Tree</t>
   </si>
   <si>
-    <t>yy</t>
-  </si>
-  <si>
     <t>1038. Binary Search Tree to Greater Sum Tree</t>
   </si>
   <si>
@@ -1235,7 +1259,7 @@
     <t>[题意]找出树中结点值第二小的结点。将全部结点值放入到一个set中去，自动去除重复值，然后找到第二个值，返回即可</t>
   </si>
   <si>
-    <t>++y+y</t>
+    <t>++y+yy</t>
   </si>
   <si>
     <t>701. Insert into a Binary Search Tree</t>
@@ -1283,6 +1307,9 @@
     <t>[题意]z字形打印二叉树。</t>
   </si>
   <si>
+    <t>+y+</t>
+  </si>
+  <si>
     <t>437. Path Sum III</t>
   </si>
   <si>
@@ -1310,6 +1337,9 @@
     <t>[题意]判断一棵树是否为BST</t>
   </si>
   <si>
+    <t>y+</t>
+  </si>
+  <si>
     <t>145. Binary Tree Postorder Traversal</t>
   </si>
   <si>
@@ -1388,7 +1418,7 @@
     <t>链表头删，链表头插</t>
   </si>
   <si>
-    <t>+++?</t>
+    <t>+++?y</t>
   </si>
   <si>
     <t>21. Merge Two Sorted Lists</t>
@@ -1472,6 +1502,9 @@
     <t>82. Remove Duplicates from Sorted List II</t>
   </si>
   <si>
+    <t>876. Middle of the Linked List</t>
+  </si>
+  <si>
     <t>1512. Number of Good Pairs</t>
   </si>
   <si>
@@ -1520,6 +1553,12 @@
     <t>260. Single Number III</t>
   </si>
   <si>
+    <t>1. two sum</t>
+  </si>
+  <si>
+    <t>167. Two Sum II - Input array is sorted</t>
+  </si>
+  <si>
     <t>9. Palindrome Number</t>
   </si>
   <si>
@@ -1619,6 +1658,15 @@
     <t>19. if和while有时会搞错，改用while的时候用了if</t>
   </si>
   <si>
+    <t>20. 如果没有返回类型的话，代表要在原数组上修改，但是在过程中可以新开一个数组存储，最后在赋值回去。</t>
+  </si>
+  <si>
+    <t>21. 读题的目的，就是阅读并理解问题。好好读题很重要，不要图快。</t>
+  </si>
+  <si>
+    <t>22. 差一问题（栅栏错误）建造一条直栅栏（即不围圈），长30米、每条栅栏柱间相隔3米，需要多少条栅栏柱? 求数组 A[i]到 A[j] 的平均值，A[i] 到 A[j] 的和应该除以多少，是 j-i+1，还是 j-i？二分法中的 while 条件，到底是用 &lt;= 还是 &lt; ？这些都是差一问题，这类问题如何解决。利用最小的的输入值测试代码的执行过程，长期反复，达到条件反射。这个过程一定是在大量的题目练习中掌握的，如果你到目前还在纠结这个问题，请先扣心自问，是否刷过至少200道算法题。如果没有，请不要纠结，干就对了。如果有，来找我。</t>
+  </si>
+  <si>
     <t>Tree:</t>
   </si>
   <si>
@@ -1652,7 +1700,7 @@
     <t>1. 数据规模</t>
   </si>
   <si>
-    <t>Name variables</t>
+    <t>Name variables，编码规范</t>
   </si>
   <si>
     <t>1. stack: stk</t>
@@ -1696,6 +1744,12 @@
     </r>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>能用位运算就不要用乘除法</t>
+  </si>
+  <si>
     <t>78. Subsets</t>
   </si>
   <si>
@@ -1707,10 +1761,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1753,38 +1807,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1799,7 +1831,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1813,82 +1943,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
@@ -1896,12 +1950,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -1951,13 +2005,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,7 +2023,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1987,25 +2041,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2017,7 +2125,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2035,61 +2143,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2113,25 +2173,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2145,17 +2199,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2190,6 +2247,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2204,185 +2296,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2764,10 +2818,10 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -2918,10 +2972,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -2942,13 +2996,13 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2966,7 +3020,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2987,13 +3041,13 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3011,13 +3065,13 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3031,16 +3085,16 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3054,16 +3108,16 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3077,16 +3131,16 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3100,16 +3154,16 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3123,10 +3177,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -3143,16 +3197,16 @@
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3166,16 +3220,16 @@
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3189,16 +3243,16 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3212,16 +3266,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3235,10 +3289,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -3255,16 +3309,16 @@
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3278,10 +3332,10 @@
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -3298,16 +3352,16 @@
         <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3321,22 +3375,34 @@
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="13">
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
@@ -3344,6 +3410,18 @@
     <row r="27" spans="1:6">
       <c r="A27" s="13">
         <v>26</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -3510,13 +3588,13 @@
         <v>6</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L2" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="7:12">
@@ -3531,13 +3609,13 @@
         <v>17</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="L3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="7:12">
@@ -3552,13 +3630,13 @@
         <v>24</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="L4" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="7:12">
@@ -3567,7 +3645,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="7:12">
@@ -3576,7 +3654,7 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="7:12">
@@ -3585,7 +3663,7 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="7:12">
@@ -3594,7 +3672,7 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="7:12">
@@ -3603,7 +3681,7 @@
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="7:12">
@@ -3612,7 +3690,7 @@
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="7:12">
@@ -3621,7 +3699,7 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="7:12">
@@ -3630,7 +3708,7 @@
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="7:12">
@@ -3639,7 +3717,7 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="7:12">
@@ -3648,7 +3726,7 @@
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="7:12">
@@ -3657,7 +3735,7 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="7:12">
@@ -3666,7 +3744,7 @@
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="7:12">
@@ -3675,7 +3753,7 @@
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="7:12">
@@ -3684,7 +3762,7 @@
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="7:12">
@@ -3693,7 +3771,7 @@
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="7:12">
@@ -3702,7 +3780,7 @@
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="7:12">
@@ -3711,7 +3789,7 @@
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="7:12">
@@ -3720,7 +3798,7 @@
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="7:12">
@@ -3729,7 +3807,7 @@
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="7:12">
@@ -3738,7 +3816,7 @@
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="7:12">
@@ -3747,7 +3825,7 @@
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="7:12">
@@ -3756,7 +3834,7 @@
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="7:12">
@@ -3765,7 +3843,7 @@
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="7:12">
@@ -3774,7 +3852,7 @@
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="7:12">
@@ -3783,7 +3861,7 @@
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="7:12">
@@ -3792,7 +3870,7 @@
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="7:12">
@@ -3801,7 +3879,7 @@
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="7:12">
@@ -3810,7 +3888,7 @@
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="7:12">
@@ -3819,7 +3897,7 @@
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="7:12">
@@ -3828,7 +3906,7 @@
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="7:12">
@@ -3837,7 +3915,7 @@
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="7:12">
@@ -3846,7 +3924,7 @@
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="7:12">
@@ -3855,7 +3933,7 @@
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3929,16 +4007,16 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F2" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="G2" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3947,7 +4025,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3956,7 +4034,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3965,7 +4043,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3974,7 +4052,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3983,7 +4061,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3992,7 +4070,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4001,7 +4079,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4010,7 +4088,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4019,7 +4097,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4028,7 +4106,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4037,7 +4115,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4046,7 +4124,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4055,7 +4133,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4064,7 +4142,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4073,7 +4151,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4082,7 +4160,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4091,7 +4169,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4100,7 +4178,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4109,7 +4187,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4118,7 +4196,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4127,7 +4205,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4136,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4145,7 +4223,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4154,7 +4232,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4163,7 +4241,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4172,7 +4250,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4181,7 +4259,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4190,7 +4268,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4199,7 +4277,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4208,7 +4286,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4217,7 +4295,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4272,13 +4350,13 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4287,7 +4365,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4486,225 +4564,248 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="5" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="5" t="s">
-        <v>296</v>
+      <c r="A40" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>301</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="5" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>302</v>
+      <c r="A50" s="5" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>304</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="5" t="s">
-        <v>305</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>309</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="7" t="s">
-        <v>311</v>
+      <c r="A77" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B98" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4762,13 +4863,13 @@
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="F2" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4777,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4786,7 +4887,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4795,7 +4896,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4804,7 +4905,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4813,7 +4914,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4822,7 +4923,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4831,7 +4932,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4840,7 +4941,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4849,7 +4950,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4858,7 +4959,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4867,7 +4968,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4876,7 +4977,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4885,7 +4986,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4894,7 +4995,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4903,7 +5004,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4912,7 +5013,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4921,7 +5022,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4930,7 +5031,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4939,7 +5040,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4948,7 +5049,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4957,7 +5058,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4966,7 +5067,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4975,7 +5076,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4984,7 +5085,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4993,7 +5094,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5002,7 +5103,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5011,7 +5112,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5020,7 +5121,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5029,7 +5130,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5038,7 +5139,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5047,7 +5148,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5056,7 +5157,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5065,7 +5166,7 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -5155,16 +5256,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5179,13 +5280,13 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5200,10 +5301,10 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5218,13 +5319,13 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5239,13 +5340,13 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5254,7 +5355,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5263,7 +5364,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5272,7 +5373,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5281,7 +5382,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5290,7 +5391,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5299,7 +5400,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5308,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5317,7 +5418,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5326,7 +5427,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5335,7 +5436,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5344,7 +5445,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5353,7 +5454,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5362,7 +5463,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5371,7 +5472,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5380,7 +5481,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5389,7 +5490,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5398,7 +5499,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5407,7 +5508,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5416,7 +5517,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5425,7 +5526,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5434,7 +5535,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5443,7 +5544,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5452,7 +5553,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5461,7 +5562,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5470,7 +5571,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5479,7 +5580,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5488,7 +5589,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5497,7 +5598,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5506,7 +5607,7 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5515,7 +5616,7 @@
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5524,7 +5625,7 @@
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5533,7 +5634,7 @@
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5553,7 +5654,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -5596,16 +5697,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5621,16 +5722,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5646,16 +5747,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5671,16 +5772,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5696,13 +5797,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5718,7 +5819,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5734,7 +5835,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5750,7 +5851,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5763,7 +5864,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5776,7 +5877,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5789,7 +5890,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5802,7 +5903,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5815,7 +5916,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5828,7 +5929,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5841,7 +5942,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5854,7 +5955,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5867,7 +5968,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5880,7 +5981,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5893,7 +5994,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5906,7 +6007,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5919,7 +6020,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5932,7 +6033,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5945,7 +6046,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5958,7 +6059,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5971,7 +6072,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5984,7 +6085,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5997,7 +6098,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6010,7 +6111,7 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6023,7 +6124,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6036,7 +6137,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6049,7 +6150,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6062,7 +6163,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6075,7 +6176,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6088,7 +6189,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6101,7 +6202,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6114,7 +6215,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6127,7 +6228,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6140,7 +6241,7 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6153,7 +6254,7 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6166,7 +6267,7 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6179,7 +6280,7 @@
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6192,7 +6293,7 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6205,7 +6306,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6218,7 +6319,7 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6231,7 +6332,7 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6244,7 +6345,7 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6257,7 +6358,7 @@
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6270,7 +6371,7 @@
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6283,7 +6384,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6296,7 +6397,7 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6309,7 +6410,7 @@
         <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6322,7 +6423,7 @@
         <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6335,7 +6436,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6348,7 +6449,7 @@
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6361,7 +6462,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6374,7 +6475,7 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6387,7 +6488,7 @@
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6400,7 +6501,7 @@
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6413,7 +6514,7 @@
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6475,10 +6576,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6491,7 +6592,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6504,7 +6605,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6517,7 +6618,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6530,7 +6631,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6543,7 +6644,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6556,7 +6657,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6569,7 +6670,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6582,7 +6683,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6595,7 +6696,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6608,7 +6709,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6621,7 +6722,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6634,7 +6735,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6647,7 +6748,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6660,7 +6761,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6673,7 +6774,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6686,7 +6787,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6699,7 +6800,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6712,7 +6813,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6725,7 +6826,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6738,7 +6839,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6751,7 +6852,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6764,7 +6865,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6777,7 +6878,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6790,7 +6891,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6799,7 +6900,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -6834,10 +6935,10 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -6882,16 +6983,16 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6906,16 +7007,16 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6930,13 +7031,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6951,16 +7052,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6975,16 +7076,16 @@
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6999,16 +7100,16 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7023,16 +7124,16 @@
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7047,16 +7148,16 @@
         <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7071,16 +7172,16 @@
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7095,16 +7196,16 @@
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7119,16 +7220,16 @@
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7143,16 +7244,16 @@
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7167,16 +7268,16 @@
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7191,16 +7292,16 @@
         <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7215,16 +7316,16 @@
         <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -7239,16 +7340,16 @@
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -7263,16 +7364,16 @@
         <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -7287,16 +7388,16 @@
         <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7311,16 +7412,16 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7335,16 +7436,16 @@
         <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -7359,16 +7460,16 @@
         <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7383,16 +7484,16 @@
         <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -7407,16 +7508,16 @@
         <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -7431,16 +7532,16 @@
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -7455,16 +7556,16 @@
         <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -7479,16 +7580,16 @@
         <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -7503,16 +7604,16 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -7527,16 +7628,16 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -7551,16 +7652,16 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -7575,16 +7676,16 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -7599,16 +7700,16 @@
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -7623,16 +7724,16 @@
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7647,13 +7748,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -7669,16 +7770,16 @@
         <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -7693,16 +7794,16 @@
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -7717,16 +7818,16 @@
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -7741,16 +7842,16 @@
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -7765,16 +7866,16 @@
         <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7789,16 +7890,16 @@
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -7814,16 +7915,16 @@
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E41" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -7839,16 +7940,16 @@
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -7864,16 +7965,16 @@
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7888,13 +7989,13 @@
         <v>31</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -7912,13 +8013,13 @@
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -7933,16 +8034,16 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -7957,16 +8058,16 @@
         <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -7981,16 +8082,16 @@
         <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F48" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -8005,16 +8106,16 @@
         <v>16</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="E49" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F49" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -8032,13 +8133,13 @@
         <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -8053,16 +8154,16 @@
         <v>20</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F51" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -8077,16 +8178,16 @@
         <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8101,13 +8202,13 @@
         <v>25</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F53" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8122,13 +8223,13 @@
         <v>29</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8137,7 +8238,7 @@
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8146,7 +8247,7 @@
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8155,7 +8256,7 @@
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8164,7 +8265,7 @@
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8173,7 +8274,7 @@
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8182,7 +8283,7 @@
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8191,7 +8292,7 @@
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8200,7 +8301,7 @@
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8209,7 +8310,7 @@
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8218,7 +8319,7 @@
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8227,7 +8328,7 @@
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8236,7 +8337,7 @@
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8245,7 +8346,7 @@
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8254,7 +8355,7 @@
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8263,7 +8364,7 @@
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8272,7 +8373,7 @@
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8281,7 +8382,7 @@
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8290,7 +8391,7 @@
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8299,7 +8400,7 @@
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8308,7 +8409,7 @@
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8317,7 +8418,7 @@
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8326,7 +8427,7 @@
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8335,7 +8436,7 @@
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8344,7 +8445,7 @@
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8353,7 +8454,7 @@
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -8416,16 +8517,16 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8440,13 +8541,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8461,16 +8562,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G4" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8485,16 +8586,16 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8509,10 +8610,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8527,7 +8628,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8542,7 +8643,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8551,7 +8652,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8560,7 +8661,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8569,7 +8670,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8578,7 +8679,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8587,7 +8688,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -8605,9 +8706,9 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -8651,16 +8752,16 @@
         <v>19</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8675,16 +8776,16 @@
         <v>23</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8699,16 +8800,16 @@
         <v>23</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8723,16 +8824,16 @@
         <v>6</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8747,16 +8848,16 @@
         <v>6</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" t="s">
         <v>222</v>
       </c>
-      <c r="F6" t="s">
-        <v>212</v>
-      </c>
       <c r="G6" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8771,16 +8872,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8795,16 +8896,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G8" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8819,16 +8920,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8843,16 +8944,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G10" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8867,16 +8968,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F11" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G11" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8891,16 +8992,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F12" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G12" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8915,13 +9016,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F13" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8937,16 +9038,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F14" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G14" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8962,16 +9063,16 @@
         <v>8</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="F15" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G15" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8987,13 +9088,13 @@
         <v>17</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F16" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -9009,16 +9110,16 @@
         <v>19</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F17" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G17" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -9034,13 +9135,13 @@
         <v>19</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F18" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -9056,13 +9157,13 @@
         <v>19</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F19" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -9078,13 +9179,13 @@
         <v>24</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F20" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -9093,11 +9194,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -9107,10 +9216,10 @@
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -9120,10 +9229,10 @@
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -9133,10 +9242,10 @@
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -9146,10 +9255,10 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -9159,10 +9268,10 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -9172,10 +9281,10 @@
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -9185,10 +9294,10 @@
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9198,10 +9307,10 @@
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -9211,10 +9320,10 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9224,10 +9333,10 @@
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -9237,10 +9346,10 @@
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -9250,10 +9359,10 @@
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -9263,10 +9372,10 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -9276,10 +9385,10 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -9289,7 +9398,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -9299,7 +9408,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -9309,7 +9418,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -9319,7 +9428,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -9329,7 +9438,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -9347,7 +9456,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -9389,13 +9498,13 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9410,13 +9519,13 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9431,16 +9540,16 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="F4" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9455,13 +9564,13 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F5" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9476,16 +9585,16 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F6" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="G6" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -9500,16 +9609,16 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="G7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9524,16 +9633,16 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="G8" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9548,13 +9657,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -9569,13 +9678,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" t="s">
         <v>259</v>
-      </c>
-      <c r="F10" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -9590,13 +9699,13 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -9611,13 +9720,13 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F12" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -9632,13 +9741,13 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="F13" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -9647,13 +9756,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>274</v>
       </c>
       <c r="F14" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -9661,8 +9776,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>275</v>
+      </c>
       <c r="F15" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9671,7 +9798,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -9680,7 +9807,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -9689,7 +9816,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -9698,7 +9825,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -9707,7 +9834,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -9716,7 +9843,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -9725,7 +9852,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -9734,7 +9861,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -9743,7 +9870,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -9752,7 +9879,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -9761,7 +9888,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -9770,7 +9897,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -9779,7 +9906,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9788,7 +9915,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -9797,7 +9924,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9806,7 +9933,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -9815,7 +9942,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -9824,7 +9951,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -9833,7 +9960,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -9842,7 +9969,7 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -9851,7 +9978,7 @@
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -9860,7 +9987,7 @@
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -9869,7 +9996,7 @@
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -9878,7 +10005,7 @@
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:1">

--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27975" windowHeight="12585" tabRatio="806"/>
+    <workbookView windowWidth="27975" windowHeight="12585" tabRatio="806" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Array(basic)" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Binary search" sheetId="12" r:id="rId13"/>
     <sheet name="规则" sheetId="3" r:id="rId14"/>
     <sheet name="Backtracking" sheetId="15" r:id="rId15"/>
+    <sheet name="pat-B" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -67,7 +68,7 @@
     <author>third</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,6 +134,40 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>third</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+y: 一次过
+?: 有疑问
++: 看答案，需要复习</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>third</author>
     <author>fifth</author>
   </authors>
   <commentList>
@@ -179,6 +214,54 @@
           </rPr>
           <t xml:space="preserve">
 回溯</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>third</author>
+    <author>fifth</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+y: 一次过
+?: 有疑问
++: 看答案，需要复习</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>fifth:</t>
         </r>
       </text>
     </comment>
@@ -700,7 +783,7 @@
     <author>third</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -729,7 +812,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="345">
   <si>
     <t>No.</t>
   </si>
@@ -785,6 +868,9 @@
     <t>没有使用二分法，明早起来使用二分法做一下</t>
   </si>
   <si>
+    <t>yyy</t>
+  </si>
+  <si>
     <t>1313. Decompress Run-Length Encoded List</t>
   </si>
   <si>
@@ -797,7 +883,7 @@
     <t>细心，容易将数组中的值弄混, 注意vector.insert(it, value)用法</t>
   </si>
   <si>
-    <t>yyy</t>
+    <t>yyyy</t>
   </si>
   <si>
     <t>1295. Find Numbers with Even Number of Digits</t>
@@ -824,126 +910,126 @@
     <t>c++ max()函数应用，从右向左的思想</t>
   </si>
   <si>
+    <t>+++y</t>
+  </si>
+  <si>
+    <t>1304. Find N Unique Integers Sum up to Zero</t>
+  </si>
+  <si>
+    <t>不用在意数组顺序，最终数组中元素相加为0就行; vector.push_back(); 针对奇数多个情况，其他一样</t>
+  </si>
+  <si>
+    <t>832. Flipping an Image</t>
+  </si>
+  <si>
+    <t>c++ #include &lt;algorithm&gt; reverse(arr.begin(), arr.end()); 异或运算^，效率更高</t>
+  </si>
+  <si>
+    <t>??y</t>
+  </si>
+  <si>
+    <t>1475. Final Prices With a Special Discount in a Shop</t>
+  </si>
+  <si>
+    <t>粗心，没有考虑prices[i]可以等于prices[j]的情况; 还是那句话，把题读好，题目中有条件, 注意等号的成立</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>977. Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t>讨论区有更好的解，但是我没有看懂</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>561. Array Partition I</t>
+  </si>
+  <si>
     <t>+++</t>
   </si>
   <si>
-    <t>1304. Find N Unique Integers Sum up to Zero</t>
-  </si>
-  <si>
-    <t>不用在意数组顺序，最终数组中元素相加为0就行; vector.push_back(); 针对奇数多个情况，其他一样</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>832. Flipping an Image</t>
-  </si>
-  <si>
-    <t>c++ #include &lt;algorithm&gt; reverse(arr.begin(), arr.end()); 异或运算^，效率更高</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>1475. Final Prices With a Special Discount in a Shop</t>
-  </si>
-  <si>
-    <t>粗心，没有考虑prices[i]可以等于prices[j]的情况; 还是那句话，把题读好，题目中有条件, 注意等号的成立</t>
-  </si>
-  <si>
-    <t>977. Squares of a Sorted Array</t>
-  </si>
-  <si>
-    <t>讨论区有更好的解，但是我没有看懂</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>561. Array Partition I</t>
+    <t>1380. Lucky Numbers in a Matrix</t>
+  </si>
+  <si>
+    <t>c++ unordered_set定义, 常量INT_MAX和INT_MIN; unordered_set::find(); unorder_set::insert(element)</t>
+  </si>
+  <si>
+    <t>1491. Average Salary Excluding the Minimum and Maximum Salary</t>
+  </si>
+  <si>
+    <t>注意数组的索引情况，本题并不难，但是确实花了较长时间; 注意在优先级不确定情况下添加括号，防止意外情况;注意结果的类型，别总是取int类型，看看题</t>
+  </si>
+  <si>
+    <t>+y</t>
+  </si>
+  <si>
+    <t>1051. Height Checker</t>
+  </si>
+  <si>
+    <t>讨论中说这道题有问题，真正想问的应该是这个数组中有多少人不是遵守排序的。</t>
+  </si>
+  <si>
+    <t>1337. The K Weakest Rows in a Matrix</t>
+  </si>
+  <si>
+    <t>给数组中的值排序，但是返回的是前几名原本的下标; pair&lt;T, T&gt;; begin(), end(); set()</t>
   </si>
   <si>
     <t>++</t>
   </si>
   <si>
-    <t>1380. Lucky Numbers in a Matrix</t>
-  </si>
-  <si>
-    <t>c++ unordered_set定义, 常量INT_MAX和INT_MIN; unordered_set::find(); unorder_set::insert(element)</t>
-  </si>
-  <si>
-    <t>?y</t>
-  </si>
-  <si>
-    <t>1491. Average Salary Excluding the Minimum and Maximum Salary</t>
-  </si>
-  <si>
-    <t>注意数组的索引情况，本题并不难，但是确实花了较长时间; 注意在优先级不确定情况下添加括号，防止意外情况;注意结果的类型，别总是取int类型，看看题</t>
-  </si>
-  <si>
-    <t>+y</t>
-  </si>
-  <si>
-    <t>1051. Height Checker</t>
-  </si>
-  <si>
-    <t>讨论中说这道题有问题，真正想问的应该是这个数组中有多少人不是遵守排序的。</t>
+    <t>1002. Find Common Characters</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>[题意]合并两个已排序的数组。</t>
+  </si>
+  <si>
+    <t>189. Rotate Array</t>
+  </si>
+  <si>
+    <t>66. Plus One</t>
+  </si>
+  <si>
+    <t>注意最高阶</t>
+  </si>
+  <si>
+    <t>989. Add to Array-Form of Integer</t>
+  </si>
+  <si>
+    <t>进制取余和得到商这些个步骤很麻烦</t>
+  </si>
+  <si>
+    <t>1200. Minimum Absolute Difference</t>
+  </si>
+  <si>
+    <t>283. Move Zeroes</t>
+  </si>
+  <si>
+    <t>344. Reverse String</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>[题意]翻转字符串。</t>
+  </si>
+  <si>
+    <t>709. To Lower Case</t>
+  </si>
+  <si>
+    <t>520. Detect Capital</t>
   </si>
   <si>
     <t>undo</t>
   </si>
   <si>
-    <t>1337. The K Weakest Rows in a Matrix</t>
-  </si>
-  <si>
-    <t>给数组中的值排序，但是返回的是前几名原本的下标; pair&lt;T, T&gt;; begin(), end(); set()</t>
-  </si>
-  <si>
-    <t>1002. Find Common Characters</t>
-  </si>
-  <si>
-    <t>88. Merge Sorted Array</t>
-  </si>
-  <si>
-    <t>[题意]合并两个已排序的数组。</t>
-  </si>
-  <si>
-    <t>189. Rotate Array</t>
-  </si>
-  <si>
-    <t>66. Plus One</t>
-  </si>
-  <si>
-    <t>注意最高阶</t>
-  </si>
-  <si>
-    <t>989. Add to Array-Form of Integer</t>
-  </si>
-  <si>
-    <t>进制取余和得到商这些个步骤很麻烦</t>
-  </si>
-  <si>
-    <t>1200. Minimum Absolute Difference</t>
-  </si>
-  <si>
-    <t>283. Move Zeroes</t>
-  </si>
-  <si>
-    <t>344. Reverse String</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>[题意]翻转字符串。</t>
-  </si>
-  <si>
-    <t>709. To Lower Case</t>
-  </si>
-  <si>
-    <t>520. Detect Capital</t>
-  </si>
-  <si>
     <t>541. Reverse String II</t>
   </si>
   <si>
@@ -968,9 +1054,6 @@
     <t>[题意]删除在string中所有相邻为相同字符的字母，返回最后的结果。string也是可以使用reverse()的。</t>
   </si>
   <si>
-    <t>+++y</t>
-  </si>
-  <si>
     <t>1209. Remove All Adjacent Duplicates in String II</t>
   </si>
   <si>
@@ -1013,78 +1096,81 @@
     <t>使用递归; 函数是否有返回值;判空之后在进行递归的书写; 递归边界、递归式;纸笔模拟</t>
   </si>
   <si>
+    <t>+yyyyy</t>
+  </si>
+  <si>
+    <t>700. Search in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>++yy++yyy</t>
+  </si>
+  <si>
+    <t>589. N-ary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>递归和迭代都要会; 这一遍我觉得是依靠记忆的，我还记得该怎么写</t>
+  </si>
+  <si>
+    <t>y?yy</t>
+  </si>
+  <si>
+    <t>590. N-ary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>因为会做上一题，知道的怎么写，这一题写着很快; children first, and then push back the root-&gt;val</t>
+  </si>
+  <si>
+    <t>+++yyy</t>
+  </si>
+  <si>
+    <t>897. Increasing Order Search Tree</t>
+  </si>
+  <si>
+    <t>可以打印出类似的结果，但是不知道如何以树的形式返回。</t>
+  </si>
+  <si>
+    <t>+y+yy</t>
+  </si>
+  <si>
+    <t>559. Maximum Depth of N-ary Tree</t>
+  </si>
+  <si>
+    <t>递归：靠着一个个的1积累;总是感觉使用迭代做树很难。递归写起来非常简洁</t>
+  </si>
+  <si>
+    <t>965. Univalued Binary Tree</t>
+  </si>
+  <si>
+    <t>pre-order,需要将res进行初始化</t>
+  </si>
+  <si>
+    <t>++++</t>
+  </si>
+  <si>
+    <t>1022. Sum of Root To Leaf Binary Numbers</t>
+  </si>
+  <si>
+    <t>helper()函数里边逻辑，这里不好描述</t>
+  </si>
+  <si>
+    <t>+++yy</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>和559题很像</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>递归，注意swap要交换两颗子树;不需要满足左右孩子都存在才交换，有个为空也是交换的，不需要什么过滤条件</t>
+  </si>
+  <si>
     <t>+yyyy</t>
   </si>
   <si>
-    <t>700. Search in a Binary Search Tree</t>
-  </si>
-  <si>
-    <t>++yy++yyy</t>
-  </si>
-  <si>
-    <t>589. N-ary Tree Preorder Traversal</t>
-  </si>
-  <si>
-    <t>递归和迭代都要会; 这一遍我觉得是依靠记忆的，我还记得该怎么写</t>
-  </si>
-  <si>
-    <t>y?yy</t>
-  </si>
-  <si>
-    <t>590. N-ary Tree Postorder Traversal</t>
-  </si>
-  <si>
-    <t>因为会做上一题，知道的怎么写，这一题写着很快; children first, and then push back the root-&gt;val</t>
-  </si>
-  <si>
-    <t>+++yyy</t>
-  </si>
-  <si>
-    <t>897. Increasing Order Search Tree</t>
-  </si>
-  <si>
-    <t>可以打印出类似的结果，但是不知道如何以树的形式返回。</t>
-  </si>
-  <si>
-    <t>+y+yy</t>
-  </si>
-  <si>
-    <t>559. Maximum Depth of N-ary Tree</t>
-  </si>
-  <si>
-    <t>递归：靠着一个个的1积累;总是感觉使用迭代做树很难。递归写起来非常简洁</t>
-  </si>
-  <si>
-    <t>965. Univalued Binary Tree</t>
-  </si>
-  <si>
-    <t>pre-order,需要将res进行初始化</t>
-  </si>
-  <si>
-    <t>++++</t>
-  </si>
-  <si>
-    <t>1022. Sum of Root To Leaf Binary Numbers</t>
-  </si>
-  <si>
-    <t>helper()函数里边逻辑，这里不好描述</t>
-  </si>
-  <si>
-    <t>+++yy</t>
-  </si>
-  <si>
-    <t>104. Maximum Depth of Binary Tree</t>
-  </si>
-  <si>
-    <t>和559题很像</t>
-  </si>
-  <si>
-    <t>226. Invert Binary Tree</t>
-  </si>
-  <si>
-    <t>递归，注意swap要交换两颗子树;不需要满足左右孩子都存在才交换，有个为空也是交换的，不需要什么过滤条件</t>
-  </si>
-  <si>
     <t>872. Leaf-Similar Trees</t>
   </si>
   <si>
@@ -1253,13 +1339,16 @@
     <t>[题意]将BST中从右子树到左子树开始累计相加，右边第二个结点的值更新为右边第一个加上右边第二个</t>
   </si>
   <si>
+    <t>++y+</t>
+  </si>
+  <si>
     <t>671. Second Minimum Node In a Binary Tree</t>
   </si>
   <si>
     <t>[题意]找出树中结点值第二小的结点。将全部结点值放入到一个set中去，自动去除重复值，然后找到第二个值，返回即可</t>
   </si>
   <si>
-    <t>++y+yy</t>
+    <t>++y+yyy</t>
   </si>
   <si>
     <t>701. Insert into a Binary Search Tree</t>
@@ -1370,6 +1459,12 @@
     <t>814. Binary Tree Pruning</t>
   </si>
   <si>
+    <t>1325. Delete Leaves With a Given Value</t>
+  </si>
+  <si>
+    <t>129. Sum Root to Leaf Numbers</t>
+  </si>
+  <si>
     <t>1137. N-th Tribonacci Number</t>
   </si>
   <si>
@@ -1559,6 +1654,18 @@
     <t>167. Two Sum II - Input array is sorted</t>
   </si>
   <si>
+    <t>11. Container With Most Water</t>
+  </si>
+  <si>
+    <t>42. Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>time limited</t>
+  </si>
+  <si>
+    <t>15. 3Sum</t>
+  </si>
+  <si>
     <t>9. Palindrome Number</t>
   </si>
   <si>
@@ -1586,7 +1693,7 @@
     <t>Binary search</t>
   </si>
   <si>
-    <t>ds</t>
+    <t>852. Peak Index in a Mountain Array</t>
   </si>
   <si>
     <t>1.先刷英文题目，再中文题目</t>
@@ -1655,7 +1762,36 @@
     <t>18. 在vscode中使用leetcode插件可以刷新为更快一些。</t>
   </si>
   <si>
-    <t>19. if和while有时会搞错，改用while的时候用了if</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">19. if和while有时会搞错，改用while的时候用了if. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我对于if和while的出错程度超出自己的想象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>20. 如果没有返回类型的话，代表要在原数组上修改，但是在过程中可以新开一个数组存储，最后在赋值回去。</t>
@@ -1750,10 +1886,25 @@
     <t>能用位运算就不要用乘除法</t>
   </si>
   <si>
+    <t>OJ判错的几种可能原因：</t>
+  </si>
+  <si>
+    <t>1. 超时</t>
+  </si>
+  <si>
+    <t>1.1 死循环</t>
+  </si>
+  <si>
     <t>78. Subsets</t>
   </si>
   <si>
     <t>Backtracking</t>
+  </si>
+  <si>
+    <t>1012 数字分类 (20分)</t>
+  </si>
+  <si>
+    <t>1008 数组元素循环右移问题 (20分)</t>
   </si>
 </sst>
 </file>
@@ -1761,10 +1912,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1807,16 +1958,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1830,31 +1973,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1870,60 +1990,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1944,18 +2028,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -2005,7 +2156,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2017,13 +2204,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2035,13 +2240,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2053,7 +2282,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2065,31 +2312,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2101,91 +2336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2203,16 +2354,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2249,6 +2421,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2266,177 +2447,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2450,9 +2601,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2461,6 +2609,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
@@ -2818,41 +2969,41 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="4"/>
     <col min="5" max="5" width="26.3733333333333" customWidth="true"/>
     <col min="6" max="6" width="14.2533333333333" customWidth="true"/>
     <col min="7" max="7" width="18" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2863,7 +3014,7 @@
       <c r="B2">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -2884,7 +3035,7 @@
       <c r="B3">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -2905,7 +3056,7 @@
       <c r="B4">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
@@ -2926,11 +3077,11 @@
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -2947,17 +3098,17 @@
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2971,11 +3122,11 @@
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -2992,17 +3143,17 @@
       <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3016,11 +3167,11 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -3037,17 +3188,17 @@
       <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3061,17 +3212,17 @@
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3084,17 +3235,17 @@
       <c r="C12">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>31</v>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3107,8 +3258,8 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
@@ -3130,7 +3281,7 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E14" t="s">
@@ -3153,17 +3304,17 @@
       <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3176,11 +3327,11 @@
       <c r="C16">
         <v>13</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>42</v>
+      <c r="D16" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -3196,17 +3347,17 @@
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>44</v>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3219,8 +3370,8 @@
       <c r="C18">
         <v>14</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>47</v>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E18" t="s">
         <v>48</v>
@@ -3242,7 +3393,7 @@
       <c r="C19">
         <v>15</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E19" t="s">
@@ -3260,22 +3411,22 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
         <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3288,8 +3439,8 @@
       <c r="C21">
         <v>15</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>42</v>
+      <c r="D21" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
@@ -3308,8 +3459,8 @@
       <c r="C22">
         <v>6</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
+      <c r="D22" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E22" t="s">
         <v>57</v>
@@ -3331,8 +3482,8 @@
       <c r="C23">
         <v>19</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>42</v>
+      <c r="D23" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E23" t="s">
         <v>59</v>
@@ -3351,8 +3502,8 @@
       <c r="C24">
         <v>24</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>42</v>
+      <c r="D24" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E24" t="s">
         <v>60</v>
@@ -3374,8 +3525,8 @@
       <c r="C25">
         <v>24</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>42</v>
+      <c r="D25" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E25" t="s">
         <v>62</v>
@@ -3397,8 +3548,8 @@
       <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>34</v>
+      <c r="D26" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E26" t="s">
         <v>64</v>
@@ -3417,8 +3568,8 @@
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>42</v>
+      <c r="D27" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E27" t="s">
         <v>65</v>
@@ -3555,25 +3706,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="7:13">
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3588,13 +3739,13 @@
         <v>6</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="L2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="7:12">
@@ -3609,13 +3760,13 @@
         <v>17</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L3" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="7:12">
@@ -3630,13 +3781,13 @@
         <v>24</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L4" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="7:12">
@@ -3645,7 +3796,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="7:12">
@@ -3654,7 +3805,7 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="7:12">
@@ -3663,7 +3814,7 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="7:12">
@@ -3672,7 +3823,7 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="7:12">
@@ -3681,7 +3832,7 @@
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="7:12">
@@ -3690,7 +3841,7 @@
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="7:12">
@@ -3699,7 +3850,7 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="7:12">
@@ -3708,7 +3859,7 @@
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="7:12">
@@ -3717,7 +3868,7 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="7:12">
@@ -3726,7 +3877,7 @@
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="7:12">
@@ -3735,7 +3886,7 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="7:12">
@@ -3744,7 +3895,7 @@
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="7:12">
@@ -3753,7 +3904,7 @@
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="7:12">
@@ -3762,7 +3913,7 @@
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="7:12">
@@ -3771,7 +3922,7 @@
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="7:12">
@@ -3780,7 +3931,7 @@
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="7:12">
@@ -3789,7 +3940,7 @@
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="7:12">
@@ -3798,7 +3949,7 @@
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="7:12">
@@ -3807,7 +3958,7 @@
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="7:12">
@@ -3816,7 +3967,7 @@
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="7:12">
@@ -3825,7 +3976,7 @@
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="7:12">
@@ -3834,7 +3985,7 @@
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="7:12">
@@ -3843,7 +3994,7 @@
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="7:12">
@@ -3852,7 +4003,7 @@
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="7:12">
@@ -3861,7 +4012,7 @@
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="7:12">
@@ -3870,7 +4021,7 @@
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="7:12">
@@ -3879,7 +4030,7 @@
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="7:12">
@@ -3888,7 +4039,7 @@
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="7:12">
@@ -3897,7 +4048,7 @@
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="7:12">
@@ -3906,7 +4057,7 @@
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="7:12">
@@ -3915,7 +4066,7 @@
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="7:12">
@@ -3924,7 +4075,7 @@
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="7:12">
@@ -3933,7 +4084,7 @@
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3974,25 +4125,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4007,16 +4158,16 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="G2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4025,7 +4176,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4034,7 +4185,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4043,7 +4194,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4052,7 +4203,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4061,7 +4212,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4070,7 +4221,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4079,7 +4230,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4088,7 +4239,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4097,7 +4248,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4106,7 +4257,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4115,7 +4266,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4124,7 +4275,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4133,7 +4284,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4142,7 +4293,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4151,7 +4302,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4160,7 +4311,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4169,7 +4320,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4178,7 +4329,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4187,7 +4338,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4196,7 +4347,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4205,7 +4356,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4214,7 +4365,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4223,7 +4374,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4232,7 +4383,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4241,7 +4392,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4250,7 +4401,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4259,7 +4410,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4268,7 +4419,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4277,7 +4428,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4286,7 +4437,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4295,7 +4446,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4311,31 +4462,35 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="8.8" style="4"/>
+    <col min="6" max="6" width="12.4" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4349,14 +4504,14 @@
       <c r="C2">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4364,8 +4519,20 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>293</v>
+      </c>
       <c r="F3" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4564,248 +4731,263 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="L129" sqref="L129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>308</v>
+      <c r="A39" s="7" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="5" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="5" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="5" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="5" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="5" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B98" t="s">
-        <v>329</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4820,35 +5002,35 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="5" width="8.8" style="1"/>
+    <col min="4" max="5" width="8.8" style="4"/>
     <col min="6" max="6" width="13" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4862,14 +5044,14 @@
       <c r="C2">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>330</v>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="F2" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4878,7 +5060,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4887,7 +5069,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4896,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4905,7 +5087,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4914,7 +5096,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4923,7 +5105,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4932,7 +5114,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4941,7 +5123,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4950,7 +5132,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4959,7 +5141,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4968,7 +5150,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4977,7 +5159,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4986,7 +5168,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4995,7 +5177,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5004,7 +5186,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5013,7 +5195,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5022,7 +5204,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5031,7 +5213,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5040,7 +5222,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5049,7 +5231,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5058,7 +5240,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5067,7 +5249,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5076,7 +5258,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5085,7 +5267,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5094,7 +5276,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5103,7 +5285,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5112,7 +5294,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5121,7 +5303,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5130,7 +5312,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5139,7 +5321,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5148,7 +5330,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5157,7 +5339,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5166,7 +5348,7 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -5197,6 +5379,289 @@
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="18.3" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <f t="shared" ref="A4:A37" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5223,25 +5688,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5256,7 +5721,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>66</v>
@@ -5280,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -5319,10 +5784,10 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -5340,10 +5805,10 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -5654,7 +6119,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -5664,25 +6129,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5697,16 +6162,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5722,16 +6187,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5747,13 +6212,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
         <v>81</v>
@@ -5772,13 +6237,13 @@
         <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>83</v>
@@ -5797,13 +6262,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5819,7 +6284,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5835,7 +6300,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5851,7 +6316,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5864,7 +6329,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5877,7 +6342,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5890,7 +6355,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5903,7 +6368,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5916,7 +6381,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5929,7 +6394,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5942,7 +6407,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5955,7 +6420,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5968,7 +6433,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5981,7 +6446,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5994,7 +6459,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6007,7 +6472,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6020,7 +6485,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6033,7 +6498,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6046,7 +6511,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6059,7 +6524,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6072,7 +6537,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6085,7 +6550,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6098,7 +6563,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6111,7 +6576,7 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6124,7 +6589,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6137,7 +6602,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6150,7 +6615,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6163,7 +6628,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6176,7 +6641,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6189,7 +6654,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6202,7 +6667,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6215,7 +6680,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6228,7 +6693,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6241,7 +6706,7 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6254,7 +6719,7 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6267,7 +6732,7 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6280,7 +6745,7 @@
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6293,7 +6758,7 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6306,7 +6771,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6319,7 +6784,7 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6332,7 +6797,7 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6345,7 +6810,7 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6358,7 +6823,7 @@
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6371,7 +6836,7 @@
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6384,7 +6849,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6397,7 +6862,7 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6410,7 +6875,7 @@
         <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6423,7 +6888,7 @@
         <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6436,7 +6901,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6449,7 +6914,7 @@
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6462,7 +6927,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6475,7 +6940,7 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6488,7 +6953,7 @@
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6501,7 +6966,7 @@
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6514,7 +6979,7 @@
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6543,25 +7008,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6936,39 +7401,39 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="4"/>
     <col min="5" max="5" width="50" customWidth="true"/>
     <col min="6" max="6" width="4.9" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6982,7 +7447,7 @@
       <c r="C2">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E2" t="s">
@@ -7006,7 +7471,7 @@
       <c r="C3">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -7030,7 +7495,7 @@
       <c r="C4">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E4" t="s">
@@ -7051,7 +7516,7 @@
       <c r="C5">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E5" t="s">
@@ -7075,7 +7540,7 @@
       <c r="C6">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E6" t="s">
@@ -7099,7 +7564,7 @@
       <c r="C7">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E7" t="s">
@@ -7123,7 +7588,7 @@
       <c r="C8">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E8" t="s">
@@ -7147,7 +7612,7 @@
       <c r="C9">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E9" t="s">
@@ -7171,7 +7636,7 @@
       <c r="C10">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -7195,7 +7660,7 @@
       <c r="C11">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E11" t="s">
@@ -7219,7 +7684,7 @@
       <c r="C12">
         <v>23</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E12" t="s">
@@ -7243,17 +7708,17 @@
       <c r="C13">
         <v>23</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>94</v>
+      <c r="D13" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
         <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7267,17 +7732,17 @@
       <c r="C14">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>120</v>
+      <c r="D14" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7291,17 +7756,17 @@
       <c r="C15">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>123</v>
+      <c r="D15" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7315,17 +7780,17 @@
       <c r="C16">
         <v>24</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>126</v>
+      <c r="D16" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F16" t="s">
         <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -7339,17 +7804,17 @@
       <c r="C17">
         <v>24</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
+      <c r="D17" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F17" t="s">
         <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -7363,17 +7828,17 @@
       <c r="C18">
         <v>25</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>123</v>
+      <c r="D18" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -7387,17 +7852,17 @@
       <c r="C19">
         <v>25</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>133</v>
+      <c r="D19" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7411,17 +7876,17 @@
       <c r="C20">
         <v>25</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>136</v>
+      <c r="D20" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" t="s">
         <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7435,17 +7900,17 @@
       <c r="C21">
         <v>26</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>123</v>
+      <c r="D21" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F21" t="s">
         <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -7459,17 +7924,17 @@
       <c r="C22">
         <v>26</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>141</v>
+      <c r="D22" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" t="s">
         <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7483,17 +7948,17 @@
       <c r="C23">
         <v>28</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>144</v>
+      <c r="D23" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F23" t="s">
         <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -7507,17 +7972,17 @@
       <c r="C24">
         <v>28</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F24" t="s">
         <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -7531,17 +7996,17 @@
       <c r="C25">
         <v>30</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>144</v>
+      <c r="D25" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
         <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -7555,17 +8020,17 @@
       <c r="C26">
         <v>30</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>151</v>
+      <c r="D26" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F26" t="s">
         <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -7579,17 +8044,17 @@
       <c r="C27">
         <v>30</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>79</v>
+      <c r="D27" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F27" t="s">
         <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -7603,17 +8068,17 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>42</v>
+      <c r="D28" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
         <v>89</v>
       </c>
       <c r="G28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -7627,17 +8092,17 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>158</v>
+      <c r="D29" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F29" t="s">
         <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -7651,17 +8116,17 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>76</v>
+      <c r="D30" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F30" t="s">
         <v>89</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -7675,17 +8140,17 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s">
         <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -7699,17 +8164,17 @@
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>165</v>
+      <c r="D32" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F32" t="s">
         <v>89</v>
       </c>
       <c r="G32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -7723,17 +8188,17 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>168</v>
+      <c r="D33" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F33" t="s">
         <v>89</v>
       </c>
       <c r="G33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7747,11 +8212,11 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>42</v>
+      <c r="D34" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F34" t="s">
         <v>89</v>
@@ -7769,17 +8234,17 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>22</v>
+      <c r="D35" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F35" t="s">
         <v>89</v>
       </c>
       <c r="G35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -7793,17 +8258,17 @@
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>76</v>
+      <c r="D36" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="E36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F36" t="s">
         <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -7817,17 +8282,17 @@
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>176</v>
+      <c r="D37" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F37" t="s">
         <v>89</v>
       </c>
       <c r="G37" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -7841,17 +8306,17 @@
       <c r="C38">
         <v>4</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E38" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F38" t="s">
         <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -7865,17 +8330,17 @@
       <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>42</v>
+      <c r="D39" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F39" t="s">
         <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7889,17 +8354,17 @@
       <c r="C40">
         <v>6</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>42</v>
+      <c r="D40" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F40" t="s">
         <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -7914,17 +8379,17 @@
       <c r="C41">
         <v>6</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>185</v>
+      <c r="D41" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F41" t="s">
         <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -7939,17 +8404,17 @@
       <c r="C42">
         <v>6</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>53</v>
+      <c r="D42" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F42" t="s">
         <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -7964,17 +8429,17 @@
       <c r="C43">
         <v>6</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F43" t="s">
         <v>89</v>
       </c>
       <c r="G43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7988,11 +8453,11 @@
       <c r="C44">
         <v>31</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>192</v>
+      <c r="D44" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="E44" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F44" t="s">
         <v>89</v>
@@ -8009,17 +8474,17 @@
       <c r="C45">
         <v>14</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F45" t="s">
         <v>89</v>
       </c>
       <c r="G45" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -8033,17 +8498,17 @@
       <c r="C46">
         <v>14</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>76</v>
+      <c r="D46" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F46" t="s">
         <v>89</v>
       </c>
       <c r="G46" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -8057,17 +8522,17 @@
       <c r="C47">
         <v>15</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F47" t="s">
         <v>89</v>
       </c>
       <c r="G47" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -8081,17 +8546,17 @@
       <c r="C48">
         <v>16</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>31</v>
+      <c r="D48" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F48" t="s">
         <v>89</v>
       </c>
       <c r="G48" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -8105,17 +8570,17 @@
       <c r="C49">
         <v>16</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>202</v>
+      <c r="D49" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="E49" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F49" t="s">
         <v>89</v>
       </c>
       <c r="G49" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -8129,17 +8594,17 @@
       <c r="C50">
         <v>18</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F50" t="s">
         <v>89</v>
       </c>
       <c r="G50" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -8153,17 +8618,17 @@
       <c r="C51">
         <v>20</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>44</v>
+      <c r="D51" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F51" t="s">
         <v>89</v>
       </c>
       <c r="G51" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -8177,17 +8642,17 @@
       <c r="C52">
         <v>20</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>44</v>
+      <c r="D52" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F52" t="s">
         <v>89</v>
       </c>
       <c r="G52" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8201,11 +8666,11 @@
       <c r="C53">
         <v>25</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>44</v>
+      <c r="D53" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F53" t="s">
         <v>89</v>
@@ -8222,11 +8687,11 @@
       <c r="C54">
         <v>29</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>44</v>
+      <c r="D54" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F54" t="s">
         <v>89</v>
@@ -8237,6 +8702,18 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" t="s">
+        <v>215</v>
+      </c>
       <c r="F55" t="s">
         <v>89</v>
       </c>
@@ -8245,6 +8722,18 @@
       <c r="A56" s="13">
         <f t="shared" si="2"/>
         <v>55</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" t="s">
+        <v>216</v>
       </c>
       <c r="F56" t="s">
         <v>89</v>
@@ -8474,35 +8963,35 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="8.8" style="1"/>
+    <col min="4" max="4" width="8.8" style="4"/>
     <col min="5" max="5" width="19.6" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8516,17 +9005,17 @@
       <c r="C2">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>76</v>
+      <c r="D2" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8540,14 +9029,14 @@
       <c r="C3">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8561,17 +9050,17 @@
       <c r="C4">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8585,17 +9074,17 @@
       <c r="C5">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8610,10 +9099,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8628,7 +9117,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8643,7 +9132,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8652,7 +9141,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8661,7 +9150,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8670,7 +9159,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8679,7 +9168,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8688,7 +9177,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -8705,39 +9194,39 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="9" style="10"/>
-    <col min="5" max="5" width="20.1266666666667" style="1" customWidth="true"/>
+    <col min="5" max="5" width="20.1266666666667" style="4" customWidth="true"/>
     <col min="6" max="6" width="12.1266666666667" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8752,16 +9241,16 @@
         <v>19</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>221</v>
+        <v>145</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8776,16 +9265,16 @@
         <v>23</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8800,16 +9289,16 @@
         <v>23</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>227</v>
+        <v>77</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8824,16 +9313,16 @@
         <v>6</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8848,16 +9337,16 @@
         <v>6</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>232</v>
+        <v>55</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8874,14 +9363,14 @@
       <c r="D7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>234</v>
+      <c r="E7" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8896,16 +9385,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>236</v>
+        <v>32</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8922,14 +9411,14 @@
       <c r="D9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>238</v>
+      <c r="E9" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="F9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8944,16 +9433,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>240</v>
+        <v>45</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8968,16 +9457,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>242</v>
+        <v>55</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="F11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8992,16 +9481,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>244</v>
+        <v>77</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="F12" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -9016,13 +9505,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>246</v>
+        <v>55</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="F13" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -9038,16 +9527,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>247</v>
+        <v>145</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="F14" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G14" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9063,16 +9552,16 @@
         <v>8</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>249</v>
+        <v>43</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="F15" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G15" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9088,13 +9577,13 @@
         <v>17</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>251</v>
+        <v>43</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="F16" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -9110,16 +9599,16 @@
         <v>19</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>252</v>
+        <v>43</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="F17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G17" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -9135,13 +9624,13 @@
         <v>19</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>254</v>
+        <v>40</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="F18" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -9157,13 +9646,13 @@
         <v>19</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>255</v>
+        <v>71</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="F19" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -9179,13 +9668,13 @@
         <v>24</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>256</v>
+        <v>43</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="F20" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -9200,13 +9689,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>257</v>
+        <v>40</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="F21" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -9218,8 +9707,17 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -9232,7 +9730,7 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -9245,7 +9743,7 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -9258,7 +9756,7 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -9271,7 +9769,7 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -9284,7 +9782,7 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -9297,7 +9795,7 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9310,7 +9808,7 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -9323,7 +9821,7 @@
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9336,7 +9834,7 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -9349,7 +9847,7 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -9362,7 +9860,7 @@
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -9375,7 +9873,7 @@
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -9388,7 +9886,7 @@
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -9456,7 +9954,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -9465,25 +9963,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9498,13 +9996,13 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9519,13 +10017,13 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9540,16 +10038,16 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9564,13 +10062,13 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" t="s">
         <v>263</v>
-      </c>
-      <c r="F5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9585,16 +10083,16 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -9609,16 +10107,16 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9633,16 +10131,16 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9657,13 +10155,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -9678,13 +10176,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F10" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -9699,13 +10197,13 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -9720,13 +10218,13 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -9741,13 +10239,13 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F13" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -9762,13 +10260,13 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F14" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -9783,13 +10281,13 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F15" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9798,7 +10296,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -9807,7 +10305,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -9816,7 +10314,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -9825,7 +10323,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -9834,7 +10332,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -9843,7 +10341,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -9852,7 +10350,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -9861,7 +10359,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -9870,7 +10368,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -9879,7 +10377,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -9888,7 +10386,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -9897,7 +10395,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -9906,7 +10404,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9915,7 +10413,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -9924,7 +10422,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9933,7 +10431,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -9942,7 +10440,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -9951,7 +10449,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -9960,7 +10458,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -9969,7 +10467,7 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -9978,7 +10476,7 @@
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -9987,7 +10485,7 @@
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -9996,7 +10494,7 @@
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -10005,7 +10503,7 @@
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -10026,15 +10524,303 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <f t="shared" ref="A4:A39" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/OJ/LeetCode/status.xlsx
+++ b/OJ/LeetCode/status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27975" windowHeight="12585" tabRatio="806" activeTab="6"/>
+    <workbookView windowWidth="27975" windowHeight="12585" tabRatio="806" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Array(basic)" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="规则" sheetId="3" r:id="rId14"/>
     <sheet name="Backtracking" sheetId="15" r:id="rId15"/>
     <sheet name="pat-B" sheetId="16" r:id="rId16"/>
+    <sheet name="greedy" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -262,6 +263,40 @@
             <charset val="0"/>
           </rPr>
           <t>fifth:</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>third</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>third:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+y: 一次过
+?: 有疑问
++: 看答案，需要复习</t>
         </r>
       </text>
     </comment>
@@ -812,7 +847,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="353">
   <si>
     <t>No.</t>
   </si>
@@ -904,6 +939,9 @@
     <t>注意相邻两个元素是如何在数组中进行循环的，不需要两层循环,注意i和i-1的关系</t>
   </si>
   <si>
+    <t>+yyy</t>
+  </si>
+  <si>
     <t>1299. Replace Elements with Greatest Element on Right Side</t>
   </si>
   <si>
@@ -949,93 +987,96 @@
     <t>561. Array Partition I</t>
   </si>
   <si>
+    <t>1380. Lucky Numbers in a Matrix</t>
+  </si>
+  <si>
+    <t>c++ unordered_set定义, 常量INT_MAX和INT_MIN; unordered_set::find(); unorder_set::insert(element)</t>
+  </si>
+  <si>
+    <t>?yyy</t>
+  </si>
+  <si>
+    <t>1491. Average Salary Excluding the Minimum and Maximum Salary</t>
+  </si>
+  <si>
+    <t>注意数组的索引情况，本题并不难，但是确实花了较长时间; 注意在优先级不确定情况下添加括号，防止意外情况;注意结果的类型，别总是取int类型，看看题</t>
+  </si>
+  <si>
+    <t>+y</t>
+  </si>
+  <si>
+    <t>1051. Height Checker</t>
+  </si>
+  <si>
+    <t>讨论中说这道题有问题，真正想问的应该是这个数组中有多少人不是遵守排序的。</t>
+  </si>
+  <si>
+    <t>1337. The K Weakest Rows in a Matrix</t>
+  </si>
+  <si>
+    <t>给数组中的值排序，但是返回的是前几名原本的下标; pair&lt;T, T&gt;; begin(), end(); set()</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>1002. Find Common Characters</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>[题意]合并两个已排序的数组。</t>
+  </si>
+  <si>
+    <t>189. Rotate Array</t>
+  </si>
+  <si>
+    <t>66. Plus One</t>
+  </si>
+  <si>
+    <t>注意最高阶</t>
+  </si>
+  <si>
+    <t>989. Add to Array-Form of Integer</t>
+  </si>
+  <si>
+    <t>进制取余和得到商这些个步骤很麻烦</t>
+  </si>
+  <si>
+    <t>1200. Minimum Absolute Difference</t>
+  </si>
+  <si>
+    <t>283. Move Zeroes</t>
+  </si>
+  <si>
+    <t>344. Reverse String</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>[题意]翻转字符串。</t>
+  </si>
+  <si>
+    <t>709. To Lower Case</t>
+  </si>
+  <si>
+    <t>520. Detect Capital</t>
+  </si>
+  <si>
+    <t>undo</t>
+  </si>
+  <si>
+    <t>541. Reverse String II</t>
+  </si>
+  <si>
+    <t>415. Add Strings</t>
+  </si>
+  <si>
     <t>+++</t>
   </si>
   <si>
-    <t>1380. Lucky Numbers in a Matrix</t>
-  </si>
-  <si>
-    <t>c++ unordered_set定义, 常量INT_MAX和INT_MIN; unordered_set::find(); unorder_set::insert(element)</t>
-  </si>
-  <si>
-    <t>1491. Average Salary Excluding the Minimum and Maximum Salary</t>
-  </si>
-  <si>
-    <t>注意数组的索引情况，本题并不难，但是确实花了较长时间; 注意在优先级不确定情况下添加括号，防止意外情况;注意结果的类型，别总是取int类型，看看题</t>
-  </si>
-  <si>
-    <t>+y</t>
-  </si>
-  <si>
-    <t>1051. Height Checker</t>
-  </si>
-  <si>
-    <t>讨论中说这道题有问题，真正想问的应该是这个数组中有多少人不是遵守排序的。</t>
-  </si>
-  <si>
-    <t>1337. The K Weakest Rows in a Matrix</t>
-  </si>
-  <si>
-    <t>给数组中的值排序，但是返回的是前几名原本的下标; pair&lt;T, T&gt;; begin(), end(); set()</t>
-  </si>
-  <si>
-    <t>++</t>
-  </si>
-  <si>
-    <t>1002. Find Common Characters</t>
-  </si>
-  <si>
-    <t>88. Merge Sorted Array</t>
-  </si>
-  <si>
-    <t>[题意]合并两个已排序的数组。</t>
-  </si>
-  <si>
-    <t>189. Rotate Array</t>
-  </si>
-  <si>
-    <t>66. Plus One</t>
-  </si>
-  <si>
-    <t>注意最高阶</t>
-  </si>
-  <si>
-    <t>989. Add to Array-Form of Integer</t>
-  </si>
-  <si>
-    <t>进制取余和得到商这些个步骤很麻烦</t>
-  </si>
-  <si>
-    <t>1200. Minimum Absolute Difference</t>
-  </si>
-  <si>
-    <t>283. Move Zeroes</t>
-  </si>
-  <si>
-    <t>344. Reverse String</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>[题意]翻转字符串。</t>
-  </si>
-  <si>
-    <t>709. To Lower Case</t>
-  </si>
-  <si>
-    <t>520. Detect Capital</t>
-  </si>
-  <si>
-    <t>undo</t>
-  </si>
-  <si>
-    <t>541. Reverse String II</t>
-  </si>
-  <si>
-    <t>415. Add Strings</t>
-  </si>
-  <si>
     <t>1441. Build an Array With Stack Operations</t>
   </si>
   <si>
@@ -1045,261 +1086,261 @@
     <t>[题意]返回栈中元素的推入、推出的步骤。</t>
   </si>
   <si>
+    <t>++yy</t>
+  </si>
+  <si>
+    <t>1047. Remove All Adjacent Duplicates In String</t>
+  </si>
+  <si>
+    <t>[题意]删除在string中所有相邻为相同字符的字母，返回最后的结果。string也是可以使用reverse()的。</t>
+  </si>
+  <si>
+    <t>1209. Remove All Adjacent Duplicates in String II</t>
+  </si>
+  <si>
+    <t>[题意]删除在String中相邻有k个相同元素的字母。</t>
+  </si>
+  <si>
+    <t>+++yy</t>
+  </si>
+  <si>
+    <t>496. Next Greater Element I</t>
+  </si>
+  <si>
+    <t>[题意]两个数组num1, num2, 找到num1中元素在num2中下一个较大的值。</t>
+  </si>
+  <si>
+    <t>503. Next Greater Element II</t>
+  </si>
+  <si>
+    <t>933. Number of Recent Calls</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>+?+yyy</t>
+  </si>
+  <si>
+    <t>938. Range Sum of BST</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>解决方法: inorder;第二遍写了出来是把这种写法给记着了; 另写一个中序遍历函数，左右就是递归作用，中就是得到我们最后想要的结果的过程</t>
+  </si>
+  <si>
+    <t>+++y+yy</t>
+  </si>
+  <si>
+    <t>617. Merge Two Binary Trees</t>
+  </si>
+  <si>
+    <t>使用递归; 函数是否有返回值;判空之后在进行递归的书写; 递归边界、递归式;纸笔模拟</t>
+  </si>
+  <si>
+    <t>+yyyyy</t>
+  </si>
+  <si>
+    <t>700. Search in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>++yy++yyy</t>
+  </si>
+  <si>
+    <t>589. N-ary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>递归和迭代都要会; 这一遍我觉得是依靠记忆的，我还记得该怎么写</t>
+  </si>
+  <si>
+    <t>y?yy</t>
+  </si>
+  <si>
+    <t>590. N-ary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>因为会做上一题，知道的怎么写，这一题写着很快; children first, and then push back the root-&gt;val</t>
+  </si>
+  <si>
+    <t>+++yyy</t>
+  </si>
+  <si>
+    <t>897. Increasing Order Search Tree</t>
+  </si>
+  <si>
+    <t>可以打印出类似的结果，但是不知道如何以树的形式返回。</t>
+  </si>
+  <si>
+    <t>+y+yy</t>
+  </si>
+  <si>
+    <t>559. Maximum Depth of N-ary Tree</t>
+  </si>
+  <si>
+    <t>递归：靠着一个个的1积累;总是感觉使用迭代做树很难。递归写起来非常简洁</t>
+  </si>
+  <si>
+    <t>965. Univalued Binary Tree</t>
+  </si>
+  <si>
+    <t>pre-order,需要将res进行初始化</t>
+  </si>
+  <si>
+    <t>++++</t>
+  </si>
+  <si>
+    <t>1022. Sum of Root To Leaf Binary Numbers</t>
+  </si>
+  <si>
+    <t>helper()函数里边逻辑，这里不好描述</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>和559题很像</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>递归，注意swap要交换两颗子树;不需要满足左右孩子都存在才交换，有个为空也是交换的，不需要什么过滤条件</t>
+  </si>
+  <si>
+    <t>+yyyy</t>
+  </si>
+  <si>
+    <t>872. Leaf-Similar Trees</t>
+  </si>
+  <si>
+    <t>dfs(main, dfs(l), dfs(r));注意是叶结点才能被加入</t>
+  </si>
+  <si>
+    <t>+?++y</t>
+  </si>
+  <si>
+    <t>669. Trim a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>分类讨论，不在区间之间和在区间之间; 查看root-&gt;val是否在范围内，还有如果在的话，就可以考虑左右孩子了</t>
+  </si>
+  <si>
+    <t>++yyyy</t>
+  </si>
+  <si>
+    <t>637. Average of Levels in Binary Tree</t>
+  </si>
+  <si>
+    <t>二叉树的层序遍历layerOrder;就是一个简单的层序遍历，不必另写函数</t>
+  </si>
+  <si>
+    <t>+?+yyyyy</t>
+  </si>
+  <si>
+    <t>108. Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>另写一个方法，递归方式，递归边界: end &lt;= start; 递归式: 找出中间索引，引用自身。数组的右边界为什么是nums.size(),而不是nums.size()-1</t>
+  </si>
+  <si>
+    <t>653. Two Sum IV - Input is a BST</t>
+  </si>
+  <si>
+    <t>这个题解我没有看懂</t>
+  </si>
+  <si>
+    <t>538. Convert BST to Greater Tree</t>
+  </si>
+  <si>
+    <t>reverse in-order traversal,递减的方式排序，后边的数需要加上前面所有的数，需要新建一个全局变量sum进行记录; 注意curSum = root-&gt;val; 注意将两个return root合成一个</t>
+  </si>
+  <si>
+    <t>++?++</t>
+  </si>
+  <si>
+    <t>606. Construct String from Binary Tree</t>
+  </si>
+  <si>
+    <t>to_string();分五种情况讨论，后来其实有两种可以合为一种：根空，跟有孩子空，根有左有，根有右有，根有左右有</t>
+  </si>
+  <si>
+    <t>+++++yy</t>
+  </si>
+  <si>
+    <t>530. Minimum Absolute Difference in BST</t>
+  </si>
+  <si>
+    <t>这个感觉比较难想; 另写一个helper()函数，类似in-order; 全局prev; prev-&gt;val只有在prev不为空的时候才有意义; 我又将if (prev != nullptr)写成 while(prev != nullptr)了，显示结果运行超时，最后还是利用对比工具找出来错误，不然还会以为是官方编译器出了问题</t>
+  </si>
+  <si>
+    <t>100. Same Tree</t>
+  </si>
+  <si>
+    <t>递归，先考虑根结点，然后对左右进行递归即可; 排序false情况的，然后剩下的就是true了</t>
+  </si>
+  <si>
+    <t>++yyy</t>
+  </si>
+  <si>
+    <t>107. Binary Tree Level Order Traversal II</t>
+  </si>
+  <si>
+    <t>层序遍历, reverse(it.begin(), it.end()), 注意res.push_back({})写法; 考虑了root, 但是忘记了左右孩子; 想清楚res.size()与树高度的关系，是先有树，再有res</t>
+  </si>
+  <si>
+    <t>783. Minimum Distance Between BST Nodes</t>
+  </si>
+  <si>
+    <t>DFS, 不要凭印象，要有做题思维</t>
+  </si>
+  <si>
+    <t>993. Cousins in Binary Tree</t>
+  </si>
+  <si>
+    <t>DFS， 考虑的东西要多一些, 完全不知道这道题的步骤是怎么写出来的</t>
+  </si>
+  <si>
+    <t>257. Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>pre-order, 其实root部分写法最重要，判断叶子结点; vector是不能使用加的, vector里边才是一个个string类型变量</t>
+  </si>
+  <si>
+    <t>y+y</t>
+  </si>
+  <si>
+    <t>404. Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>[题意]找到给定二叉树的所有左叶结点，返回其和</t>
+  </si>
+  <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>[题意]找到两个结点的挨着最近的父亲。画图，三种不同的情况，递归写出来的代码很好理解。循环结构要写好</t>
+  </si>
+  <si>
+    <t>563. Binary Tree Tilt</t>
+  </si>
+  <si>
+    <t>[题意]</t>
+  </si>
+  <si>
+    <t>++++y</t>
+  </si>
+  <si>
+    <t>543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>[题意]找到二叉树中距离最远的两个结点的距离; 这个加一是什么逻辑?; 答案中的加一可以不这样写，令ans初始为0,最后结果也是正确的</t>
+  </si>
+  <si>
     <t>++y</t>
   </si>
   <si>
-    <t>1047. Remove All Adjacent Duplicates In String</t>
-  </si>
-  <si>
-    <t>[题意]删除在string中所有相邻为相同字符的字母，返回最后的结果。string也是可以使用reverse()的。</t>
-  </si>
-  <si>
-    <t>1209. Remove All Adjacent Duplicates in String II</t>
-  </si>
-  <si>
-    <t>[题意]删除在String中相邻有k个相同元素的字母。</t>
-  </si>
-  <si>
-    <t>496. Next Greater Element I</t>
-  </si>
-  <si>
-    <t>[题意]两个数组num1, num2, 找到num1中元素在num2中下一个较大的值。</t>
-  </si>
-  <si>
-    <t>503. Next Greater Element II</t>
-  </si>
-  <si>
-    <t>933. Number of Recent Calls</t>
-  </si>
-  <si>
-    <t>Queue</t>
-  </si>
-  <si>
-    <t>+?+yyy</t>
-  </si>
-  <si>
-    <t>938. Range Sum of BST</t>
-  </si>
-  <si>
-    <t>Tree</t>
-  </si>
-  <si>
-    <t>解决方法: inorder;第二遍写了出来是把这种写法给记着了; 另写一个中序遍历函数，左右就是递归作用，中就是得到我们最后想要的结果的过程</t>
-  </si>
-  <si>
-    <t>+++y+yy</t>
-  </si>
-  <si>
-    <t>617. Merge Two Binary Trees</t>
-  </si>
-  <si>
-    <t>使用递归; 函数是否有返回值;判空之后在进行递归的书写; 递归边界、递归式;纸笔模拟</t>
-  </si>
-  <si>
-    <t>+yyyyy</t>
-  </si>
-  <si>
-    <t>700. Search in a Binary Search Tree</t>
-  </si>
-  <si>
-    <t>++yy++yyy</t>
-  </si>
-  <si>
-    <t>589. N-ary Tree Preorder Traversal</t>
-  </si>
-  <si>
-    <t>递归和迭代都要会; 这一遍我觉得是依靠记忆的，我还记得该怎么写</t>
-  </si>
-  <si>
-    <t>y?yy</t>
-  </si>
-  <si>
-    <t>590. N-ary Tree Postorder Traversal</t>
-  </si>
-  <si>
-    <t>因为会做上一题，知道的怎么写，这一题写着很快; children first, and then push back the root-&gt;val</t>
-  </si>
-  <si>
-    <t>+++yyy</t>
-  </si>
-  <si>
-    <t>897. Increasing Order Search Tree</t>
-  </si>
-  <si>
-    <t>可以打印出类似的结果，但是不知道如何以树的形式返回。</t>
-  </si>
-  <si>
-    <t>+y+yy</t>
-  </si>
-  <si>
-    <t>559. Maximum Depth of N-ary Tree</t>
-  </si>
-  <si>
-    <t>递归：靠着一个个的1积累;总是感觉使用迭代做树很难。递归写起来非常简洁</t>
-  </si>
-  <si>
-    <t>965. Univalued Binary Tree</t>
-  </si>
-  <si>
-    <t>pre-order,需要将res进行初始化</t>
-  </si>
-  <si>
-    <t>++++</t>
-  </si>
-  <si>
-    <t>1022. Sum of Root To Leaf Binary Numbers</t>
-  </si>
-  <si>
-    <t>helper()函数里边逻辑，这里不好描述</t>
-  </si>
-  <si>
-    <t>+++yy</t>
-  </si>
-  <si>
-    <t>104. Maximum Depth of Binary Tree</t>
-  </si>
-  <si>
-    <t>和559题很像</t>
-  </si>
-  <si>
-    <t>226. Invert Binary Tree</t>
-  </si>
-  <si>
-    <t>递归，注意swap要交换两颗子树;不需要满足左右孩子都存在才交换，有个为空也是交换的，不需要什么过滤条件</t>
-  </si>
-  <si>
-    <t>+yyyy</t>
-  </si>
-  <si>
-    <t>872. Leaf-Similar Trees</t>
-  </si>
-  <si>
-    <t>dfs(main, dfs(l), dfs(r));注意是叶结点才能被加入</t>
-  </si>
-  <si>
-    <t>+?++y</t>
-  </si>
-  <si>
-    <t>669. Trim a Binary Search Tree</t>
-  </si>
-  <si>
-    <t>分类讨论，不在区间之间和在区间之间; 查看root-&gt;val是否在范围内，还有如果在的话，就可以考虑左右孩子了</t>
-  </si>
-  <si>
-    <t>++yyyy</t>
-  </si>
-  <si>
-    <t>637. Average of Levels in Binary Tree</t>
-  </si>
-  <si>
-    <t>二叉树的层序遍历layerOrder;就是一个简单的层序遍历，不必另写函数</t>
-  </si>
-  <si>
-    <t>+?+yyyy</t>
-  </si>
-  <si>
-    <t>108. Convert Sorted Array to Binary Search Tree</t>
-  </si>
-  <si>
-    <t>另写一个方法，递归方式，递归边界: end &lt;= start; 递归式: 找出中间索引，引用自身。数组的右边界为什么是nums.size(),而不是nums.size()-1</t>
-  </si>
-  <si>
-    <t>653. Two Sum IV - Input is a BST</t>
-  </si>
-  <si>
-    <t>这个题解我没有看懂</t>
-  </si>
-  <si>
-    <t>538. Convert BST to Greater Tree</t>
-  </si>
-  <si>
-    <t>reverse in-order traversal,递减的方式排序，后边的数需要加上前面所有的数，需要新建一个全局变量sum进行记录; 注意curSum = root-&gt;val; 注意将两个return root合成一个</t>
-  </si>
-  <si>
-    <t>++?++</t>
-  </si>
-  <si>
-    <t>606. Construct String from Binary Tree</t>
-  </si>
-  <si>
-    <t>to_string();分五种情况讨论，后来其实有两种可以合为一种：根空，跟有孩子空，根有左有，根有右有，根有左右有</t>
-  </si>
-  <si>
-    <t>+++++yy</t>
-  </si>
-  <si>
-    <t>530. Minimum Absolute Difference in BST</t>
-  </si>
-  <si>
-    <t>这个感觉比较难想; 另写一个helper()函数，类似in-order; 全局prev; prev-&gt;val只有在prev不为空的时候才有意义; 我又将if (prev != nullptr)写成 while(prev != nullptr)了，显示结果运行超时，最后还是利用对比工具找出来错误，不然还会以为是官方编译器出了问题</t>
-  </si>
-  <si>
-    <t>100. Same Tree</t>
-  </si>
-  <si>
-    <t>递归，先考虑根结点，然后对左右进行递归即可; 排序false情况的，然后剩下的就是true了</t>
-  </si>
-  <si>
-    <t>++yyy</t>
-  </si>
-  <si>
-    <t>107. Binary Tree Level Order Traversal II</t>
-  </si>
-  <si>
-    <t>层序遍历, reverse(it.begin(), it.end()), 注意res.push_back({})写法; 考虑了root, 但是忘记了左右孩子; 想清楚res.size()与树高度的关系，是先有树，再有res</t>
-  </si>
-  <si>
-    <t>++yy</t>
-  </si>
-  <si>
-    <t>783. Minimum Distance Between BST Nodes</t>
-  </si>
-  <si>
-    <t>DFS, 不要凭印象，要有做题思维</t>
-  </si>
-  <si>
-    <t>993. Cousins in Binary Tree</t>
-  </si>
-  <si>
-    <t>DFS， 考虑的东西要多一些, 完全不知道这道题的步骤是怎么写出来的</t>
-  </si>
-  <si>
-    <t>257. Binary Tree Paths</t>
-  </si>
-  <si>
-    <t>pre-order, 其实root部分写法最重要，判断叶子结点; vector是不能使用加的, vector里边才是一个个string类型变量</t>
-  </si>
-  <si>
-    <t>y+y</t>
-  </si>
-  <si>
-    <t>404. Sum of Left Leaves</t>
-  </si>
-  <si>
-    <t>[题意]找到给定二叉树的所有左叶结点，返回其和</t>
-  </si>
-  <si>
-    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
-  </si>
-  <si>
-    <t>[题意]找到两个结点的挨着最近的父亲。画图，三种不同的情况，递归写出来的代码很好理解。循环结构要写好</t>
-  </si>
-  <si>
-    <t>563. Binary Tree Tilt</t>
-  </si>
-  <si>
-    <t>[题意]</t>
-  </si>
-  <si>
-    <t>++++y</t>
-  </si>
-  <si>
-    <t>543. Diameter of Binary Tree</t>
-  </si>
-  <si>
-    <t>[题意]找到二叉树中距离最远的两个结点的距离; 这个加一是什么逻辑?; 答案中的加一可以不这样写，令ans初始为0,最后结果也是正确的</t>
-  </si>
-  <si>
     <t>101. Symmetric Tree</t>
   </si>
   <si>
@@ -1348,7 +1389,7 @@
     <t>[题意]找出树中结点值第二小的结点。将全部结点值放入到一个set中去，自动去除重复值，然后找到第二个值，返回即可</t>
   </si>
   <si>
-    <t>++y+yyy</t>
+    <t>++y+yyyy</t>
   </si>
   <si>
     <t>701. Insert into a Binary Search Tree</t>
@@ -1396,7 +1437,7 @@
     <t>[题意]z字形打印二叉树。</t>
   </si>
   <si>
-    <t>+y+</t>
+    <t>+y++y</t>
   </si>
   <si>
     <t>437. Path Sum III</t>
@@ -1426,7 +1467,7 @@
     <t>[题意]判断一棵树是否为BST</t>
   </si>
   <si>
-    <t>y+</t>
+    <t>y++</t>
   </si>
   <si>
     <t>145. Binary Tree Postorder Traversal</t>
@@ -1447,12 +1488,18 @@
     <t>前根遍历迭代写法。</t>
   </si>
   <si>
+    <t>++y++</t>
+  </si>
+  <si>
     <t>94. Binary Tree Inorder Traversal</t>
   </si>
   <si>
     <t>中根遍历迭代写法</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>236. Lowest Common Ancestor of a Binary Tree</t>
   </si>
   <si>
@@ -1487,6 +1534,9 @@
   </si>
   <si>
     <t>[题意]找到二叉树中结点值全相同的最长路。</t>
+  </si>
+  <si>
+    <t>++yy+</t>
   </si>
   <si>
     <t>1290. Convert Binary Number in a Linked List to Integer</t>
@@ -1803,6 +1853,9 @@
     <t>22. 差一问题（栅栏错误）建造一条直栅栏（即不围圈），长30米、每条栅栏柱间相隔3米，需要多少条栅栏柱? 求数组 A[i]到 A[j] 的平均值，A[i] 到 A[j] 的和应该除以多少，是 j-i+1，还是 j-i？二分法中的 while 条件，到底是用 &lt;= 还是 &lt; ？这些都是差一问题，这类问题如何解决。利用最小的的输入值测试代码的执行过程，长期反复，达到条件反射。这个过程一定是在大量的题目练习中掌握的，如果你到目前还在纠结这个问题，请先扣心自问，是否刷过至少200道算法题。如果没有，请不要纠结，干就对了。如果有，来找我。</t>
   </si>
   <si>
+    <t>23. 时刻警醒着这个结构容器中存储的是什么东西。</t>
+  </si>
+  <si>
     <t>Tree:</t>
   </si>
   <si>
@@ -1906,16 +1959,22 @@
   <si>
     <t>1008 数组元素循环右移问题 (20分)</t>
   </si>
+  <si>
+    <t>55. Jump Game</t>
+  </si>
+  <si>
+    <t>45. Jump Game 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1958,18 +2017,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1982,77 +2034,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2065,7 +2049,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2081,6 +2065,73 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2089,6 +2140,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2156,7 +2215,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2168,19 +2287,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2192,121 +2335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2324,6 +2353,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2334,12 +2399,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2347,75 +2406,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2442,6 +2432,75 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2452,142 +2511,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2605,10 +2664,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
@@ -2624,9 +2686,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
@@ -2972,13 +3031,13 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
-    <col min="4" max="4" width="9" style="4"/>
+    <col min="4" max="4" width="9" style="5"/>
     <col min="5" max="5" width="26.3733333333333" customWidth="true"/>
     <col min="6" max="6" width="14.2533333333333" customWidth="true"/>
     <col min="7" max="7" width="18" customWidth="true"/>
@@ -3014,7 +3073,7 @@
       <c r="B2">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -3035,7 +3094,7 @@
       <c r="B3">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -3056,7 +3115,7 @@
       <c r="B4">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
@@ -3077,7 +3136,7 @@
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
@@ -3098,7 +3157,7 @@
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
@@ -3122,7 +3181,7 @@
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="s">
@@ -3143,7 +3202,7 @@
       <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
@@ -3167,7 +3226,7 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
@@ -3188,7 +3247,7 @@
       <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
@@ -3212,17 +3271,17 @@
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3235,17 +3294,17 @@
       <c r="C12">
         <v>12</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3258,17 +3317,17 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3281,17 +3340,17 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>37</v>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3304,17 +3363,17 @@
       <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>40</v>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3327,11 +3386,11 @@
       <c r="C16">
         <v>13</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>43</v>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -3347,8 +3406,8 @@
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>45</v>
+      <c r="D17" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E17" t="s">
         <v>46</v>
@@ -3370,17 +3429,17 @@
       <c r="C18">
         <v>14</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>20</v>
+      <c r="D18" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3393,17 +3452,17 @@
       <c r="C19">
         <v>15</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>50</v>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3416,17 +3475,17 @@
       <c r="C20">
         <v>13</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>43</v>
+      <c r="D20" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3439,11 +3498,11 @@
       <c r="C21">
         <v>15</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>55</v>
+      <c r="D21" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -3459,17 +3518,17 @@
       <c r="C22">
         <v>6</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>55</v>
+      <c r="D22" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3482,11 +3541,11 @@
       <c r="C23">
         <v>19</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>43</v>
+      <c r="D23" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -3502,17 +3561,17 @@
       <c r="C24">
         <v>24</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>43</v>
+      <c r="D24" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3525,17 +3584,17 @@
       <c r="C25">
         <v>24</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>43</v>
+      <c r="D25" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3548,11 +3607,11 @@
       <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>40</v>
+      <c r="D26" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -3568,11 +3627,11 @@
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>43</v>
+      <c r="D27" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -3701,7 +3760,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="10" max="10" width="7.4" style="8" customWidth="true"/>
+    <col min="10" max="10" width="7.4" style="9" customWidth="true"/>
     <col min="11" max="11" width="23.1" customWidth="true"/>
   </cols>
   <sheetData>
@@ -3715,7 +3774,7 @@
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -3738,14 +3797,14 @@
       <c r="I2">
         <v>6</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>77</v>
+      <c r="J2" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="K2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="7:12">
@@ -3759,14 +3818,14 @@
       <c r="I3">
         <v>17</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>43</v>
+      <c r="J3" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="7:12">
@@ -3780,14 +3839,14 @@
       <c r="I4">
         <v>24</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>43</v>
+      <c r="J4" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="7:12">
@@ -3796,7 +3855,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="7:12">
@@ -3805,7 +3864,7 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="7:12">
@@ -3814,7 +3873,7 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="7:12">
@@ -3823,7 +3882,7 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="7:12">
@@ -3832,7 +3891,7 @@
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="7:12">
@@ -3841,7 +3900,7 @@
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="7:12">
@@ -3850,7 +3909,7 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="7:12">
@@ -3859,7 +3918,7 @@
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="7:12">
@@ -3868,7 +3927,7 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="7:12">
@@ -3877,7 +3936,7 @@
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="7:12">
@@ -3886,7 +3945,7 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="7:12">
@@ -3895,7 +3954,7 @@
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="7:12">
@@ -3904,7 +3963,7 @@
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="7:12">
@@ -3913,7 +3972,7 @@
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="7:12">
@@ -3922,7 +3981,7 @@
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="7:12">
@@ -3931,7 +3990,7 @@
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="7:12">
@@ -3940,7 +3999,7 @@
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="7:12">
@@ -3949,7 +4008,7 @@
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="7:12">
@@ -3958,7 +4017,7 @@
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="7:12">
@@ -3967,7 +4026,7 @@
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="7:12">
@@ -3976,7 +4035,7 @@
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="7:12">
@@ -3985,7 +4044,7 @@
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="7:12">
@@ -3994,7 +4053,7 @@
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="7:12">
@@ -4003,7 +4062,7 @@
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="7:12">
@@ -4012,7 +4071,7 @@
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="7:12">
@@ -4021,7 +4080,7 @@
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="7:12">
@@ -4030,7 +4089,7 @@
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="7:12">
@@ -4039,7 +4098,7 @@
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="7:12">
@@ -4048,7 +4107,7 @@
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="7:12">
@@ -4057,7 +4116,7 @@
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="7:12">
@@ -4066,7 +4125,7 @@
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="7:12">
@@ -4075,7 +4134,7 @@
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="7:12">
@@ -4084,7 +4143,7 @@
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4134,7 +4193,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -4158,16 +4217,16 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4176,7 +4235,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4185,7 +4244,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4194,7 +4253,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4203,7 +4262,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4212,7 +4271,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4221,7 +4280,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4230,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4239,7 +4298,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4248,7 +4307,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4257,7 +4316,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4266,7 +4325,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4275,7 +4334,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4284,7 +4343,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4293,7 +4352,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4302,7 +4361,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4311,7 +4370,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4320,7 +4379,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4329,7 +4388,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4338,7 +4397,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4347,7 +4406,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4356,7 +4415,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4365,7 +4424,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4374,7 +4433,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4383,7 +4442,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4392,7 +4451,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4401,7 +4460,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4410,7 +4469,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4419,7 +4478,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4428,7 +4487,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4437,7 +4496,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4446,7 +4505,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4467,7 +4526,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="8.8" style="4"/>
+    <col min="4" max="4" width="8.8" style="5"/>
     <col min="6" max="6" width="12.4" customWidth="true"/>
   </cols>
   <sheetData>
@@ -4481,7 +4540,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -4504,14 +4563,14 @@
       <c r="C2">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>40</v>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4525,14 +4584,14 @@
       <c r="C3">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>43</v>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4731,263 +4790,268 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="L129" sqref="L129"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
-        <v>297</v>
+      <c r="A20" s="6" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>300</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>158</v>
+        <v>305</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="7" t="s">
-        <v>316</v>
+      <c r="A39" s="8" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="5" t="s">
-        <v>320</v>
+      <c r="A43" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>321</v>
+      <c r="A44" s="6" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="5" t="s">
-        <v>226</v>
+      <c r="A46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="6" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>324</v>
+      <c r="A51" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="5" t="s">
-        <v>75</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="5" t="s">
-        <v>329</v>
+      <c r="A66" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="5" t="s">
-        <v>331</v>
+      <c r="A69" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>332</v>
+      <c r="A78" s="6" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="5" t="s">
-        <v>218</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B98" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="5" t="s">
-        <v>338</v>
+      <c r="A85" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B99" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>339</v>
+      <c r="A107" s="6" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>340</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -5002,12 +5066,12 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="5" width="8.8" style="4"/>
+    <col min="4" max="5" width="8.8" style="5"/>
     <col min="6" max="6" width="13" customWidth="true"/>
   </cols>
   <sheetData>
@@ -5021,7 +5085,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -5044,14 +5108,14 @@
       <c r="C2">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>341</v>
+      <c r="D2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>347</v>
       </c>
       <c r="F2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5060,7 +5124,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5069,7 +5133,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5078,7 +5142,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5087,7 +5151,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5096,7 +5160,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5105,7 +5169,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5114,7 +5178,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5123,7 +5187,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5132,7 +5196,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5141,7 +5205,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5150,7 +5214,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5159,7 +5223,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5168,7 +5232,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5177,7 +5241,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5186,7 +5250,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5195,7 +5259,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5204,7 +5268,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5213,7 +5277,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5222,7 +5286,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5231,7 +5295,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5240,7 +5304,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5249,7 +5313,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5258,7 +5322,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5267,7 +5331,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5276,7 +5340,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5285,7 +5349,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5294,7 +5358,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5303,7 +5367,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5312,7 +5376,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5321,7 +5385,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5330,7 +5394,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5339,7 +5403,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5348,7 +5412,7 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -5412,7 +5476,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -5436,10 +5500,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5454,10 +5518,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -5662,6 +5726,304 @@
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <f t="shared" ref="A4:A40" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5721,16 +6083,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5745,13 +6107,13 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5766,10 +6128,10 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5784,13 +6146,13 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5805,13 +6167,13 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5820,7 +6182,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5829,7 +6191,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5838,7 +6200,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5847,7 +6209,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5856,7 +6218,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5865,7 +6227,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5874,7 +6236,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5883,7 +6245,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5892,7 +6254,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5901,7 +6263,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5910,7 +6272,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5919,7 +6281,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5928,7 +6290,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5937,7 +6299,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5946,7 +6308,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5955,7 +6317,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5964,7 +6326,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5973,7 +6335,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5982,7 +6344,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5991,7 +6353,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6000,7 +6362,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6009,7 +6371,7 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6018,7 +6380,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6027,7 +6389,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6036,7 +6398,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6045,7 +6407,7 @@
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6054,7 +6416,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6063,7 +6425,7 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6072,7 +6434,7 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6081,7 +6443,7 @@
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6090,7 +6452,7 @@
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6099,7 +6461,7 @@
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6119,12 +6481,12 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="8.8" style="8"/>
+    <col min="4" max="4" width="8.8" style="9"/>
     <col min="5" max="5" width="29.4" customWidth="true"/>
   </cols>
   <sheetData>
@@ -6138,7 +6500,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -6161,17 +6523,17 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>45</v>
+      <c r="D2" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6186,17 +6548,17 @@
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
         <v>77</v>
       </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
-      </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6211,17 +6573,17 @@
       <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>32</v>
+      <c r="D4" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6236,17 +6598,17 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>32</v>
+      <c r="D5" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6261,14 +6623,14 @@
       <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>45</v>
+      <c r="D6" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6284,7 +6646,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6300,7 +6662,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6316,7 +6678,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6329,7 +6691,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6342,7 +6704,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6355,7 +6717,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6368,7 +6730,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6381,7 +6743,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6394,7 +6756,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6407,7 +6769,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6420,7 +6782,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6433,7 +6795,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6446,7 +6808,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6459,7 +6821,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6472,7 +6834,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6485,7 +6847,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6498,7 +6860,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6511,7 +6873,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6524,7 +6886,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6537,7 +6899,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6550,7 +6912,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6563,7 +6925,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6576,7 +6938,7 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6589,7 +6951,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6602,7 +6964,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6615,7 +6977,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6628,7 +6990,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6641,7 +7003,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6654,7 +7016,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6667,7 +7029,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6680,7 +7042,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6693,7 +7055,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6706,7 +7068,7 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6719,7 +7081,7 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6732,7 +7094,7 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6745,7 +7107,7 @@
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6758,7 +7120,7 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6771,7 +7133,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6784,7 +7146,7 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6797,7 +7159,7 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6810,7 +7172,7 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6823,7 +7185,7 @@
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6836,7 +7198,7 @@
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6849,7 +7211,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6862,7 +7224,7 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6875,7 +7237,7 @@
         <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6888,7 +7250,7 @@
         <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6901,7 +7263,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6914,7 +7276,7 @@
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6927,7 +7289,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6940,7 +7302,7 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6953,7 +7315,7 @@
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6966,7 +7328,7 @@
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6979,7 +7341,7 @@
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -7041,10 +7403,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7057,7 +7419,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7070,7 +7432,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7083,7 +7445,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7096,7 +7458,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7109,7 +7471,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7122,7 +7484,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7135,7 +7497,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7148,7 +7510,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7161,7 +7523,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7174,7 +7536,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7187,7 +7549,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7200,7 +7562,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7213,7 +7575,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7226,7 +7588,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7239,7 +7601,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7252,7 +7614,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7265,7 +7627,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7278,7 +7640,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7291,7 +7653,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7304,7 +7666,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7317,7 +7679,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7330,7 +7692,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7343,7 +7705,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7356,7 +7718,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7365,7 +7727,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -7400,16 +7762,16 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
-    <col min="4" max="4" width="9" style="4"/>
+    <col min="4" max="4" width="9" style="5"/>
     <col min="5" max="5" width="50" customWidth="true"/>
     <col min="6" max="6" width="4.9" customWidth="true"/>
   </cols>
@@ -7447,17 +7809,17 @@
       <c r="C2">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>87</v>
+      <c r="D2" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7471,17 +7833,17 @@
       <c r="C3">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>91</v>
+      <c r="D3" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
         <v>92</v>
       </c>
-      <c r="F3" t="s">
-        <v>89</v>
-      </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7495,14 +7857,14 @@
       <c r="C4">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>94</v>
+      <c r="D4" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E4" t="s">
